--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -14,16 +14,17 @@
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
     <sheet name="ЖБ конструкции" sheetId="2" r:id="rId2"/>
-    <sheet name="Материалы" sheetId="3" r:id="rId3"/>
-    <sheet name="Инструменты" sheetId="4" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId5"/>
+    <sheet name="Покупки" sheetId="6" r:id="rId3"/>
+    <sheet name="Материалы" sheetId="3" r:id="rId4"/>
+    <sheet name="Инструменты" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>№ п/п</t>
   </si>
@@ -352,15 +353,100 @@
   <si>
     <t> Калининградская обл, Гурьевский район</t>
   </si>
+  <si>
+    <t>кувалда</t>
+  </si>
+  <si>
+    <t>Прутья (арматура)</t>
+  </si>
+  <si>
+    <t>Рулетка</t>
+  </si>
+  <si>
+    <t>Шнур</t>
+  </si>
+  <si>
+    <t>Лопаты</t>
+  </si>
+  <si>
+    <t>Грабли</t>
+  </si>
+  <si>
+    <t>Рабочая одежда</t>
+  </si>
+  <si>
+    <t>еду и питьё</t>
+  </si>
+  <si>
+    <t>топор</t>
+  </si>
+  <si>
+    <t>невелир с треногой и линейкой</t>
+  </si>
+  <si>
+    <t>перчатки</t>
+  </si>
+  <si>
+    <t>уровень длинный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование </t>
+  </si>
+  <si>
+    <t>Земельный участок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арматура 12 мм </t>
+  </si>
+  <si>
+    <t>на колья разметки периметра земельного участка и петна застройки дома</t>
+  </si>
+  <si>
+    <t>Вынос границ земельного участка</t>
+  </si>
+  <si>
+    <t>есть акт проведённых работ</t>
+  </si>
+  <si>
+    <t>Проект одноэтажного дома</t>
+  </si>
+  <si>
+    <t>6-131</t>
+  </si>
+  <si>
+    <t>Грузовик песка</t>
+  </si>
+  <si>
+    <t>оформление покупки земельного участка у нотариуса</t>
+  </si>
+  <si>
+    <t>Стройка дома</t>
+  </si>
+  <si>
+    <t>Договор с Росссети Янтарь на технологическое подключение</t>
+  </si>
+  <si>
+    <t>ДОГОВОР № 1740/02/24</t>
+  </si>
+  <si>
+    <t>25-28 тонн</t>
+  </si>
+  <si>
+    <t>Невилир с треногой и линейкой</t>
+  </si>
+  <si>
+    <t>Лазерный невилир</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +549,15 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -494,7 +589,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -528,12 +623,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -742,30 +842,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
-  <autoFilter ref="A4:F27"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
-      <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:E36" totalsRowShown="0">
+  <autoFilter ref="B5:E36"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="№ п/п"/>
+    <tableColumn id="2" name="Наименование "/>
+    <tableColumn id="3" name="Цена (руб)" dataDxfId="0"/>
+    <tableColumn id="4" name="Примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
+  <autoFilter ref="A4:F27"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
+      <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B5:E26" totalsRowShown="0">
   <autoFilter ref="B5:E26"/>
   <tableColumns count="4">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование"/>
-    <tableColumn id="3" name="Цена (руб)" dataDxfId="6"/>
+    <tableColumn id="3" name="Цена (руб)" dataDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1300,9 +1413,240 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="80.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="19">
+        <v>41000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="19">
+        <v>139448.70000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="19">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1708,7 +2052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E26"/>
   <sheetViews>
@@ -1857,16 +2201,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>№ п/п</t>
   </si>
@@ -436,6 +436,30 @@
   </si>
   <si>
     <t>Лазерный невилир</t>
+  </si>
+  <si>
+    <t>Арматура стеклопластиковая 8 мм - 3 шт</t>
+  </si>
+  <si>
+    <t>Для кольев (разметка фумента)</t>
+  </si>
+  <si>
+    <t>Звёздочка 35 мм (6 упаковок - 300 шт)</t>
+  </si>
+  <si>
+    <t>шнур полиамидный кручённый</t>
+  </si>
+  <si>
+    <t>100 метров - для разметки фундамента</t>
+  </si>
+  <si>
+    <t>Перчатки рабочие</t>
+  </si>
+  <si>
+    <t>10 пар</t>
+  </si>
+  <si>
+    <t>дата</t>
   </si>
 </sst>
 </file>
@@ -589,7 +613,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -625,14 +649,15 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -692,6 +717,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,13 +870,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:E36" totalsRowShown="0">
-  <autoFilter ref="B5:E36"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F36" totalsRowShown="0">
+  <autoFilter ref="B5:F36"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" dataDxfId="0"/>
+    <tableColumn id="3" name="Цена (руб)" dataDxfId="10"/>
     <tableColumn id="4" name="Примечание"/>
+    <tableColumn id="5" name="дата" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1413,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E36"/>
+  <dimension ref="B3:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,14 +1453,15 @@
     <col min="3" max="3" width="61.140625" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1444,8 +1474,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1455,8 +1488,9 @@
       <c r="D6" s="19">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1469,8 +1503,9 @@
       <c r="E7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1483,8 +1518,9 @@
       <c r="E8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -1497,8 +1533,9 @@
       <c r="E9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -1511,8 +1548,9 @@
       <c r="E10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -1522,8 +1560,9 @@
       <c r="D11" s="19">
         <v>15000</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
@@ -1533,8 +1572,9 @@
       <c r="D12" s="19">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
@@ -1547,8 +1587,9 @@
       <c r="E13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
@@ -1558,8 +1599,9 @@
       <c r="D14" s="19">
         <v>12000</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -1569,69 +1611,146 @@
       <c r="D15" s="19">
         <v>3348</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="19">
+        <v>216.96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="21">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1112.52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="21">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="19">
+        <v>280.58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="21">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="19">
+        <v>155.97999999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="21">
+        <v>45361</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
       <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="19"/>
+      <c r="F36" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>№ п/п</t>
   </si>
@@ -460,6 +460,18 @@
   </si>
   <si>
     <t>дата</t>
+  </si>
+  <si>
+    <t>Ёмкость ПЭТ 215 литров - 1 шт</t>
+  </si>
+  <si>
+    <t>бочка пластиковая, выписал на работе.</t>
+  </si>
+  <si>
+    <t>Трубы прямоугольного сечения - 8 шт</t>
+  </si>
+  <si>
+    <t>купил на 3 площадке</t>
   </si>
 </sst>
 </file>
@@ -657,9 +669,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -717,6 +726,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -877,7 +889,7 @@
     <tableColumn id="2" name="Наименование "/>
     <tableColumn id="3" name="Цена (руб)" dataDxfId="10"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -887,15 +899,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,7 +919,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование"/>
-    <tableColumn id="3" name="Цена (руб)" dataDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" dataDxfId="6"/>
     <tableColumn id="4" name="Примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1445,7 +1457,7 @@
   <dimension ref="B3:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,12 +1697,35 @@
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="F20" s="21"/>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="19">
+        <v>250</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="21">
+        <v>45366</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="19"/>
-      <c r="F21" s="21"/>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="21">
+        <v>45366</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="19"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Инструменты" sheetId="4" r:id="rId5"/>
     <sheet name="Лист1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>№ п/п</t>
   </si>
@@ -473,16 +473,22 @@
   <si>
     <t>купил на 3 площадке</t>
   </si>
+  <si>
+    <t>Лазерный дальномер</t>
+  </si>
+  <si>
+    <t>Лазерный дальномер MILESEEY, S2, 60 м</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +600,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -625,7 +639,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -662,6 +676,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1457,7 +1474,7 @@
   <dimension ref="B3:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,8 +1745,21 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="19"/>
-      <c r="F22" s="21"/>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="19">
+        <v>978</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="21">
+        <v>45374</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" s="19"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Инструменты" sheetId="4" r:id="rId5"/>
     <sheet name="Лист1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>№ п/п</t>
   </si>
@@ -479,11 +479,32 @@
   <si>
     <t>Лазерный дальномер MILESEEY, S2, 60 м</t>
   </si>
+  <si>
+    <t>10 тонн</t>
+  </si>
+  <si>
+    <t>Гравий 20/40</t>
+  </si>
+  <si>
+    <t>Бочка пластиковая 200 литров</t>
+  </si>
+  <si>
+    <t>выписал на работе</t>
+  </si>
+  <si>
+    <t>труба металическая 40х40 мм</t>
+  </si>
+  <si>
+    <t>1,5м - 6 штук</t>
+  </si>
+  <si>
+    <t>1 шт</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1473,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1503,7 @@
     <col min="3" max="3" width="61.140625" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1601,6 +1622,9 @@
       <c r="D12" s="19">
         <v>300</v>
       </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1762,23 +1786,78 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="19"/>
-      <c r="F23" s="21"/>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="19">
+        <v>7500</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="21">
+        <v>45388</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="19"/>
-      <c r="F24" s="21"/>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="19">
+        <v>18500</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="21">
+        <v>45388</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="19"/>
-      <c r="F25" s="21"/>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="19">
+        <v>500</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="21">
+        <v>45386</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="19"/>
-      <c r="F26" s="21"/>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1620</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="21">
+        <v>45384</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="19"/>
+      <c r="D27" s="19">
+        <f>SUM(D6:D26)</f>
+        <v>1300210.74</v>
+      </c>
       <c r="F27" s="21"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>№ п/п</t>
   </si>
@@ -500,6 +500,39 @@
   <si>
     <t>1 шт</t>
   </si>
+  <si>
+    <r>
+      <t>Геотекстиль 200г/м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>² 3х10 м</t>
+    </r>
+  </si>
+  <si>
+    <t>1 шт. Бауентр</t>
+  </si>
+  <si>
+    <r>
+      <t>Геотекстиль 200г/м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>² 3х20 м</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +542,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +661,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1494,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,15 +1894,38 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
       <c r="D27" s="19">
-        <f>SUM(D6:D26)</f>
-        <v>1300210.74</v>
-      </c>
-      <c r="F27" s="21"/>
+        <v>1866</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="21">
+        <v>45389</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="19"/>
-      <c r="F28" s="21"/>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="19">
+        <v>3741</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="21">
+        <v>45389</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" s="19"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
   <si>
     <t>№ п/п</t>
   </si>
@@ -532,6 +532,39 @@
       </rPr>
       <t>² 3х20 м</t>
     </r>
+  </si>
+  <si>
+    <t>Доска 25х100х6000 - 24 500 р/м3</t>
+  </si>
+  <si>
+    <t>Гвозди строительные 3х80 - 1 кг - 145 р</t>
+  </si>
+  <si>
+    <t>Гвозди строительные 4х100 - 1 кг - 117 р</t>
+  </si>
+  <si>
+    <t>2 кг</t>
+  </si>
+  <si>
+    <t>шурупы 3,5х41</t>
+  </si>
+  <si>
+    <t>шурупы 4,2х65</t>
+  </si>
+  <si>
+    <t>вес</t>
+  </si>
+  <si>
+    <t>2 шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доставка досок </t>
+  </si>
+  <si>
+    <t>грузовое авто</t>
+  </si>
+  <si>
+    <t>ведро, шурупы, плёнка</t>
   </si>
 </sst>
 </file>
@@ -960,8 +993,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F36" totalsRowShown="0">
-  <autoFilter ref="B5:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F50" totalsRowShown="0">
+  <autoFilter ref="B5:F50"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -1532,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F36"/>
+  <dimension ref="B3:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,36 +1961,187 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="19"/>
-      <c r="F29" s="21"/>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="19">
+        <v>49245</v>
+      </c>
+      <c r="F29" s="21">
+        <v>45395</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="19"/>
-      <c r="F30" s="21"/>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="19">
+        <v>290</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="21">
+        <v>45394</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="19"/>
-      <c r="F31" s="21"/>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="19">
+        <v>234</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="21">
+        <v>45394</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="19"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="19"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="19"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="19"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="19"/>
-      <c r="F36" s="21"/>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="19">
+        <v>178.75</v>
+      </c>
+      <c r="F32" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="19">
+        <v>148</v>
+      </c>
+      <c r="F33" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="19">
+        <v>415.91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="19">
+        <v>680</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="21">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2500</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="21">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="19"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="19"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="19"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="19"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="19"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="19"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="19"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="19"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="19"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="19"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="19"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="19"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="19"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="19"/>
+      <c r="F50" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>№ п/п</t>
   </si>
@@ -565,6 +565,18 @@
   </si>
   <si>
     <t>ведро, шурупы, плёнка</t>
+  </si>
+  <si>
+    <t>Гвозди 4 кг + 2 сверла</t>
+  </si>
+  <si>
+    <t>Строитель</t>
+  </si>
+  <si>
+    <t>ОСБ 12 мм и 9 мм + доставка</t>
+  </si>
+  <si>
+    <t>9мм - 690 р, 12мм - 940 р доставка 1500р с Поддубного</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1580,7 @@
   <dimension ref="B3:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,12 +2100,38 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="19"/>
-      <c r="F37" s="21"/>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="19">
+        <v>820</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="21">
+        <v>45397</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="19"/>
-      <c r="F38" s="21"/>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="19">
+        <v>21380</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="21">
+        <v>45400</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D39" s="19"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
   <si>
     <t>№ п/п</t>
   </si>
@@ -577,6 +577,15 @@
   </si>
   <si>
     <t>9мм - 690 р, 12мм - 940 р доставка 1500р с Поддубного</t>
+  </si>
+  <si>
+    <t xml:space="preserve">садовая тачка + геотекстиль </t>
+  </si>
+  <si>
+    <t>петли для ворот + замок накидной</t>
+  </si>
+  <si>
+    <t>8 соток</t>
   </si>
 </sst>
 </file>
@@ -1579,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1632,12 @@
       <c r="D6" s="19">
         <v>1040000</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="21">
+        <v>45287</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -2134,12 +2148,32 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="19"/>
-      <c r="F39" s="21"/>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3600</v>
+      </c>
+      <c r="F39" s="21">
+        <v>45401</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="19"/>
-      <c r="F40" s="21"/>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="19">
+        <v>675</v>
+      </c>
+      <c r="F40" s="21">
+        <v>45402</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D41" s="19"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -16,15 +16,13 @@
     <sheet name="ЖБ конструкции" sheetId="2" r:id="rId2"/>
     <sheet name="Покупки" sheetId="6" r:id="rId3"/>
     <sheet name="Материалы" sheetId="3" r:id="rId4"/>
-    <sheet name="Инструменты" sheetId="4" r:id="rId5"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>№ п/п</t>
   </si>
@@ -306,39 +304,12 @@
     <t>https://www.glenar.ru/page/stoimost-i-sposoby-dostavki</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Тачка</t>
-  </si>
-  <si>
-    <t>Бетономешалка</t>
-  </si>
-  <si>
     <t>Цена (руб)</t>
   </si>
   <si>
-    <t>Бетономешалка электрическая ПРОФМАШ Б-160 140 л - Бауцентр</t>
-  </si>
-  <si>
-    <t>Бетоносмеситель Kronwerk 160 л 700 Вт - Леруа</t>
-  </si>
-  <si>
-    <t>Тачка садовая одноколесная 90 кг 65 л</t>
-  </si>
-  <si>
-    <t>Тачка садовая 65 л</t>
-  </si>
-  <si>
-    <t>Бауцентр</t>
-  </si>
-  <si>
     <t>Геотекстиль</t>
   </si>
   <si>
-    <t>Необходимые инструменты</t>
-  </si>
-  <si>
     <t>! внимание, контакты, возможно, неправильные.</t>
   </si>
   <si>
@@ -354,40 +325,7 @@
     <t> Калининградская обл, Гурьевский район</t>
   </si>
   <si>
-    <t>кувалда</t>
-  </si>
-  <si>
-    <t>Прутья (арматура)</t>
-  </si>
-  <si>
-    <t>Рулетка</t>
-  </si>
-  <si>
-    <t>Шнур</t>
-  </si>
-  <si>
-    <t>Лопаты</t>
-  </si>
-  <si>
     <t>Грабли</t>
-  </si>
-  <si>
-    <t>Рабочая одежда</t>
-  </si>
-  <si>
-    <t>еду и питьё</t>
-  </si>
-  <si>
-    <t>топор</t>
-  </si>
-  <si>
-    <t>невелир с треногой и линейкой</t>
-  </si>
-  <si>
-    <t>перчатки</t>
-  </si>
-  <si>
-    <t>уровень длинный</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование </t>
@@ -587,6 +525,21 @@
   <si>
     <t>8 соток</t>
   </si>
+  <si>
+    <t>арматура 12мм + 8 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фиксаторы арматуры + проволока </t>
+  </si>
+  <si>
+    <t>доставка арматуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 шт + 31 шт (12 метров) </t>
+  </si>
+  <si>
+    <t>услуги резки арматуры газом</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +549,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,32 +615,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002855"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -754,7 +683,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,22 +705,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,7 +723,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -849,9 +773,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -1019,9 +940,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" dataDxfId="10"/>
+    <tableColumn id="3" name="Цена (руб)" dataDxfId="9"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="9"/>
+    <tableColumn id="5" name="дата" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1034,27 +955,14 @@
     <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
     <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
     <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1">
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B5:E26" totalsRowShown="0">
-  <autoFilter ref="B5:E26"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="№ п/п"/>
-    <tableColumn id="2" name="Наименование"/>
-    <tableColumn id="3" name="Цена (руб)" dataDxfId="6"/>
-    <tableColumn id="4" name="Примечание"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1347,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -1522,28 +1430,28 @@
       <c r="F22" s="8"/>
     </row>
     <row r="48" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F48" s="18" t="s">
-        <v>65</v>
+      <c r="F48" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F49" s="18" t="s">
-        <v>66</v>
+      <c r="F49" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F50" s="18" t="s">
-        <v>67</v>
+      <c r="F50" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F51" s="18" t="s">
-        <v>68</v>
+      <c r="F51" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F52" s="18" t="s">
-        <v>69</v>
+      <c r="F52" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1588,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,8 +1509,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="20" t="s">
-        <v>92</v>
+      <c r="C3" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1610,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1627,15 +1535,15 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="19">
+        <v>63</v>
+      </c>
+      <c r="D6" s="16">
         <v>1040000</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="21">
+        <v>119</v>
+      </c>
+      <c r="F6" s="18">
         <v>45287</v>
       </c>
     </row>
@@ -1644,141 +1552,141 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="19">
+        <v>64</v>
+      </c>
+      <c r="D7" s="16">
         <v>2000</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="19">
+        <v>66</v>
+      </c>
+      <c r="D8" s="16">
         <v>4000</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="19">
+        <v>68</v>
+      </c>
+      <c r="D9" s="16">
         <v>41000</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="19">
+        <v>70</v>
+      </c>
+      <c r="D10" s="16">
         <v>10000</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="19">
+        <v>71</v>
+      </c>
+      <c r="D11" s="16">
         <v>15000</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="19">
+        <v>61</v>
+      </c>
+      <c r="D12" s="16">
         <v>300</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="19">
+        <v>73</v>
+      </c>
+      <c r="D13" s="16">
         <v>139448.70000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="19">
+        <v>76</v>
+      </c>
+      <c r="D14" s="16">
         <v>12000</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="19">
+        <v>77</v>
+      </c>
+      <c r="D15" s="16">
         <v>3348</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="19">
+        <v>78</v>
+      </c>
+      <c r="D16" s="16">
         <v>216.96</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="21">
+        <v>79</v>
+      </c>
+      <c r="F16" s="18">
         <v>45361</v>
       </c>
     </row>
@@ -1789,13 +1697,13 @@
       <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="16">
         <v>1112.52</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="21">
+        <v>80</v>
+      </c>
+      <c r="F17" s="18">
         <v>45361</v>
       </c>
     </row>
@@ -1804,15 +1712,15 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="19">
+        <v>81</v>
+      </c>
+      <c r="D18" s="16">
         <v>280.58</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="21">
+        <v>82</v>
+      </c>
+      <c r="F18" s="18">
         <v>45361</v>
       </c>
     </row>
@@ -1821,15 +1729,15 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="19">
+        <v>83</v>
+      </c>
+      <c r="D19" s="16">
         <v>155.97999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="21">
+        <v>84</v>
+      </c>
+      <c r="F19" s="18">
         <v>45361</v>
       </c>
     </row>
@@ -1838,15 +1746,15 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="19">
+        <v>86</v>
+      </c>
+      <c r="D20" s="16">
         <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="21">
+        <v>87</v>
+      </c>
+      <c r="F20" s="18">
         <v>45366</v>
       </c>
     </row>
@@ -1855,15 +1763,15 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="19">
+        <v>88</v>
+      </c>
+      <c r="D21" s="16">
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="21">
+        <v>89</v>
+      </c>
+      <c r="F21" s="18">
         <v>45366</v>
       </c>
     </row>
@@ -1872,15 +1780,15 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="19">
+        <v>90</v>
+      </c>
+      <c r="D22" s="16">
         <v>978</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="21">
+      <c r="E22" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="18">
         <v>45374</v>
       </c>
     </row>
@@ -1891,13 +1799,13 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="16">
         <v>7500</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="21">
+        <v>92</v>
+      </c>
+      <c r="F23" s="18">
         <v>45388</v>
       </c>
     </row>
@@ -1906,15 +1814,15 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="19">
+        <v>93</v>
+      </c>
+      <c r="D24" s="16">
         <v>18500</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="21">
+        <v>92</v>
+      </c>
+      <c r="F24" s="18">
         <v>45388</v>
       </c>
     </row>
@@ -1923,15 +1831,15 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="19">
+        <v>94</v>
+      </c>
+      <c r="D25" s="16">
         <v>500</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="21">
+        <v>95</v>
+      </c>
+      <c r="F25" s="18">
         <v>45386</v>
       </c>
     </row>
@@ -1940,15 +1848,15 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="19">
+        <v>96</v>
+      </c>
+      <c r="D26" s="16">
         <v>1620</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="21">
+        <v>97</v>
+      </c>
+      <c r="F26" s="18">
         <v>45384</v>
       </c>
     </row>
@@ -1957,15 +1865,15 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="19">
+        <v>99</v>
+      </c>
+      <c r="D27" s="16">
         <v>1866</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="21">
+        <v>100</v>
+      </c>
+      <c r="F27" s="18">
         <v>45389</v>
       </c>
     </row>
@@ -1974,15 +1882,15 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="19">
+        <v>101</v>
+      </c>
+      <c r="D28" s="16">
         <v>3741</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="21">
+        <v>100</v>
+      </c>
+      <c r="F28" s="18">
         <v>45389</v>
       </c>
     </row>
@@ -1991,12 +1899,12 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="19">
+        <v>102</v>
+      </c>
+      <c r="D29" s="16">
         <v>49245</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="18">
         <v>45395</v>
       </c>
     </row>
@@ -2005,15 +1913,15 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="19">
+        <v>103</v>
+      </c>
+      <c r="D30" s="16">
         <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="21">
+        <v>105</v>
+      </c>
+      <c r="F30" s="18">
         <v>45394</v>
       </c>
     </row>
@@ -2022,15 +1930,15 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="19">
+        <v>104</v>
+      </c>
+      <c r="D31" s="16">
         <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="21">
+        <v>105</v>
+      </c>
+      <c r="F31" s="18">
         <v>45394</v>
       </c>
     </row>
@@ -2039,12 +1947,12 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="19">
+        <v>106</v>
+      </c>
+      <c r="D32" s="16">
         <v>178.75</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="18">
         <v>45394</v>
       </c>
     </row>
@@ -2053,12 +1961,12 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="19">
+        <v>106</v>
+      </c>
+      <c r="D33" s="16">
         <v>148</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="18">
         <v>45394</v>
       </c>
     </row>
@@ -2067,15 +1975,15 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="19">
+        <v>107</v>
+      </c>
+      <c r="D34" s="16">
         <v>415.91</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="21">
+        <v>108</v>
+      </c>
+      <c r="F34" s="18">
         <v>45394</v>
       </c>
     </row>
@@ -2084,15 +1992,15 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="19">
+        <v>112</v>
+      </c>
+      <c r="D35" s="16">
         <v>680</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="21">
+        <v>109</v>
+      </c>
+      <c r="F35" s="18">
         <v>45394</v>
       </c>
     </row>
@@ -2101,15 +2009,15 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="19">
+        <v>110</v>
+      </c>
+      <c r="D36" s="16">
         <v>2500</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="21">
+        <v>111</v>
+      </c>
+      <c r="F36" s="18">
         <v>45395</v>
       </c>
     </row>
@@ -2118,15 +2026,15 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="19">
+        <v>113</v>
+      </c>
+      <c r="D37" s="16">
         <v>820</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="21">
+        <v>114</v>
+      </c>
+      <c r="F37" s="18">
         <v>45397</v>
       </c>
     </row>
@@ -2135,15 +2043,15 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="19">
+        <v>115</v>
+      </c>
+      <c r="D38" s="16">
         <v>21380</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="21">
+        <v>116</v>
+      </c>
+      <c r="F38" s="18">
         <v>45400</v>
       </c>
     </row>
@@ -2152,12 +2060,12 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="19">
+        <v>117</v>
+      </c>
+      <c r="D39" s="16">
         <v>3600</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="18">
         <v>45401</v>
       </c>
     </row>
@@ -2166,54 +2074,97 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="19">
+        <v>118</v>
+      </c>
+      <c r="D40" s="16">
         <v>675</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="18">
         <v>45402</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="19"/>
-      <c r="F41" s="21"/>
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="16">
+        <v>69505</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="18">
+        <v>45405</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="19"/>
-      <c r="F42" s="21"/>
+      <c r="B42">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="16">
+        <v>4070</v>
+      </c>
+      <c r="F42" s="18">
+        <v>45405</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="19"/>
-      <c r="F43" s="21"/>
+      <c r="B43">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="16">
+        <v>450</v>
+      </c>
+      <c r="F43" s="18">
+        <v>45405</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="19"/>
-      <c r="F44" s="21"/>
+      <c r="B44">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="16">
+        <v>2501</v>
+      </c>
+      <c r="F44" s="18">
+        <v>45406</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="19"/>
-      <c r="F45" s="21"/>
+      <c r="D45" s="16"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="19"/>
-      <c r="F46" s="21"/>
+      <c r="D46" s="16"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="19"/>
-      <c r="F47" s="21"/>
+      <c r="D47" s="16"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="19"/>
-      <c r="F48" s="21"/>
+      <c r="D48" s="16"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="19"/>
-      <c r="F49" s="21"/>
+      <c r="D49" s="16"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="19"/>
-      <c r="F50" s="21"/>
+      <c r="D50" s="16"/>
+      <c r="F50" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2243,7 +2194,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2277,10 +2228,10 @@
       <c r="C5">
         <v>45</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>7000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>315000</v>
       </c>
@@ -2298,10 +2249,10 @@
       <c r="C6">
         <v>15.3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>7000</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>107100</v>
       </c>
@@ -2319,10 +2270,10 @@
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>8000</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>64000</v>
       </c>
@@ -2340,10 +2291,10 @@
       <c r="C8">
         <v>137</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>680</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>93160</v>
       </c>
@@ -2361,10 +2312,10 @@
       <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>435</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>5220</v>
       </c>
@@ -2382,8 +2333,8 @@
       <c r="C10">
         <v>5.4</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2395,11 +2346,11 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2414,8 +2365,8 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2427,8 +2378,8 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2440,8 +2391,8 @@
       <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2453,8 +2404,8 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2466,8 +2417,8 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2479,8 +2430,8 @@
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2492,8 +2443,8 @@
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2505,8 +2456,8 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2521,8 +2472,8 @@
       <c r="C20">
         <v>27</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2537,8 +2488,8 @@
       <c r="C21">
         <v>12.6</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2550,8 +2501,8 @@
       <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2560,11 +2511,11 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2573,11 +2524,11 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -2587,40 +2538,40 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
+        <v>55</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13">
         <f>SUM(E5:E27)</f>
         <v>584480</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2632,232 +2583,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="80.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2024</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="12">
-        <v>17900</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="12">
-        <v>13032</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2120</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
   <si>
     <t>№ п/п</t>
   </si>
@@ -539,6 +539,48 @@
   </si>
   <si>
     <t>услуги резки арматуры газом</t>
+  </si>
+  <si>
+    <t>набор косаря</t>
+  </si>
+  <si>
+    <t>веник</t>
+  </si>
+  <si>
+    <t>петли</t>
+  </si>
+  <si>
+    <t>крюк для завязки арматуры</t>
+  </si>
+  <si>
+    <t>1 шт - Бауцентр</t>
+  </si>
+  <si>
+    <t>мерлен</t>
+  </si>
+  <si>
+    <t>диски для болгарки</t>
+  </si>
+  <si>
+    <t>гвозди</t>
+  </si>
+  <si>
+    <t>рукомойник</t>
+  </si>
+  <si>
+    <t>(тд строитель)</t>
+  </si>
+  <si>
+    <t>саморез по дереву</t>
+  </si>
+  <si>
+    <t>2 пачки по 500 шт / 529.90 р/пачка (тд строитель)</t>
+  </si>
+  <si>
+    <t>5 кг - 3.0х80мм</t>
+  </si>
+  <si>
+    <t>7 шт (бауцентр) - 39р/шт</t>
   </si>
 </sst>
 </file>
@@ -935,8 +977,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F50" totalsRowShown="0">
-  <autoFilter ref="B5:F50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F60" totalsRowShown="0">
+  <autoFilter ref="B5:F60"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -1494,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F50"/>
+  <dimension ref="B3:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,28 +2185,172 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="16"/>
-      <c r="F45" s="18"/>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1390</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="18">
+        <v>45412</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="16"/>
-      <c r="F46" s="18"/>
+      <c r="B46">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="16">
+        <v>371</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="18">
+        <v>45412</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="16"/>
-      <c r="F47" s="18"/>
+      <c r="B47">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="16">
+        <v>120</v>
+      </c>
+      <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="18">
+        <v>45412</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="16"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="16"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="16"/>
-      <c r="F50" s="18"/>
+      <c r="B48">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="16">
+        <v>260</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="18">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="16">
+        <v>273</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="18">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="16">
+        <v>959.9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="18">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="16">
+        <v>1059</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="18">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="16">
+        <v>399.9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="18">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="16"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="16"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="16"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="16"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="16"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="16"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="16"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="16"/>
+      <c r="F60" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="145">
   <si>
     <t>№ п/п</t>
   </si>
@@ -581,6 +581,24 @@
   </si>
   <si>
     <t>7 шт (бауцентр) - 39р/шт</t>
+  </si>
+  <si>
+    <t>2,52 м3 (ИП Лыков)</t>
+  </si>
+  <si>
+    <t>брус 50х150х6000 - 24500 р/м3</t>
+  </si>
+  <si>
+    <t>0,54 м3 (ИП Лыков)</t>
+  </si>
+  <si>
+    <t>Александр от Алексея</t>
+  </si>
+  <si>
+    <t>бензин Аи95</t>
+  </si>
+  <si>
+    <t>10 литров (Сургут)</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1557,7 @@
   <dimension ref="B3:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,20 +2339,72 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="16"/>
-      <c r="F53" s="18"/>
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="16">
+        <v>61740</v>
+      </c>
+      <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="18">
+        <v>45418</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="16"/>
-      <c r="F54" s="18"/>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="16">
+        <v>13230</v>
+      </c>
+      <c r="E54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="18">
+        <v>45418</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="16"/>
-      <c r="F55" s="18"/>
+      <c r="B55">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="16">
+        <v>2500</v>
+      </c>
+      <c r="E55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="18">
+        <v>45418</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="16"/>
-      <c r="F56" s="18"/>
+      <c r="B56">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="16">
+        <v>500</v>
+      </c>
+      <c r="E56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="18">
+        <v>45418</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D57" s="16"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
   <si>
     <t>№ п/п</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>10 литров (Сургут)</t>
+  </si>
+  <si>
+    <t>ОСБ 9 мм + доставка (12 шт)</t>
+  </si>
+  <si>
+    <t>670 р/1 осб, 1000 р доставка (Авито - Поддубное)</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1563,7 @@
   <dimension ref="B3:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,8 +2413,21 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="16"/>
-      <c r="F57" s="18"/>
+      <c r="B57">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="16">
+        <v>9030</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="18">
+        <v>45420</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D58" s="16"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
   <si>
     <t>№ п/п</t>
   </si>
@@ -535,9 +535,6 @@
     <t>доставка арматуры</t>
   </si>
   <si>
-    <t xml:space="preserve">51 шт + 31 шт (12 метров) </t>
-  </si>
-  <si>
     <t>услуги резки арматуры газом</t>
   </si>
   <si>
@@ -605,6 +602,27 @@
   </si>
   <si>
     <t>670 р/1 осб, 1000 р доставка (Авито - Поддубное)</t>
+  </si>
+  <si>
+    <t>шурупы 3,5х41 (1,74 кг)</t>
+  </si>
+  <si>
+    <t>181 р/кг (Мерлен)</t>
+  </si>
+  <si>
+    <t>Перчатки ХБ 10 пар</t>
+  </si>
+  <si>
+    <t>Мерлен</t>
+  </si>
+  <si>
+    <t>Гленар</t>
+  </si>
+  <si>
+    <t>51 шт + 31 шт (12 метров) Гленар</t>
+  </si>
+  <si>
+    <t>Алексей</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2178,7 @@
         <v>69505</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F41" s="18">
         <v>45405</v>
@@ -2176,6 +2194,9 @@
       <c r="D42" s="16">
         <v>4070</v>
       </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
       <c r="F42" s="18">
         <v>45405</v>
       </c>
@@ -2185,10 +2206,13 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="16">
         <v>450</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
       </c>
       <c r="F43" s="18">
         <v>45405</v>
@@ -2204,6 +2228,9 @@
       <c r="D44" s="16">
         <v>2501</v>
       </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
       <c r="F44" s="18">
         <v>45406</v>
       </c>
@@ -2213,13 +2240,13 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="16">
         <v>1390</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="18">
         <v>45412</v>
@@ -2230,13 +2257,13 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="16">
         <v>371</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="18">
         <v>45412</v>
@@ -2247,7 +2274,7 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="16">
         <v>120</v>
@@ -2264,13 +2291,13 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="16">
         <v>260</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="18">
         <v>45412</v>
@@ -2281,13 +2308,13 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="16">
         <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49" s="18">
         <v>45412</v>
@@ -2298,13 +2325,13 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="16">
         <v>959.9</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50" s="18">
         <v>45414</v>
@@ -2315,13 +2342,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="16">
         <v>1059</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F51" s="18">
         <v>45414</v>
@@ -2332,13 +2359,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="16">
         <v>399.9</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F52" s="18">
         <v>45414</v>
@@ -2355,7 +2382,7 @@
         <v>61740</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" s="18">
         <v>45418</v>
@@ -2366,13 +2393,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" s="16">
         <v>13230</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" s="18">
         <v>45418</v>
@@ -2389,7 +2416,7 @@
         <v>2500</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F55" s="18">
         <v>45418</v>
@@ -2400,13 +2427,13 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="16">
         <v>500</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F56" s="18">
         <v>45418</v>
@@ -2417,24 +2444,48 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" s="16">
         <v>9030</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="18">
         <v>45420</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="16"/>
-      <c r="F58" s="18"/>
+      <c r="B58">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="16">
+        <v>316.39</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="18">
+        <v>45420</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="16"/>
+      <c r="B59">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="16">
+        <v>196</v>
+      </c>
+      <c r="E59" t="s">
+        <v>149</v>
+      </c>
       <c r="F59" s="18"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
   <si>
     <t>№ п/п</t>
   </si>
@@ -595,9 +595,6 @@
     <t>бензин Аи95</t>
   </si>
   <si>
-    <t>10 литров (Сургут)</t>
-  </si>
-  <si>
     <t>ОСБ 9 мм + доставка (12 шт)</t>
   </si>
   <si>
@@ -623,6 +620,33 @@
   </si>
   <si>
     <t>Алексей</t>
+  </si>
+  <si>
+    <t>Доска 25х100х6000 - 23 500 р/м3</t>
+  </si>
+  <si>
+    <t>1 куб (67 шт) ИП Лыков</t>
+  </si>
+  <si>
+    <t>саморез по дереву 4,2х65 мм</t>
+  </si>
+  <si>
+    <t>Гвозди оцинк. 4х120 мм</t>
+  </si>
+  <si>
+    <t>3 кг (ок 990 шт) - Бауцентр</t>
+  </si>
+  <si>
+    <t>3 кг (3 упаковки) - Бауцентр</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> б/у на Авито</t>
+  </si>
+  <si>
+    <t>АлиЭкспресс</t>
+  </si>
+  <si>
+    <t>10 литров (Сургут) - для безогенератора</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1043,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F60" totalsRowShown="0">
-  <autoFilter ref="B5:F60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F70" totalsRowShown="0">
+  <autoFilter ref="B5:F70"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -1578,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F60"/>
+  <dimension ref="B3:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,6 +1767,9 @@
       <c r="D14" s="16">
         <v>12000</v>
       </c>
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1755,6 +1782,9 @@
       <c r="D15" s="16">
         <v>3348</v>
       </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -2178,7 +2208,7 @@
         <v>69505</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F41" s="18">
         <v>45405</v>
@@ -2195,7 +2225,7 @@
         <v>4070</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="18">
         <v>45405</v>
@@ -2212,7 +2242,7 @@
         <v>450</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" s="18">
         <v>45405</v>
@@ -2229,7 +2259,7 @@
         <v>2501</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="18">
         <v>45406</v>
@@ -2433,7 +2463,7 @@
         <v>500</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F56" s="18">
         <v>45418</v>
@@ -2444,13 +2474,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D57" s="16">
         <v>9030</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="18">
         <v>45420</v>
@@ -2461,13 +2491,13 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" s="16">
         <v>316.39</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F58" s="18">
         <v>45420</v>
@@ -2478,19 +2508,113 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D59" s="16">
         <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
-      </c>
-      <c r="F59" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="F59" s="18">
+        <v>45420</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="16"/>
-      <c r="F60" s="18"/>
+      <c r="B60">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="16">
+        <v>23617.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="18">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="16">
+        <v>729</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="18">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="16">
+        <v>567</v>
+      </c>
+      <c r="E62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" s="18">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="16">
+        <v>2500</v>
+      </c>
+      <c r="E63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="18">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="16"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="16"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="16"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="16"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="16"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="16"/>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="16"/>
+      <c r="F70" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
-    <sheet name="ЖБ конструкции" sheetId="2" r:id="rId2"/>
+    <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId2"/>
     <sheet name="Покупки" sheetId="6" r:id="rId3"/>
     <sheet name="Материалы" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="171">
   <si>
     <t>№ п/п</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>примечание</t>
-  </si>
-  <si>
-    <t>ЖБ перекрытия</t>
   </si>
   <si>
     <t>https://39pesok.ru/</t>
@@ -648,6 +645,39 @@
   <si>
     <t>10 литров (Сургут) - для безогенератора</t>
   </si>
+  <si>
+    <t>длина</t>
+  </si>
+  <si>
+    <t>ширина</t>
+  </si>
+  <si>
+    <t>высота</t>
+  </si>
+  <si>
+    <t>Объём (м3)</t>
+  </si>
+  <si>
+    <t>Южная сторона (м)</t>
+  </si>
+  <si>
+    <t>Северная сторона (м)</t>
+  </si>
+  <si>
+    <t>Восточная сторона (м)</t>
+  </si>
+  <si>
+    <t>Западная сторона (м)</t>
+  </si>
+  <si>
+    <t>внутр. Западная (м)</t>
+  </si>
+  <si>
+    <t>внутр. Восточная (м)</t>
+  </si>
+  <si>
+    <t>Итого (м3)</t>
+  </si>
 </sst>
 </file>
 
@@ -657,7 +687,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +790,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -791,7 +839,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -826,6 +874,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1378,7 +1428,7 @@
   <sheetData>
     <row r="4" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1392,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -1403,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1414,16 +1464,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -1431,14 +1481,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
@@ -1446,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1457,12 +1507,12 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1539,27 +1589,27 @@
     </row>
     <row r="48" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F48" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F49" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F50" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F51" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F52" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1579,24 +1629,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4"/>
+  <dimension ref="B5:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>11.85</v>
+      </c>
+      <c r="D6">
+        <v>11.85</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>14.5</v>
+      </c>
+      <c r="G6">
+        <v>11.6</v>
+      </c>
+      <c r="H6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>0.35</v>
+      </c>
+      <c r="H7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8">
+        <v>1.05</v>
+      </c>
+      <c r="D8">
+        <v>1.05</v>
+      </c>
+      <c r="E8">
+        <v>1.05</v>
+      </c>
+      <c r="F8">
+        <v>1.05</v>
+      </c>
+      <c r="G8">
+        <v>1.05</v>
+      </c>
+      <c r="H8">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="14">
+        <f>C6*C7*C8</f>
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="D9" s="14">
+        <f>D6*D7*D8</f>
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="E9" s="14">
+        <f>E6*E7*E8</f>
+        <v>5.4600000000000009</v>
+      </c>
+      <c r="F9" s="14">
+        <f>F6*F7*F8</f>
+        <v>6.0900000000000007</v>
+      </c>
+      <c r="G9" s="14">
+        <f>G6*G7*G8</f>
+        <v>4.2629999999999999</v>
+      </c>
+      <c r="H9" s="14">
+        <f>H6*H7*H8</f>
+        <v>4.3732500000000005</v>
+      </c>
+      <c r="I9" s="21">
+        <f>SUM(C9:H9)</f>
+        <v>30.140250000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1604,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1795,7 @@
   <sheetData>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1626,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1643,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="16">
         <v>1040000</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="18">
         <v>45287</v>
@@ -1660,13 +1837,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="16">
         <v>2000</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="18"/>
     </row>
@@ -1675,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="16">
         <v>4000</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="18"/>
     </row>
@@ -1690,13 +1867,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="16">
         <v>41000</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="18"/>
     </row>
@@ -1705,13 +1882,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="16">
         <v>10000</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="18"/>
     </row>
@@ -1720,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="16">
         <v>15000</v>
@@ -1732,13 +1909,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="16">
         <v>300</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -1747,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="16">
         <v>139448.70000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="18"/>
     </row>
@@ -1762,13 +1939,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="16">
         <v>12000</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -1777,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="16">
         <v>3348</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -1792,13 +1969,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="16">
         <v>216.96</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="18">
         <v>45361</v>
@@ -1809,13 +1986,13 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="16">
         <v>1112.52</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="18">
         <v>45361</v>
@@ -1826,13 +2003,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="16">
         <v>280.58</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="18">
         <v>45361</v>
@@ -1843,13 +2020,13 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="16">
         <v>155.97999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="18">
         <v>45361</v>
@@ -1860,13 +2037,13 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="16">
         <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="18">
         <v>45366</v>
@@ -1877,13 +2054,13 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="16">
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="18">
         <v>45366</v>
@@ -1894,13 +2071,13 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="16">
         <v>978</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="18">
         <v>45374</v>
@@ -1911,13 +2088,13 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="16">
         <v>7500</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="18">
         <v>45388</v>
@@ -1928,13 +2105,13 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="16">
         <v>18500</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="18">
         <v>45388</v>
@@ -1945,13 +2122,13 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="16">
         <v>500</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="18">
         <v>45386</v>
@@ -1962,13 +2139,13 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="16">
         <v>1620</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="18">
         <v>45384</v>
@@ -1979,13 +2156,13 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="16">
         <v>1866</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="18">
         <v>45389</v>
@@ -1996,13 +2173,13 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="16">
         <v>3741</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="18">
         <v>45389</v>
@@ -2013,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="16">
         <v>49245</v>
@@ -2027,13 +2204,13 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="16">
         <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="18">
         <v>45394</v>
@@ -2044,13 +2221,13 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="16">
         <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="18">
         <v>45394</v>
@@ -2061,7 +2238,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="16">
         <v>178.75</v>
@@ -2075,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="16">
         <v>148</v>
@@ -2089,13 +2266,13 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="16">
         <v>415.91</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="18">
         <v>45394</v>
@@ -2106,13 +2283,13 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="16">
         <v>680</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F35" s="18">
         <v>45394</v>
@@ -2123,13 +2300,13 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="16">
         <v>2500</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="18">
         <v>45395</v>
@@ -2140,13 +2317,13 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="16">
         <v>820</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="18">
         <v>45397</v>
@@ -2157,13 +2334,13 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="16">
         <v>21380</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="18">
         <v>45400</v>
@@ -2174,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="16">
         <v>3600</v>
@@ -2188,7 +2365,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="16">
         <v>675</v>
@@ -2202,13 +2379,13 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="16">
         <v>69505</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="18">
         <v>45405</v>
@@ -2219,13 +2396,13 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="16">
         <v>4070</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42" s="18">
         <v>45405</v>
@@ -2236,13 +2413,13 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" s="16">
         <v>450</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43" s="18">
         <v>45405</v>
@@ -2253,13 +2430,13 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="16">
         <v>2501</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" s="18">
         <v>45406</v>
@@ -2270,13 +2447,13 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="16">
         <v>1390</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="18">
         <v>45412</v>
@@ -2287,13 +2464,13 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="16">
         <v>371</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" s="18">
         <v>45412</v>
@@ -2304,13 +2481,13 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47" s="16">
         <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" s="18">
         <v>45412</v>
@@ -2321,13 +2498,13 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" s="16">
         <v>260</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="18">
         <v>45412</v>
@@ -2338,13 +2515,13 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" s="16">
         <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="18">
         <v>45412</v>
@@ -2355,13 +2532,13 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="16">
         <v>959.9</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F50" s="18">
         <v>45414</v>
@@ -2372,13 +2549,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="16">
         <v>1059</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="18">
         <v>45414</v>
@@ -2389,13 +2566,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="16">
         <v>399.9</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="18">
         <v>45414</v>
@@ -2406,13 +2583,13 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="16">
         <v>61740</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="18">
         <v>45418</v>
@@ -2423,13 +2600,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" s="16">
         <v>13230</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" s="18">
         <v>45418</v>
@@ -2440,13 +2617,13 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="16">
         <v>2500</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" s="18">
         <v>45418</v>
@@ -2457,13 +2634,13 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" s="16">
         <v>500</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F56" s="18">
         <v>45418</v>
@@ -2474,13 +2651,13 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="16">
         <v>9030</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F57" s="18">
         <v>45420</v>
@@ -2491,13 +2668,13 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" s="16">
         <v>316.39</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="18">
         <v>45420</v>
@@ -2508,13 +2685,13 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D59" s="16">
         <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F59" s="18">
         <v>45420</v>
@@ -2525,13 +2702,13 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" s="16">
         <v>23617.5</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F60" s="18">
         <v>45423</v>
@@ -2542,13 +2719,13 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" s="16">
         <v>729</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F61" s="18">
         <v>45423</v>
@@ -2559,13 +2736,13 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62" s="16">
         <v>567</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62" s="18">
         <v>45423</v>
@@ -2576,13 +2753,13 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" s="16">
         <v>2500</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" s="18">
         <v>45423</v>
@@ -2630,7 +2807,7 @@
   <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2822,7 @@
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2653,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -2686,7 +2863,7 @@
         <v>315000</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>15.3</v>
@@ -2707,7 +2884,7 @@
         <v>107100</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2728,7 +2905,7 @@
         <v>64000</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,7 +2913,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>137</v>
@@ -2749,7 +2926,7 @@
         <v>93160</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2757,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -2770,7 +2947,7 @@
         <v>5220</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>5.4</v>
@@ -2789,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2797,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
@@ -2805,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11">
@@ -2826,7 +3003,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
@@ -2839,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11">
@@ -2852,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
@@ -2865,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
@@ -2878,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
@@ -2891,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
@@ -2904,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
@@ -2917,7 +3094,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>27</v>
@@ -2933,7 +3110,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>12.6</v>
@@ -2949,7 +3126,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
@@ -2962,7 +3139,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
@@ -2975,7 +3152,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
@@ -2988,7 +3165,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
@@ -3012,7 +3189,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="179">
   <si>
     <t>№ п/п</t>
   </si>
@@ -677,6 +677,30 @@
   </si>
   <si>
     <t>Итого (м3)</t>
+  </si>
+  <si>
+    <t>закладные металлические гильзы в ленточный фундамент</t>
+  </si>
+  <si>
+    <t>п. Люблино труба d=160 мм - 2 метра и труба 50х50</t>
+  </si>
+  <si>
+    <t>Шуруповёрт ОАЗИС</t>
+  </si>
+  <si>
+    <t>угольник алюминевый</t>
+  </si>
+  <si>
+    <t>лом-гвоздедёр</t>
+  </si>
+  <si>
+    <t>шнур разметочный -100 м</t>
+  </si>
+  <si>
+    <t>маркеры -2 шт</t>
+  </si>
+  <si>
+    <t>Гвозди</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1117,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F70" totalsRowShown="0">
-  <autoFilter ref="B5:F70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F77" totalsRowShown="0">
+  <autoFilter ref="B5:F77"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -1631,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1743,27 +1767,27 @@
         <v>163</v>
       </c>
       <c r="C9" s="14">
-        <f>C6*C7*C8</f>
+        <f t="shared" ref="C9:H9" si="0">C6*C7*C8</f>
         <v>4.9770000000000003</v>
       </c>
       <c r="D9" s="14">
-        <f>D6*D7*D8</f>
+        <f t="shared" si="0"/>
         <v>4.9770000000000003</v>
       </c>
       <c r="E9" s="14">
-        <f>E6*E7*E8</f>
+        <f t="shared" si="0"/>
         <v>5.4600000000000009</v>
       </c>
       <c r="F9" s="14">
-        <f>F6*F7*F8</f>
+        <f t="shared" si="0"/>
         <v>6.0900000000000007</v>
       </c>
       <c r="G9" s="14">
-        <f>G6*G7*G8</f>
+        <f t="shared" si="0"/>
         <v>4.2629999999999999</v>
       </c>
       <c r="H9" s="14">
-        <f>H6*H7*H8</f>
+        <f t="shared" si="0"/>
         <v>4.3732500000000005</v>
       </c>
       <c r="I9" s="21">
@@ -1779,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F70"/>
+  <dimension ref="B3:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,32 +2790,147 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D64" s="16"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="16"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="16"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="16"/>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="16"/>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="16"/>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="16">
+        <v>3940</v>
+      </c>
+      <c r="E64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="18">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="16">
+        <v>5600</v>
+      </c>
+      <c r="E65" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="18">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="16">
+        <v>328</v>
+      </c>
+      <c r="E66" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="18">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="16">
+        <v>480</v>
+      </c>
+      <c r="E67" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="18">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="16">
+        <v>225</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="18">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="16">
+        <v>157</v>
+      </c>
+      <c r="E69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="18">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>178</v>
+      </c>
       <c r="D70" s="16"/>
+      <c r="E70" t="s">
+        <v>113</v>
+      </c>
       <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="16"/>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="16"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="16"/>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="16"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="16"/>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="16"/>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="16"/>
+      <c r="F77" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="185">
   <si>
     <t>№ п/п</t>
   </si>
@@ -701,6 +701,24 @@
   </si>
   <si>
     <t>Гвозди</t>
+  </si>
+  <si>
+    <t>скобы для сеплера</t>
+  </si>
+  <si>
+    <t>бауцентр</t>
+  </si>
+  <si>
+    <t>скотч</t>
+  </si>
+  <si>
+    <t>плёнка полиэтиленовая тип150 (3х10)</t>
+  </si>
+  <si>
+    <t>плёнка полиэтиленовая тип150 (2х20)</t>
+  </si>
+  <si>
+    <t>лезвия для ножа концелярского - 18мм 10 шт</t>
   </si>
 </sst>
 </file>
@@ -1805,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,28 +2923,106 @@
       <c r="F70" s="18"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="16"/>
-      <c r="F71" s="18"/>
+      <c r="B71">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="16">
+        <v>892</v>
+      </c>
+      <c r="E71" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" s="18">
+        <v>45439</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="16"/>
-      <c r="F72" s="18"/>
+      <c r="B72">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="16">
+        <v>531</v>
+      </c>
+      <c r="E72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F72" s="18">
+        <v>45438</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="16"/>
-      <c r="F73" s="18"/>
+      <c r="B73">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="16">
+        <v>43.8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>180</v>
+      </c>
+      <c r="F73" s="18">
+        <v>45444</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="16"/>
-      <c r="F74" s="18"/>
+      <c r="B74">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="16">
+        <v>279</v>
+      </c>
+      <c r="E74" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="18">
+        <v>45444</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="16"/>
-      <c r="F75" s="18"/>
+      <c r="B75">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="16">
+        <v>266.52</v>
+      </c>
+      <c r="E75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="18">
+        <v>45444</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D76" s="16"/>
-      <c r="F76" s="18"/>
+      <c r="B76">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="16">
+        <v>21.53</v>
+      </c>
+      <c r="E76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="18">
+        <v>45444</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D77" s="16"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="186">
   <si>
     <t>№ п/п</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>лезвия для ножа концелярского - 18мм 10 шт</t>
+  </si>
+  <si>
+    <t>Бензиновый генератор 3 квт + масло моторное 1 литр</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1138,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F77" totalsRowShown="0">
-  <autoFilter ref="B5:F77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F91" totalsRowShown="0">
+  <autoFilter ref="B5:F91"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -1821,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F77"/>
+  <dimension ref="B3:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,8 +3028,77 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="16"/>
-      <c r="F77" s="18"/>
+      <c r="B77">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="16">
+        <v>20419</v>
+      </c>
+      <c r="E77" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="18">
+        <v>45445</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="16"/>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="16"/>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="16"/>
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="16"/>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="16"/>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="16"/>
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="16"/>
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="16"/>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="16"/>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="16"/>
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="16"/>
+      <c r="F88" s="18"/>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="16"/>
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="16"/>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="16"/>
+      <c r="F91" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="193">
   <si>
     <t>№ п/п</t>
   </si>
@@ -722,6 +722,27 @@
   </si>
   <si>
     <t>Бензиновый генератор 3 квт + масло моторное 1 литр</t>
+  </si>
+  <si>
+    <t>труба канализационная 110 - 1000 мм -1 шт</t>
+  </si>
+  <si>
+    <t>труба канализационная 110 - 500 мм -1 шт</t>
+  </si>
+  <si>
+    <t>заглушка канализационная 110 - 2 шт (1 шт - 66 р)</t>
+  </si>
+  <si>
+    <t>бауцентр (закладные в ленточный фундамент)</t>
+  </si>
+  <si>
+    <t>бауцентр  (закладные в ленточный фундамент)</t>
+  </si>
+  <si>
+    <t>Шпильки 8 + гайки + шайбы</t>
+  </si>
+  <si>
+    <t>Мерлен (13 шт 2 метра шпильки, 65 шайб, 65 гаек)</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1848,7 @@
   <dimension ref="B3:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,58 +3066,110 @@
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="16"/>
-      <c r="F78" s="18"/>
+      <c r="B78">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="16">
+        <v>259</v>
+      </c>
+      <c r="E78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" s="18">
+        <v>45451</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="16"/>
-      <c r="F79" s="18"/>
+      <c r="B79">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="16">
+        <v>103</v>
+      </c>
+      <c r="E79" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="18">
+        <v>45451</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="16"/>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="16"/>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="16">
+        <v>132</v>
+      </c>
+      <c r="E80" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="18">
+        <v>45451</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="16">
+        <v>2363</v>
+      </c>
+      <c r="E81" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" s="18">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D82" s="16"/>
       <c r="F82" s="18"/>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D83" s="16"/>
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D84" s="16"/>
       <c r="F84" s="18"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D85" s="16"/>
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D86" s="16"/>
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D87" s="16"/>
       <c r="F87" s="18"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="F88" s="18"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D89" s="16"/>
       <c r="F89" s="18"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D90" s="16"/>
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D91" s="16"/>
       <c r="F91" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="203">
   <si>
     <t>№ п/п</t>
   </si>
@@ -743,6 +743,36 @@
   </si>
   <si>
     <t>Мерлен (13 шт 2 метра шпильки, 65 шайб, 65 гаек)</t>
+  </si>
+  <si>
+    <t>заглушка канализационная 110 - 2 шт (1 шт - 30,83 р)</t>
+  </si>
+  <si>
+    <t>Бауцентр</t>
+  </si>
+  <si>
+    <t>муфта канализационная 110</t>
+  </si>
+  <si>
+    <t>Щиток защитный лицевой</t>
+  </si>
+  <si>
+    <t>Бауцентр, маска для работы с болгаркой</t>
+  </si>
+  <si>
+    <t>диск отрезной 115х1 мм (27,33 р /шт) - 2 шт</t>
+  </si>
+  <si>
+    <t>труба канализационная 110х500 мм 2 шт</t>
+  </si>
+  <si>
+    <t>Шпилька м8 х 1000 мм (55.36 р/шт) - 6 шт</t>
+  </si>
+  <si>
+    <t>Бауцентр, закладные в ленточный фундамент</t>
+  </si>
+  <si>
+    <t>Бауцентр, крепление опалубки</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,28 +3164,106 @@
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="16"/>
-      <c r="F82" s="18"/>
+      <c r="B82">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="16">
+        <v>61.66</v>
+      </c>
+      <c r="E82" t="s">
+        <v>194</v>
+      </c>
+      <c r="F82" s="18">
+        <v>45459</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="16"/>
-      <c r="F83" s="18"/>
+      <c r="B83">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="16">
+        <v>48.35</v>
+      </c>
+      <c r="E83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" s="18">
+        <v>45459</v>
+      </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="16"/>
-      <c r="F84" s="18"/>
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="16">
+        <v>279.57</v>
+      </c>
+      <c r="E84" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="18">
+        <v>45459</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="16"/>
-      <c r="F85" s="18"/>
+      <c r="B85">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="16">
+        <v>54.66</v>
+      </c>
+      <c r="E85" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="18">
+        <v>45459</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="16"/>
-      <c r="F86" s="18"/>
+      <c r="B86">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="16">
+        <v>144.34</v>
+      </c>
+      <c r="E86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="18">
+        <v>45459</v>
+      </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="16"/>
-      <c r="F87" s="18"/>
+      <c r="B87">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="16">
+        <v>332.12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>202</v>
+      </c>
+      <c r="F87" s="18">
+        <v>45459</v>
+      </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="211">
   <si>
     <t>№ п/п</t>
   </si>
@@ -773,6 +773,30 @@
   </si>
   <si>
     <t>Бауцентр, крепление опалубки</t>
+  </si>
+  <si>
+    <t>удлининтель на катушке 50 м 3500Вт</t>
+  </si>
+  <si>
+    <t>аренда вибратора для бетона</t>
+  </si>
+  <si>
+    <t>Шпилька м8 х 1000 мм (55.32 р/шт) - 3 шт</t>
+  </si>
+  <si>
+    <t>Саморез по дереву 3,5х41 мм (200шт - упаковка)</t>
+  </si>
+  <si>
+    <t>Плёнка полиэтиленовая тип 150 (2х20м)</t>
+  </si>
+  <si>
+    <t>Гайка м8 (10 шт)</t>
+  </si>
+  <si>
+    <t>Песок 10 т - 3 машины</t>
+  </si>
+  <si>
+    <t>Евгений</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1213,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F91" totalsRowShown="0">
-  <autoFilter ref="B5:F91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F106" totalsRowShown="0">
+  <autoFilter ref="B5:F106"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -1875,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F91"/>
+  <dimension ref="B3:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,20 +3290,174 @@
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="16"/>
-      <c r="F88" s="18"/>
+      <c r="B88">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="16">
+        <v>3977</v>
+      </c>
+      <c r="E88" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" s="18">
+        <v>45464</v>
+      </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D89" s="16"/>
-      <c r="F89" s="18"/>
+      <c r="B89">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="16">
+        <v>800</v>
+      </c>
+      <c r="E89" t="s">
+        <v>194</v>
+      </c>
+      <c r="F89" s="18">
+        <v>45464</v>
+      </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D90" s="16"/>
-      <c r="F90" s="18"/>
+      <c r="B90">
+        <v>86</v>
+      </c>
+      <c r="C90" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" s="16">
+        <v>165.9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>194</v>
+      </c>
+      <c r="F90" s="18">
+        <v>45462</v>
+      </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D91" s="16"/>
-      <c r="F91" s="18"/>
+      <c r="B91">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="16">
+        <v>139.35</v>
+      </c>
+      <c r="E91" t="s">
+        <v>194</v>
+      </c>
+      <c r="F91" s="18">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>88</v>
+      </c>
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="16">
+        <v>251.38</v>
+      </c>
+      <c r="E92" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="18">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" s="16">
+        <v>55.32</v>
+      </c>
+      <c r="E93" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="18">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="16">
+        <v>24000</v>
+      </c>
+      <c r="E94" t="s">
+        <v>210</v>
+      </c>
+      <c r="F94" s="18">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="16">
+        <f>SUM(D6:D94)</f>
+        <v>1648618.5899999999</v>
+      </c>
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="16"/>
+      <c r="F96" s="18"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="16"/>
+      <c r="F97" s="18"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="16"/>
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="16"/>
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="16"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="16"/>
+      <c r="F101" s="18"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="16"/>
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="16"/>
+      <c r="F103" s="18"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="16"/>
+      <c r="F104" s="18"/>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="16"/>
+      <c r="F105" s="18"/>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="16"/>
+      <c r="F106" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="220">
   <si>
     <t>№ п/п</t>
   </si>
@@ -797,6 +797,33 @@
   </si>
   <si>
     <t>Евгений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уголок монтажный 90х90х40х1.8 мм </t>
+  </si>
+  <si>
+    <t>пластина анкерная 180х65х1,8 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шпилька м8х1000 мм </t>
+  </si>
+  <si>
+    <t>Бауцентр 25.06 вечер - 26.06 обед</t>
+  </si>
+  <si>
+    <t>удлинитель 50 метров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бетон м300w6f100 </t>
+  </si>
+  <si>
+    <t>ВИК Бетон - доставка 2 миксера + насос с миксером</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дима </t>
+  </si>
+  <si>
+    <t>Помощь в заливке бетона</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3409,53 +3436,141 @@
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>211</v>
+      </c>
       <c r="D95" s="16">
-        <f>SUM(D6:D94)</f>
-        <v>1648618.5899999999</v>
-      </c>
-      <c r="F95" s="18"/>
+        <v>22.45</v>
+      </c>
+      <c r="E95" t="s">
+        <v>194</v>
+      </c>
+      <c r="F95" s="18">
+        <v>45467</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="16"/>
-      <c r="F96" s="18"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="16"/>
-      <c r="F97" s="18"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="16"/>
-      <c r="F98" s="18"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="16"/>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="16"/>
-      <c r="F100" s="18"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="16"/>
-      <c r="F101" s="18"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="16">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="E96" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" s="18">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="16">
+        <v>55.41</v>
+      </c>
+      <c r="E97" t="s">
+        <v>194</v>
+      </c>
+      <c r="F97" s="18">
+        <v>45467</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E98" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="18">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="16">
+        <v>3977</v>
+      </c>
+      <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" s="18">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>96</v>
+      </c>
+      <c r="C100" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="16">
+        <v>252000</v>
+      </c>
+      <c r="E100" t="s">
+        <v>217</v>
+      </c>
+      <c r="F100" s="18">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>97</v>
+      </c>
+      <c r="C101" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>219</v>
+      </c>
+      <c r="F101" s="18">
+        <v>45469</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D102" s="16"/>
       <c r="F102" s="18"/>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D103" s="16"/>
       <c r="F103" s="18"/>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D104" s="16"/>
       <c r="F104" s="18"/>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D105" s="16"/>
       <c r="F105" s="18"/>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="F106" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="239">
   <si>
     <t>№ п/п</t>
   </si>
@@ -825,6 +825,63 @@
   <si>
     <t>Помощь в заливке бетона</t>
   </si>
+  <si>
+    <t>Ондулин лист красный 1,95х0,76м 14 шт. x 727.00</t>
+  </si>
+  <si>
+    <t>Труба наружная SN4 110х3000 мм 3 шт. x 948.00</t>
+  </si>
+  <si>
+    <t> Труба ПНД 32х2 мм (25 метров бухта)  1 шт. x 2413.00</t>
+  </si>
+  <si>
+    <t>Труба наружная SN4 110х2000 мм 2 шт. x 626.00</t>
+  </si>
+  <si>
+    <t> Труба наружная SN4 110х1000 мм  3 шт. x 368.00</t>
+  </si>
+  <si>
+    <t>Отвод наружный 45град 110мм  7 шт. x 72.00</t>
+  </si>
+  <si>
+    <t>Тройник наружный 45град 110х110мм  2 шт. x 154.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гвозди Ондулин 75 мм Коричневые 1 шт. x 308.00 </t>
+  </si>
+  <si>
+    <t>Заглушка d110  5 шт. x 42.00</t>
+  </si>
+  <si>
+    <t> ХОМУТ ПП D110ММ  5 шт. x 34.00</t>
+  </si>
+  <si>
+    <t>Доставка транспортной компанией</t>
+  </si>
+  <si>
+    <t>100 шт Мерлен</t>
+  </si>
+  <si>
+    <t>Мегаполис</t>
+  </si>
+  <si>
+    <t>Труба гладкая ПНД 50с (2.9) 100м промрукав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доставка промрукава ПНД 50с из мегаполиса </t>
+  </si>
+  <si>
+    <t>Ондулин лист красный 1,95х0,76м 3 шт. x 727.00</t>
+  </si>
+  <si>
+    <t>Держатель для бит Декстер 54 мм</t>
+  </si>
+  <si>
+    <t>Биты PZ2 2 шт</t>
+  </si>
+  <si>
+    <t>Биты PH2 2 шт</t>
+  </si>
 </sst>
 </file>
 
@@ -834,7 +891,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,8 +1012,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF304D5D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF304D5D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +1039,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1065,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,6 +1102,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1240,8 +1325,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F106" totalsRowShown="0">
-  <autoFilter ref="B5:F106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F122" totalsRowShown="0">
+  <autoFilter ref="B5:F122"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -1926,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F106"/>
+  <dimension ref="B3:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,24 +3640,322 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="16"/>
-      <c r="F102" s="18"/>
+      <c r="B102">
+        <v>98</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="16">
+        <v>10178</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102" s="18">
+        <v>45476</v>
+      </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="16"/>
-      <c r="F103" s="18"/>
+      <c r="B103">
+        <v>99</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="16">
+        <v>2844</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" s="18">
+        <v>45476</v>
+      </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D104" s="16"/>
-      <c r="F104" s="18"/>
+      <c r="B104">
+        <v>100</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="16">
+        <v>2413</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F104" s="18">
+        <v>45476</v>
+      </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D105" s="16"/>
-      <c r="F105" s="18"/>
+      <c r="B105">
+        <v>101</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="16">
+        <v>1252</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F105" s="18">
+        <v>45476</v>
+      </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D106" s="16"/>
-      <c r="F106" s="18"/>
+      <c r="B106">
+        <v>102</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="16">
+        <v>1104</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F106" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>103</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="16">
+        <v>504</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F107" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>104</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="16">
+        <v>308</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F108" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>105</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="16">
+        <v>308</v>
+      </c>
+      <c r="E109" t="s">
+        <v>231</v>
+      </c>
+      <c r="F109" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>106</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="16">
+        <v>210</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F110" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>107</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="16">
+        <v>170</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F111" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>108</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="16">
+        <v>455</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F112" s="18">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>109</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="16">
+        <v>3875</v>
+      </c>
+      <c r="E113" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="18">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="16">
+        <v>800</v>
+      </c>
+      <c r="E114" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="18">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>111</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" s="16">
+        <v>2181</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F115" s="18">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>112</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="16">
+        <v>308</v>
+      </c>
+      <c r="E116" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" s="18">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>113</v>
+      </c>
+      <c r="C117" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="16">
+        <v>135</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F117" s="18">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>114</v>
+      </c>
+      <c r="C118" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="16">
+        <v>55</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F118" s="18">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>115</v>
+      </c>
+      <c r="C119" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="16">
+        <v>50</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F119" s="18">
+        <v>45480</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="16"/>
+      <c r="F120" s="18"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="16"/>
+      <c r="F121" s="18"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D122" s="16"/>
+      <c r="F122" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Покупки" sheetId="6" r:id="rId3"/>
     <sheet name="Материалы" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="246">
   <si>
     <t>№ п/п</t>
   </si>
@@ -882,11 +882,32 @@
   <si>
     <t>Биты PH2 2 шт</t>
   </si>
+  <si>
+    <t>кирпич М250 керамин 2400 шт (8 паллет) + доставка манипулятором</t>
+  </si>
+  <si>
+    <t>авито</t>
+  </si>
+  <si>
+    <t>2 ведра мастики Гидроизоляция полимерная Боларс HydroFlex 6 кг</t>
+  </si>
+  <si>
+    <t>Сетка кладочная Штрек 15x1.25x0.4x90 мм 20 м</t>
+  </si>
+  <si>
+    <t>20 мешков цемента м500 (1 меш\25 кг)</t>
+  </si>
+  <si>
+    <t>Бетоносмеситель Kronwerk 120 л 500 Вт</t>
+  </si>
+  <si>
+    <t>Геотекстиль иглопробивной Axton 1x50 м 150 г/м²</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1325,8 +1346,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F122" totalsRowShown="0">
-  <autoFilter ref="B5:F122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F134" totalsRowShown="0">
+  <autoFilter ref="B5:F134"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2011,15 +2032,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F122"/>
+  <dimension ref="B3:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -3946,22 +3967,153 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D120" s="16"/>
-      <c r="F120" s="18"/>
+      <c r="B120">
+        <v>116</v>
+      </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120" s="16">
+        <v>92000</v>
+      </c>
+      <c r="E120" t="s">
+        <v>240</v>
+      </c>
+      <c r="F120" s="18">
+        <v>45499</v>
+      </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D121" s="16"/>
-      <c r="F121" s="18"/>
+      <c r="B121">
+        <v>117</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="16">
+        <v>12211</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F121" s="18">
+        <v>45496</v>
+      </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D122" s="16"/>
-      <c r="F122" s="18"/>
+      <c r="B122">
+        <v>118</v>
+      </c>
+      <c r="C122" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122" s="16">
+        <v>4042</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F122" s="18">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" s="16">
+        <v>8400</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F123" s="18">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>120</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="16">
+        <v>1090</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F124" s="18">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>121</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" s="16">
+        <v>8388</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F125" s="18">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D126" s="16"/>
+      <c r="F126" s="18"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D127" s="16"/>
+      <c r="F127" s="18"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D128" s="16"/>
+      <c r="F128" s="18"/>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D129" s="16"/>
+      <c r="F129" s="18"/>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="16"/>
+      <c r="F130" s="18"/>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D131" s="16"/>
+      <c r="F131" s="18"/>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D132" s="16"/>
+      <c r="F132" s="18"/>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D133" s="16"/>
+      <c r="F133" s="18"/>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D134" s="16"/>
+      <c r="F134" s="18"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C124" r:id="rId1" display="https://service.leroymerlin.ru/ru/go2_link_tracker?uid=NDgwNjQyMQ~~&amp;hash=UbsDJ9aXeZC_DIR0aAj_WoX3CD0Iui9ekQbWnlL2Wl8UDZtm4k41nLNFo-rCriI4cekbwAM5OQYX0SF7C3ScJXr_7utG1-vtr8IIPLg4-3ee-eZ6CqcSppGomWeFtz0QcOF-9audykj74_ei7DBBlvRs1HcoBJg4QdFyybhbTnK5ewmy9I0lRdAngr2RN33O6_s9CQCzOfigY33ClgYB3z83CMBhs0fGgfqDwnFf4fhybqreSNW2nCVeCGifz4eSjYQ8SIQKJtBqJTCMGgM3ApyIsPfcherC4GPgCMMJnXrUyVXtq6V0fQFIzuUSMXfjd2h4q3kKVfk~&amp;url=aHR0cHM6Ly9rYWxpbmluZ3JhZC5sZXJveW1lcmxpbi5ydS9wcm9kdWN0L3NldGthLWtsYWRvY2huYXlhLXNodHJlay0xNXgxMjV4MDR4OTAtbW0tMjAtbS0xODQ2Mzg4MD9mcm9tbT1CMkJfZGVsaXZlcnk~&amp;ucs=958ddce0e82982951dafeb5fa6a5d099"/>
+    <hyperlink ref="C121" r:id="rId2" display="https://service.leroymerlin.ru/ru/go2_link_tracker?uid=NDgwNjQyMQ~~&amp;hash=UbsDJ9aXeZCW9ejATz0-4oX3CD0Iui9ekQbWnlL2Wl8UDZtm4k41nLNFo-rCriI4cekbwAM5OQYX0SF7C3ScJXr_7utG1-vtr8IIPLg4-3ee-eZ6CqcSppGomWeFtz0QcOF-9audykj74_ei7DBBlvRs1HcoBJg4QdFyybhbTnK5ewmy9I0lRdAngr2RN33O6_s9CQCzOfigY33ClgYB3z83CMBhs0fGgfqDwnFf4fhybqreSNW2nCVeCGifz4eSjYQ8SIQKJtCb4PE9IiKruSS8XddKLNSj7DVO-nyGp3uRm2c9fnwHZO4WKZ_QDq1_d2h4q3kKVfk~&amp;url=aHR0cHM6Ly9rYWxpbmluZ3JhZC5sZXJveW1lcmxpbi5ydS9wcm9kdWN0L2JldG9ub3NtZXNpdGVsLWtyb253ZXJrLTEyMC1sLTUwMC12dC04MjczOTMyMz9mcm9tbT1CMkJfZGVsaXZlcnk~&amp;ucs=c5d8bd1db3da790fa3adb41e3628e8d1"/>
+    <hyperlink ref="C125" r:id="rId3" display="https://service.leroymerlin.ru/ru/go2_link_tracker?uid=NDgwNjQyMQ~~&amp;hash=UbsDJ9aXeZCcGvE66IJxw4X3CD0Iui9ekQbWnlL2Wl8UDZtm4k41nLNFo-rCriI4cekbwAM5OQYX0SF7C3ScJXr_7utG1-vtr8IIPLg4-3ee-eZ6CqcSppGomWeFtz0QcOF-9audykj74_ei7DBBlvRs1HcoBJg4QdFyybhbTnK5ewmy9I0lRdAngr2RN33O6_s9CQCzOfigY33ClgYB3z83CMBhs0fGgfqDwnFf4fhybqreSNW2nCVeCGifz4eSjYQ8SIQKJtDBK2v8h-jvSahK3Up4ywKoGxFyMmWlvnxLsf8UlvV8serFpz1qJVVZd2h4q3kKVfk~&amp;url=aHR0cHM6Ly9rYWxpbmluZ3JhZC5sZXJveW1lcmxpbi5ydS9wcm9kdWN0L2dlb3Rla3N0aWwtaWdsb3Byb2Jpdm5veS1heHRvbi0xeDUwLW0tMTUwLWctbS04NTQ3ODMwMj9mcm9tbT1CMkJfZGVsaXZlcnk~&amp;ucs=4026f772799a55da24015fb4f546aa8a"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Покупки" sheetId="6" r:id="rId3"/>
     <sheet name="Материалы" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="252">
   <si>
     <t>№ п/п</t>
   </si>
@@ -903,11 +903,29 @@
   <si>
     <t>Геотекстиль иглопробивной Axton 1x50 м 150 г/м²</t>
   </si>
+  <si>
+    <t>Шпилька м8х1000 мм 72*4шт</t>
+  </si>
+  <si>
+    <t>Фибра в бетон и раствор 150 гр 176*2шт</t>
+  </si>
+  <si>
+    <t>кладочная сетка 15х1,25х0,4х300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кельма трапеция 180мм </t>
+  </si>
+  <si>
+    <t>гравий 3-20 5 тонн</t>
+  </si>
+  <si>
+    <t>Про карьер</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2034,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,38 +4087,103 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D126" s="16"/>
-      <c r="F126" s="18"/>
+      <c r="B126">
+        <v>122</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" s="16">
+        <v>288</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F126" s="18">
+        <v>45506</v>
+      </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D127" s="16"/>
-      <c r="F127" s="18"/>
+      <c r="B127">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" s="16">
+        <v>352</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F127" s="18">
+        <v>45506</v>
+      </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D128" s="16"/>
-      <c r="F128" s="18"/>
-    </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D129" s="16"/>
-      <c r="F129" s="18"/>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D130" s="16"/>
-      <c r="F130" s="18"/>
-    </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>124</v>
+      </c>
+      <c r="C128" t="s">
+        <v>248</v>
+      </c>
+      <c r="D128" s="16">
+        <v>1541</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F128" s="18">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>125</v>
+      </c>
+      <c r="C129" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" s="16">
+        <v>318</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F129" s="18">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" s="16">
+        <v>15000</v>
+      </c>
+      <c r="E130" t="s">
+        <v>251</v>
+      </c>
+      <c r="F130" s="18">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D131" s="16"/>
       <c r="F131" s="18"/>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D132" s="16"/>
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="F133" s="18"/>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D134" s="16"/>
       <c r="F134" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="254">
   <si>
     <t>№ п/п</t>
   </si>
@@ -920,6 +920,12 @@
   </si>
   <si>
     <t>Про карьер</t>
+  </si>
+  <si>
+    <t>битум 21 кг(ведро)</t>
+  </si>
+  <si>
+    <t>Озон</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,13 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1364,14 +1376,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F134" totalsRowShown="0">
-  <autoFilter ref="B5:F134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F135" totalsRowCount="1">
+  <autoFilter ref="B5:F135"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" dataDxfId="9"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="8"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1381,15 +1393,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2050,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F134"/>
+  <dimension ref="B3:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,8 +4184,21 @@
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D131" s="16"/>
-      <c r="F131" s="18"/>
+      <c r="B131">
+        <v>127</v>
+      </c>
+      <c r="C131" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" s="16">
+        <v>2300</v>
+      </c>
+      <c r="E131" t="s">
+        <v>253</v>
+      </c>
+      <c r="F131" s="18">
+        <v>45518</v>
+      </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D132" s="16"/>
@@ -4186,6 +4211,13 @@
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D134" s="16"/>
       <c r="F134" s="18"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D135" s="16">
+        <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
+        <v>2083787.8199999998</v>
+      </c>
+      <c r="F135" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="261">
   <si>
     <t>№ п/п</t>
   </si>
@@ -927,6 +927,27 @@
   <si>
     <t>Озон</t>
   </si>
+  <si>
+    <t>Цемент I 42,5 H М500 Д0 25 кг</t>
+  </si>
+  <si>
+    <t>10 шт * 529 Бауцентр</t>
+  </si>
+  <si>
+    <t>Отсечная гидроизоляция 0,4х20 м</t>
+  </si>
+  <si>
+    <t>4 шт * 499 Технониколь Бауцентр</t>
+  </si>
+  <si>
+    <t>Труба Вест Пласт ПНД d32х2 мм 25 м</t>
+  </si>
+  <si>
+    <t>1 бухта Бауцентр</t>
+  </si>
+  <si>
+    <t>Макловица Korvus 150х70 мм</t>
+  </si>
 </sst>
 </file>
 
@@ -936,7 +957,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,6 +1094,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1110,7 +1138,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1153,6 +1181,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1376,8 +1405,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F135" totalsRowCount="1">
-  <autoFilter ref="B5:F135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F143" totalsRowCount="1">
+  <autoFilter ref="B5:F142"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2062,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F135"/>
+  <dimension ref="B3:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4201,34 +4230,122 @@
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D132" s="16"/>
-      <c r="F132" s="18"/>
+      <c r="B132">
+        <v>128</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="26">
+        <v>5256.2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>255</v>
+      </c>
+      <c r="F132" s="18">
+        <v>45524</v>
+      </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D133" s="16"/>
-      <c r="F133" s="18"/>
+      <c r="B133">
+        <v>129</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D133" s="16">
+        <v>5957.68</v>
+      </c>
+      <c r="E133" t="s">
+        <v>257</v>
+      </c>
+      <c r="F133" s="18">
+        <v>45524</v>
+      </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D134" s="16"/>
-      <c r="F134" s="18"/>
+      <c r="B134">
+        <v>130</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134" s="16">
+        <v>1778.56</v>
+      </c>
+      <c r="E134" t="s">
+        <v>259</v>
+      </c>
+      <c r="F134" s="18">
+        <v>45524</v>
+      </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>131</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D135" s="16">
+        <v>68.56</v>
+      </c>
+      <c r="E135" t="s">
+        <v>180</v>
+      </c>
+      <c r="F135" s="18">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="16"/>
+      <c r="F136" s="18"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D137" s="16"/>
+      <c r="F137" s="18"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="16"/>
+      <c r="F138" s="18"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D139" s="16"/>
+      <c r="F139" s="18"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D140" s="16"/>
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="16"/>
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D142" s="16"/>
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D143" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2083787.8199999998</v>
-      </c>
-      <c r="F135" s="18"/>
+        <v>2096848.8199999998</v>
+      </c>
+      <c r="F143" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C124" r:id="rId1" display="https://service.leroymerlin.ru/ru/go2_link_tracker?uid=NDgwNjQyMQ~~&amp;hash=UbsDJ9aXeZC_DIR0aAj_WoX3CD0Iui9ekQbWnlL2Wl8UDZtm4k41nLNFo-rCriI4cekbwAM5OQYX0SF7C3ScJXr_7utG1-vtr8IIPLg4-3ee-eZ6CqcSppGomWeFtz0QcOF-9audykj74_ei7DBBlvRs1HcoBJg4QdFyybhbTnK5ewmy9I0lRdAngr2RN33O6_s9CQCzOfigY33ClgYB3z83CMBhs0fGgfqDwnFf4fhybqreSNW2nCVeCGifz4eSjYQ8SIQKJtBqJTCMGgM3ApyIsPfcherC4GPgCMMJnXrUyVXtq6V0fQFIzuUSMXfjd2h4q3kKVfk~&amp;url=aHR0cHM6Ly9rYWxpbmluZ3JhZC5sZXJveW1lcmxpbi5ydS9wcm9kdWN0L3NldGthLWtsYWRvY2huYXlhLXNodHJlay0xNXgxMjV4MDR4OTAtbW0tMjAtbS0xODQ2Mzg4MD9mcm9tbT1CMkJfZGVsaXZlcnk~&amp;ucs=958ddce0e82982951dafeb5fa6a5d099"/>
     <hyperlink ref="C121" r:id="rId2" display="https://service.leroymerlin.ru/ru/go2_link_tracker?uid=NDgwNjQyMQ~~&amp;hash=UbsDJ9aXeZCW9ejATz0-4oX3CD0Iui9ekQbWnlL2Wl8UDZtm4k41nLNFo-rCriI4cekbwAM5OQYX0SF7C3ScJXr_7utG1-vtr8IIPLg4-3ee-eZ6CqcSppGomWeFtz0QcOF-9audykj74_ei7DBBlvRs1HcoBJg4QdFyybhbTnK5ewmy9I0lRdAngr2RN33O6_s9CQCzOfigY33ClgYB3z83CMBhs0fGgfqDwnFf4fhybqreSNW2nCVeCGifz4eSjYQ8SIQKJtCb4PE9IiKruSS8XddKLNSj7DVO-nyGp3uRm2c9fnwHZO4WKZ_QDq1_d2h4q3kKVfk~&amp;url=aHR0cHM6Ly9rYWxpbmluZ3JhZC5sZXJveW1lcmxpbi5ydS9wcm9kdWN0L2JldG9ub3NtZXNpdGVsLWtyb253ZXJrLTEyMC1sLTUwMC12dC04MjczOTMyMz9mcm9tbT1CMkJfZGVsaXZlcnk~&amp;ucs=c5d8bd1db3da790fa3adb41e3628e8d1"/>
     <hyperlink ref="C125" r:id="rId3" display="https://service.leroymerlin.ru/ru/go2_link_tracker?uid=NDgwNjQyMQ~~&amp;hash=UbsDJ9aXeZCcGvE66IJxw4X3CD0Iui9ekQbWnlL2Wl8UDZtm4k41nLNFo-rCriI4cekbwAM5OQYX0SF7C3ScJXr_7utG1-vtr8IIPLg4-3ee-eZ6CqcSppGomWeFtz0QcOF-9audykj74_ei7DBBlvRs1HcoBJg4QdFyybhbTnK5ewmy9I0lRdAngr2RN33O6_s9CQCzOfigY33ClgYB3z83CMBhs0fGgfqDwnFf4fhybqreSNW2nCVeCGifz4eSjYQ8SIQKJtDBK2v8h-jvSahK3Up4ywKoGxFyMmWlvnxLsf8UlvV8serFpz1qJVVZd2h4q3kKVfk~&amp;url=aHR0cHM6Ly9rYWxpbmluZ3JhZC5sZXJveW1lcmxpbi5ydS9wcm9kdWN0L2dlb3Rla3N0aWwtaWdsb3Byb2Jpdm5veS1heHRvbi0xeDUwLW0tMTUwLWctbS04NTQ3ODMwMj9mcm9tbT1CMkJfZGVsaXZlcnk~&amp;ucs=4026f772799a55da24015fb4f546aa8a"/>
+    <hyperlink ref="C132" r:id="rId4" display="http://baucenter.ru/product/tsement-i-42-5-h-m500-d0-25-kg-ctg-29116-29171-29172-511001507/"/>
+    <hyperlink ref="C133" r:id="rId5" display="http://baucenter.ru/product/otsechnaya-gidroizolyatsiya-0-4kh20-m-ctg-29116-30768-30780-528000348/"/>
+    <hyperlink ref="C134" r:id="rId6" display="http://baucenter.ru/product/truba-vest-plast-pnd-d32kh2-mm-25-m-ctg-29189-30544-30556-440000544/"/>
+    <hyperlink ref="C135" r:id="rId7" display="http://baucenter.ru/product/maklovitsa-korvus-150kh70-mm-ctg-29290-30646-30652-700000213/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="262">
   <si>
     <t>№ п/п</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>Макловица Korvus 150х70 мм</t>
+  </si>
+  <si>
+    <t>доставка с бауцентра</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2097,7 @@
   <dimension ref="B3:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,8 +4301,21 @@
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D136" s="16"/>
-      <c r="F136" s="18"/>
+      <c r="B136">
+        <v>132</v>
+      </c>
+      <c r="C136" t="s">
+        <v>261</v>
+      </c>
+      <c r="D136" s="16">
+        <v>590</v>
+      </c>
+      <c r="E136" t="s">
+        <v>180</v>
+      </c>
+      <c r="F136" s="18">
+        <v>45524</v>
+      </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D137" s="16"/>
@@ -4328,7 +4344,7 @@
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D143" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2096848.8199999998</v>
+        <v>2097438.8199999998</v>
       </c>
       <c r="F143" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="266">
   <si>
     <t>№ п/п</t>
   </si>
@@ -950,6 +950,18 @@
   </si>
   <si>
     <t>доставка с бауцентра</t>
+  </si>
+  <si>
+    <t>Известь сухогашённая (1.5 кг) 89р х 5 шт</t>
+  </si>
+  <si>
+    <t>Диск алмазный 125 мм кронс</t>
+  </si>
+  <si>
+    <t>перчатки рабочие хб</t>
+  </si>
+  <si>
+    <t>карта бонусная на блистере</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2109,7 @@
   <dimension ref="B3:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,20 +4330,72 @@
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D137" s="16"/>
-      <c r="F137" s="18"/>
+      <c r="B137">
+        <v>133</v>
+      </c>
+      <c r="C137" t="s">
+        <v>262</v>
+      </c>
+      <c r="D137" s="16">
+        <v>445</v>
+      </c>
+      <c r="E137" t="s">
+        <v>180</v>
+      </c>
+      <c r="F137" s="18">
+        <v>45437</v>
+      </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D138" s="16"/>
-      <c r="F138" s="18"/>
+      <c r="B138">
+        <v>134</v>
+      </c>
+      <c r="C138" t="s">
+        <v>263</v>
+      </c>
+      <c r="D138" s="16">
+        <v>259</v>
+      </c>
+      <c r="E138" t="s">
+        <v>180</v>
+      </c>
+      <c r="F138" s="18">
+        <v>45437</v>
+      </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D139" s="16"/>
-      <c r="F139" s="18"/>
+      <c r="B139">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" s="16">
+        <v>159</v>
+      </c>
+      <c r="E139" t="s">
+        <v>180</v>
+      </c>
+      <c r="F139" s="18">
+        <v>45437</v>
+      </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D140" s="16"/>
-      <c r="F140" s="18"/>
+      <c r="B140">
+        <v>136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>265</v>
+      </c>
+      <c r="D140" s="16">
+        <v>100</v>
+      </c>
+      <c r="E140" t="s">
+        <v>180</v>
+      </c>
+      <c r="F140" s="18">
+        <v>45437</v>
+      </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D141" s="16"/>
@@ -4344,7 +4408,7 @@
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D143" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2097438.8199999998</v>
+        <v>2098401.8199999998</v>
       </c>
       <c r="F143" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="267">
   <si>
     <t>№ п/п</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>карта бонусная на блистере</t>
+  </si>
+  <si>
+    <t>Цемент м500 10 мешков + доставка</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2112,7 @@
   <dimension ref="B3:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,7 +4346,7 @@
         <v>180</v>
       </c>
       <c r="F137" s="18">
-        <v>45437</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
@@ -4360,7 +4363,7 @@
         <v>180</v>
       </c>
       <c r="F138" s="18">
-        <v>45437</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
@@ -4377,7 +4380,7 @@
         <v>180</v>
       </c>
       <c r="F139" s="18">
-        <v>45437</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
@@ -4394,12 +4397,25 @@
         <v>180</v>
       </c>
       <c r="F140" s="18">
-        <v>45437</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D141" s="16"/>
-      <c r="F141" s="18"/>
+      <c r="B141">
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
+        <v>266</v>
+      </c>
+      <c r="D141" s="16">
+        <v>5580</v>
+      </c>
+      <c r="E141" t="s">
+        <v>180</v>
+      </c>
+      <c r="F141" s="18">
+        <v>45546</v>
+      </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
@@ -4408,7 +4424,7 @@
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D143" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2098401.8199999998</v>
+        <v>2103981.8199999998</v>
       </c>
       <c r="F143" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
   <si>
     <t>№ п/п</t>
   </si>
@@ -965,6 +965,15 @@
   </si>
   <si>
     <t>Цемент м500 10 мешков + доставка</t>
+  </si>
+  <si>
+    <t>тройники, уголки, трубы канализационные 110 50 мм, крепления, скотч</t>
+  </si>
+  <si>
+    <t>песок 4 камаза по 14-15 тонн</t>
+  </si>
+  <si>
+    <t>Евгений песок</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1432,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F143" totalsRowCount="1">
-  <autoFilter ref="B5:F142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F150" totalsRowCount="1">
+  <autoFilter ref="B5:F149"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2109,15 +2118,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F143"/>
+  <dimension ref="B3:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -4418,15 +4427,69 @@
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D142" s="16"/>
-      <c r="F142" s="18"/>
+      <c r="B142">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>267</v>
+      </c>
+      <c r="D142" s="16">
+        <v>2110</v>
+      </c>
+      <c r="E142" t="s">
+        <v>180</v>
+      </c>
+      <c r="F142" s="18">
+        <v>45556</v>
+      </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
+        <v>268</v>
+      </c>
       <c r="D143" s="16">
+        <v>54000</v>
+      </c>
+      <c r="E143" t="s">
+        <v>269</v>
+      </c>
+      <c r="F143" s="18">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D144" s="16"/>
+      <c r="F144" s="18"/>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="16"/>
+      <c r="F145" s="18"/>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="16"/>
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D147" s="16"/>
+      <c r="F147" s="18"/>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D148" s="16"/>
+      <c r="F148" s="18"/>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="16"/>
+      <c r="F149" s="18"/>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2103981.8199999998</v>
-      </c>
-      <c r="F143" s="18"/>
+        <v>2160091.8199999998</v>
+      </c>
+      <c r="F150" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="274">
   <si>
     <t>№ п/п</t>
   </si>
@@ -974,6 +974,18 @@
   </si>
   <si>
     <t>Евгений песок</t>
+  </si>
+  <si>
+    <t>аренда трактора (2500 р доставка, 2500/час)</t>
+  </si>
+  <si>
+    <t>михаил</t>
+  </si>
+  <si>
+    <t>Герман</t>
+  </si>
+  <si>
+    <t>аренда трамбовки вибро на день 90 кг + доставка</t>
   </si>
 </sst>
 </file>
@@ -2120,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4461,33 +4473,59 @@
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D144" s="16"/>
-      <c r="F144" s="18"/>
-    </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D145" s="16"/>
-      <c r="F145" s="18"/>
-    </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
+        <v>270</v>
+      </c>
+      <c r="D144" s="16">
+        <v>15000</v>
+      </c>
+      <c r="E144" t="s">
+        <v>272</v>
+      </c>
+      <c r="F144" s="18">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
+        <v>273</v>
+      </c>
+      <c r="D145" s="16">
+        <v>1900</v>
+      </c>
+      <c r="E145" t="s">
+        <v>271</v>
+      </c>
+      <c r="F145" s="18">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D146" s="16"/>
       <c r="F146" s="18"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D147" s="16"/>
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D148" s="16"/>
       <c r="F148" s="18"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D149" s="16"/>
       <c r="F149" s="18"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D150" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2160091.8199999998</v>
+        <v>2176991.8199999998</v>
       </c>
       <c r="F150" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="274">
   <si>
     <t>№ п/п</t>
   </si>
@@ -2133,7 +2133,7 @@
   <dimension ref="B3:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,8 +4507,21 @@
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D146" s="16"/>
-      <c r="F146" s="18"/>
+      <c r="B146">
+        <v>142</v>
+      </c>
+      <c r="C146" t="s">
+        <v>268</v>
+      </c>
+      <c r="D146" s="16">
+        <v>54000</v>
+      </c>
+      <c r="E146" t="s">
+        <v>269</v>
+      </c>
+      <c r="F146" s="18">
+        <v>45566</v>
+      </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D147" s="16"/>
@@ -4525,7 +4538,7 @@
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D150" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2176991.8199999998</v>
+        <v>2230991.8199999998</v>
       </c>
       <c r="F150" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="282">
   <si>
     <t>№ п/п</t>
   </si>
@@ -986,6 +986,30 @@
   </si>
   <si>
     <t>аренда трамбовки вибро на день 90 кг + доставка</t>
+  </si>
+  <si>
+    <t>плёнка 2 рулона</t>
+  </si>
+  <si>
+    <t>арматура</t>
+  </si>
+  <si>
+    <t>доставка манипулятором</t>
+  </si>
+  <si>
+    <t>песок</t>
+  </si>
+  <si>
+    <t>Плёнка полиэтиленовая тип 150 (2х50м) -  2 рулона</t>
+  </si>
+  <si>
+    <t>Изоляция для труб - 1шт</t>
+  </si>
+  <si>
+    <t>Бауцентр. d114.9 2 метра</t>
+  </si>
+  <si>
+    <t>Бауцентр. 10 пар</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1468,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F150" totalsRowCount="1">
-  <autoFilter ref="B5:F149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F160" totalsRowCount="1">
+  <autoFilter ref="B5:F159"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2130,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F150"/>
+  <dimension ref="B3:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,8 +4486,8 @@
       <c r="C143" t="s">
         <v>268</v>
       </c>
-      <c r="D143" s="16">
-        <v>54000</v>
+      <c r="D143" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="E143" t="s">
         <v>269</v>
@@ -4524,23 +4548,161 @@
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D147" s="16"/>
-      <c r="F147" s="18"/>
+      <c r="B147">
+        <v>143</v>
+      </c>
+      <c r="C147" t="s">
+        <v>270</v>
+      </c>
+      <c r="D147" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E147" t="s">
+        <v>272</v>
+      </c>
+      <c r="F147" s="18">
+        <v>45570</v>
+      </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D148" s="16"/>
-      <c r="F148" s="18"/>
+      <c r="B148">
+        <v>144</v>
+      </c>
+      <c r="C148" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148" s="16">
+        <v>1900</v>
+      </c>
+      <c r="E148" t="s">
+        <v>271</v>
+      </c>
+      <c r="F148" s="18">
+        <v>45571</v>
+      </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D149" s="16"/>
-      <c r="F149" s="18"/>
+      <c r="B149">
+        <v>145</v>
+      </c>
+      <c r="C149" t="s">
+        <v>274</v>
+      </c>
+      <c r="D149" s="16">
+        <v>3900</v>
+      </c>
+      <c r="E149" t="s">
+        <v>194</v>
+      </c>
+      <c r="F149" s="18">
+        <v>45573</v>
+      </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>146</v>
+      </c>
+      <c r="C150" t="s">
+        <v>275</v>
+      </c>
       <c r="D150" s="16">
+        <v>106400</v>
+      </c>
+      <c r="F150" s="18">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>147</v>
+      </c>
+      <c r="C151" t="s">
+        <v>276</v>
+      </c>
+      <c r="D151" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F151" s="18">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>148</v>
+      </c>
+      <c r="C152" t="s">
+        <v>278</v>
+      </c>
+      <c r="D152" s="16">
+        <v>1723.22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>194</v>
+      </c>
+      <c r="F152" s="18">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>279</v>
+      </c>
+      <c r="D153" s="16">
+        <v>267.39</v>
+      </c>
+      <c r="E153" t="s">
+        <v>280</v>
+      </c>
+      <c r="F153" s="18">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>150</v>
+      </c>
+      <c r="C154" t="s">
+        <v>264</v>
+      </c>
+      <c r="D154" s="16">
+        <v>152</v>
+      </c>
+      <c r="E154" t="s">
+        <v>281</v>
+      </c>
+      <c r="F154" s="18">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="16"/>
+      <c r="F155" s="18"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="16"/>
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="16"/>
+      <c r="F157" s="18"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="16"/>
+      <c r="F158" s="18"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="16"/>
+      <c r="F159" s="18"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2230991.8199999998</v>
-      </c>
-      <c r="F150" s="18"/>
+        <v>2314334.4300000002</v>
+      </c>
+      <c r="F160" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="285">
   <si>
     <t>№ п/п</t>
   </si>
@@ -997,9 +997,6 @@
     <t>доставка манипулятором</t>
   </si>
   <si>
-    <t>песок</t>
-  </si>
-  <si>
     <t>Плёнка полиэтиленовая тип 150 (2х50м) -  2 рулона</t>
   </si>
   <si>
@@ -1010,6 +1007,18 @@
   </si>
   <si>
     <t>Бауцентр. 10 пар</t>
+  </si>
+  <si>
+    <t>ВИК Бетон - М300f100w4 - 25 м3</t>
+  </si>
+  <si>
+    <t>Бетон для плиты + доставка + насос</t>
+  </si>
+  <si>
+    <t>Мастика + кисточка + 2 валика</t>
+  </si>
+  <si>
+    <t>Бауцентр - 4 ведра + 2 валика + кисточка</t>
   </si>
 </sst>
 </file>
@@ -2154,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F160"/>
+  <dimension ref="B3:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,8 +4495,8 @@
       <c r="C143" t="s">
         <v>268</v>
       </c>
-      <c r="D143" s="16" t="s">
-        <v>277</v>
+      <c r="D143" s="16">
+        <v>54000</v>
       </c>
       <c r="E143" t="s">
         <v>269</v>
@@ -4513,7 +4522,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>141</v>
       </c>
@@ -4530,7 +4539,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>142</v>
       </c>
@@ -4547,7 +4556,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>143</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>45570</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>144</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>45571</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>145</v>
       </c>
@@ -4597,8 +4606,12 @@
       <c r="F149" s="18">
         <v>45573</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f>1300000/7</f>
+        <v>185714.28571428571</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>146</v>
       </c>
@@ -4612,7 +4625,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>147</v>
       </c>
@@ -4626,12 +4639,12 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D152" s="16">
         <v>1723.22</v>
@@ -4643,24 +4656,24 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>149</v>
       </c>
       <c r="C153" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D153" s="16">
         <v>267.39</v>
       </c>
       <c r="E153" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F153" s="18">
         <v>45582</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>150</v>
       </c>
@@ -4671,36 +4684,62 @@
         <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F154" s="18">
         <v>45582</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D155" s="16"/>
-      <c r="F155" s="18"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D156" s="16"/>
-      <c r="F156" s="18"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>151</v>
+      </c>
+      <c r="C155" t="s">
+        <v>282</v>
+      </c>
+      <c r="D155" s="16">
+        <v>254000</v>
+      </c>
+      <c r="E155" t="s">
+        <v>281</v>
+      </c>
+      <c r="F155" s="18">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>152</v>
+      </c>
+      <c r="C156" t="s">
+        <v>283</v>
+      </c>
+      <c r="D156" s="16">
+        <v>2900</v>
+      </c>
+      <c r="E156" t="s">
+        <v>284</v>
+      </c>
+      <c r="F156" s="18">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D157" s="16"/>
       <c r="F157" s="18"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D158" s="16"/>
       <c r="F158" s="18"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D159" s="16"/>
       <c r="F159" s="18"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D160" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2314334.4300000002</v>
+        <v>2625234.4300000002</v>
       </c>
       <c r="F160" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="287">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1019,6 +1019,12 @@
   </si>
   <si>
     <t>Бауцентр - 4 ведра + 2 валика + кисточка</t>
+  </si>
+  <si>
+    <t>Мастика</t>
+  </si>
+  <si>
+    <t>Бауцентр - 4 ведра</t>
   </si>
 </sst>
 </file>
@@ -2165,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,8 +4731,21 @@
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D157" s="16"/>
-      <c r="F157" s="18"/>
+      <c r="B157">
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
+        <v>285</v>
+      </c>
+      <c r="D157" s="16">
+        <v>2396</v>
+      </c>
+      <c r="E157" t="s">
+        <v>286</v>
+      </c>
+      <c r="F157" s="18">
+        <v>45599</v>
+      </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D158" s="16"/>
@@ -4739,7 +4758,7 @@
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D160" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2625234.4300000002</v>
+        <v>2627630.4300000002</v>
       </c>
       <c r="F160" s="18"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId2"/>
     <sheet name="Покупки" sheetId="6" r:id="rId3"/>
     <sheet name="Материалы" sheetId="3" r:id="rId4"/>
+    <sheet name="Размеры дома" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="297">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1025,6 +1026,36 @@
   </si>
   <si>
     <t>Бауцентр - 4 ведра</t>
+  </si>
+  <si>
+    <t>Оси вертикальные</t>
+  </si>
+  <si>
+    <t>Название оси</t>
+  </si>
+  <si>
+    <t>Расстояние (мм)</t>
+  </si>
+  <si>
+    <t>комментарии</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>так как планируется использовать 300 мм газобетонный блок</t>
   </si>
 </sst>
 </file>
@@ -1267,12 +1298,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1321,6 +1346,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -1488,9 +1519,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1500,17 +1531,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A3:C8" totalsRowShown="0">
+  <autoFilter ref="A3:C8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Название оси"/>
+    <tableColumn id="2" name="Расстояние (мм)"/>
+    <tableColumn id="3" name="комментарии"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2171,7 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
@@ -5188,4 +5231,74 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -16,14 +16,15 @@
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId2"/>
     <sheet name="Покупки" sheetId="6" r:id="rId3"/>
     <sheet name="Материалы" sheetId="3" r:id="rId4"/>
-    <sheet name="Размеры дома" sheetId="7" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="8" r:id="rId5"/>
+    <sheet name="Размеры дома" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="301">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1056,6 +1057,18 @@
   </si>
   <si>
     <t>так как планируется использовать 300 мм газобетонный блок</t>
+  </si>
+  <si>
+    <t>Внешние несущие стены</t>
+  </si>
+  <si>
+    <t>300х250х600</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>Внутр несущие</t>
   </si>
 </sst>
 </file>
@@ -5235,9 +5248,67 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>SUM(E5:E6)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="308">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1070,6 +1070,27 @@
   <si>
     <t>Внутр несущие</t>
   </si>
+  <si>
+    <t>Газобетонные блоки 240 мм и 300 мм</t>
+  </si>
+  <si>
+    <t>Аэроблок</t>
+  </si>
+  <si>
+    <t>Лента геодезическая стальная, 3х скорость смотки, 30мх13мм Armero</t>
+  </si>
+  <si>
+    <t>Киянка 910г, Мягкий ПВХ боек не оставляет следов, фиберглассовая рукоя</t>
+  </si>
+  <si>
+    <t>Кельма-ковш для газобетона 300мм СИБИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ножовка по газобетону  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тёрка для газобетона </t>
+  </si>
 </sst>
 </file>
 
@@ -1079,7 +1100,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,6 +1244,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00306F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1260,7 +1289,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1304,12 +1333,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1359,12 +1397,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -1527,14 +1559,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F160" totalsRowCount="1">
-  <autoFilter ref="B5:F159"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F167" totalsRowCount="1">
+  <autoFilter ref="B5:F166"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1544,15 +1576,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2225,15 +2257,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I160"/>
+  <dimension ref="B3:I167"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -4804,19 +4836,119 @@
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D158" s="16"/>
-      <c r="F158" s="18"/>
+      <c r="B158">
+        <v>154</v>
+      </c>
+      <c r="C158" t="s">
+        <v>301</v>
+      </c>
+      <c r="D158" s="16">
+        <v>482016</v>
+      </c>
+      <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" s="18">
+        <v>45652</v>
+      </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D159" s="16"/>
-      <c r="F159" s="18"/>
+      <c r="B159">
+        <v>155</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D159" s="16">
+        <v>564.75</v>
+      </c>
+      <c r="E159" t="s">
+        <v>194</v>
+      </c>
+      <c r="F159" s="29">
+        <v>45675</v>
+      </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>156</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>305</v>
+      </c>
       <c r="D160" s="16">
+        <v>1216.25</v>
+      </c>
+      <c r="E160" t="s">
+        <v>194</v>
+      </c>
+      <c r="F160" s="29">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>157</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D161" s="28">
+        <v>1890</v>
+      </c>
+      <c r="E161" t="s">
+        <v>194</v>
+      </c>
+      <c r="F161" s="29">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s">
+        <v>306</v>
+      </c>
+      <c r="D162" s="16">
+        <v>1098</v>
+      </c>
+      <c r="F162" s="18">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
+        <v>307</v>
+      </c>
+      <c r="D163" s="16">
+        <v>1075</v>
+      </c>
+      <c r="F163" s="18">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D164" s="16"/>
+      <c r="F164" s="18"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="16"/>
+      <c r="F165" s="18"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D166" s="16"/>
+      <c r="F166" s="18"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D167" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>2627630.4300000002</v>
-      </c>
-      <c r="F160" s="18"/>
+        <v>3115490.43</v>
+      </c>
+      <c r="F167" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5250,7 +5382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="318">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1090,6 +1090,36 @@
   </si>
   <si>
     <t xml:space="preserve">Тёрка для газобетона </t>
+  </si>
+  <si>
+    <t>Толщина пирога пола</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пенопласт </t>
+  </si>
+  <si>
+    <t>цементно-песчанная стяжка</t>
+  </si>
+  <si>
+    <t>покарытие пола (плитка, ламинат)</t>
+  </si>
+  <si>
+    <t>высота стены</t>
+  </si>
+  <si>
+    <t>МП-1</t>
+  </si>
+  <si>
+    <t>стена</t>
+  </si>
+  <si>
+    <t>За отметку 0 принята - уровень жб плиты</t>
+  </si>
+  <si>
+    <t>Итого: мм</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1319,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1336,18 +1366,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1397,6 +1425,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -1564,9 +1598,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1576,15 +1610,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2259,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
@@ -5438,10 +5472,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5449,14 +5483,17 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -5466,8 +5503,20 @@
       <c r="C3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -5477,31 +5526,85 @@
       <c r="C4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <f>SUM(G4:G6)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>295</v>
       </c>
+      <c r="F8" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="20">
+        <v>3030</v>
+      </c>
+      <c r="H8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9">
+        <v>250</v>
+      </c>
+      <c r="H9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10">
+        <v>2780</v>
+      </c>
+      <c r="H10" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="320">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1107,9 +1107,6 @@
     <t>покарытие пола (плитка, ламинат)</t>
   </si>
   <si>
-    <t>высота стены</t>
-  </si>
-  <si>
     <t>МП-1</t>
   </si>
   <si>
@@ -1120,6 +1117,15 @@
   </si>
   <si>
     <t>Итого: мм</t>
+  </si>
+  <si>
+    <t>Газобетонные блоки 150 мм и 100 мм</t>
+  </si>
+  <si>
+    <t>2 палетты 100, 5 палет 150 блок (Аэроблок)</t>
+  </si>
+  <si>
+    <t>Высота стены</t>
   </si>
 </sst>
 </file>
@@ -2293,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I167"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,7 +4954,7 @@
         <v>1098</v>
       </c>
       <c r="F162" s="18">
-        <v>45698</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
@@ -4962,12 +4968,25 @@
         <v>1075</v>
       </c>
       <c r="F163" s="18">
-        <v>45698</v>
+        <v>45667</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D164" s="16"/>
-      <c r="F164" s="18"/>
+      <c r="B164">
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
+        <v>317</v>
+      </c>
+      <c r="D164" s="16">
+        <v>146000</v>
+      </c>
+      <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" s="18">
+        <v>45696</v>
+      </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D165" s="16"/>
@@ -4980,7 +4999,7 @@
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D167" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3115490.43</v>
+        <v>3261490.43</v>
       </c>
       <c r="F167" s="18"/>
     </row>
@@ -5475,7 +5494,7 @@
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5510,10 +5529,10 @@
         <v>309</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5569,7 +5588,7 @@
         <v>295</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G8" s="20">
         <v>3030</v>
@@ -5580,7 +5599,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G9">
         <v>250</v>
@@ -5591,7 +5610,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10">
         <v>2780</v>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Лист1" sheetId="8" r:id="rId5"/>
     <sheet name="Размеры дома" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="324">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1127,16 +1127,28 @@
   <si>
     <t>Высота стены</t>
   </si>
+  <si>
+    <t>Мой проект</t>
+  </si>
+  <si>
+    <t>Проект покупной</t>
+  </si>
+  <si>
+    <t>За отметку 0 принята - уровень чистового пола</t>
+  </si>
+  <si>
+    <t>высота стены</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,6 +1300,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1325,7 +1344,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1376,6 +1395,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5491,10 +5512,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,14 +5526,19 @@
     <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="44.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -5535,7 +5561,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -5555,8 +5581,11 @@
         <f>SUM(G4:G6)</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -5566,8 +5595,11 @@
       <c r="G5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -5577,13 +5609,26 @@
       <c r="G6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>2600</v>
+      </c>
+      <c r="K7" s="32">
+        <f>SUM(J4:J7)</f>
+        <v>2780</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -5596,8 +5641,15 @@
       <c r="H8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>250</v>
+      </c>
+      <c r="K8">
+        <f>SUM(J4:J8)</f>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="30" t="s">
         <v>313</v>
       </c>
@@ -5608,7 +5660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F10" s="30" t="s">
         <v>314</v>
       </c>
@@ -5616,6 +5668,117 @@
         <v>2780</v>
       </c>
       <c r="H10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16">
+        <f>SUM(G16:G18)</f>
+        <v>230</v>
+      </c>
+      <c r="J16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <f>SUM(J16:J18)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>2550</v>
+      </c>
+      <c r="K19" s="32">
+        <f>J19+K18</f>
+        <v>2780</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G20" s="20">
+        <v>3030</v>
+      </c>
+      <c r="H20" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20">
+        <v>250</v>
+      </c>
+      <c r="K20" s="33">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21">
+        <v>250</v>
+      </c>
+      <c r="H21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22">
+        <v>2780</v>
+      </c>
+      <c r="H22" t="s">
         <v>309</v>
       </c>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2320,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I167"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5514,7 +5514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="386">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1139,11 +1139,197 @@
   <si>
     <t>высота стены</t>
   </si>
+  <si>
+    <t>'Размеры для проёмов окон и дверей</t>
+  </si>
+  <si>
+    <t>'Height (Высота)</t>
+  </si>
+  <si>
+    <t>'Length Длина(Ширина)</t>
+  </si>
+  <si>
+    <t>'Координаты</t>
+  </si>
+  <si>
+    <t>'x</t>
+  </si>
+  <si>
+    <t>'y</t>
+  </si>
+  <si>
+    <t>'z</t>
+  </si>
+  <si>
+    <t>'OK-4_1 Юг Кухня</t>
+  </si>
+  <si>
+    <t>=1450 mm</t>
+  </si>
+  <si>
+    <t>=1800 mm</t>
+  </si>
+  <si>
+    <t>=4800 mm</t>
+  </si>
+  <si>
+    <t>=0 mm</t>
+  </si>
+  <si>
+    <t>=1030 mm</t>
+  </si>
+  <si>
+    <t>'ОК-3 Запад Кухня</t>
+  </si>
+  <si>
+    <t>=1500 mm</t>
+  </si>
+  <si>
+    <t>=2825 mm</t>
+  </si>
+  <si>
+    <t>'Дв-1 Запад</t>
+  </si>
+  <si>
+    <t>=2100 mm</t>
+  </si>
+  <si>
+    <t>=1600 mm</t>
+  </si>
+  <si>
+    <t>=6250 mm</t>
+  </si>
+  <si>
+    <t>=180 mm</t>
+  </si>
+  <si>
+    <t>'ОК-1 Запад бабушк ком-а</t>
+  </si>
+  <si>
+    <t>=12070 mm</t>
+  </si>
+  <si>
+    <t>'ОК-2 Запад Тех. помещение</t>
+  </si>
+  <si>
+    <t>=900 mm</t>
+  </si>
+  <si>
+    <t>=8375 mm</t>
+  </si>
+  <si>
+    <t>'Дв-2 Восток кухня</t>
+  </si>
+  <si>
+    <t>=2300 mm</t>
+  </si>
+  <si>
+    <t>=11.85 m</t>
+  </si>
+  <si>
+    <t>=2075 mm</t>
+  </si>
+  <si>
+    <t>'ОК-3 Восток комната детская</t>
+  </si>
+  <si>
+    <t>=6175 mm</t>
+  </si>
+  <si>
+    <t>'ОК-3 Восток комната родительская</t>
+  </si>
+  <si>
+    <t>=9825 mm</t>
+  </si>
+  <si>
+    <t>'ОК-2 Север Сан узел</t>
+  </si>
+  <si>
+    <t>=5925 mm</t>
+  </si>
+  <si>
+    <t>=13 m</t>
+  </si>
+  <si>
+    <t>'Дв-4 Запад прихожая</t>
+  </si>
+  <si>
+    <t>=1000 mm</t>
+  </si>
+  <si>
+    <t>=3675 mm</t>
+  </si>
+  <si>
+    <t>=6525 mm</t>
+  </si>
+  <si>
+    <t>'Дв-5 Запад бабушкина комната</t>
+  </si>
+  <si>
+    <t>=3925 mm</t>
+  </si>
+  <si>
+    <t>=9600 mm</t>
+  </si>
+  <si>
+    <t>'Дв-5 Восток родительская</t>
+  </si>
+  <si>
+    <t>=7025 mm</t>
+  </si>
+  <si>
+    <t>=10.45 m</t>
+  </si>
+  <si>
+    <t>'Дв-5 Восток детская</t>
+  </si>
+  <si>
+    <t>=7925 mm</t>
+  </si>
+  <si>
+    <t>'Дв-5 Запад вход в тех помещение</t>
+  </si>
+  <si>
+    <t>=1950 mm</t>
+  </si>
+  <si>
+    <t>=6650 mm</t>
+  </si>
+  <si>
+    <t>'Дв-6 Север сан узел</t>
+  </si>
+  <si>
+    <t>=800 mm</t>
+  </si>
+  <si>
+    <t>=5025 mm</t>
+  </si>
+  <si>
+    <t>=10.65 m</t>
+  </si>
+  <si>
+    <t>'Дв-6 Туалет</t>
+  </si>
+  <si>
+    <t>=4025 mm</t>
+  </si>
+  <si>
+    <t>=7050 mm</t>
+  </si>
+  <si>
+    <t>'Дв-6 Шкаф</t>
+  </si>
+  <si>
+    <t>'ОК-4_2 Юг Кухня</t>
+  </si>
+  <si>
+    <t>=8500 mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2320,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
@@ -5512,10 +5698,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5523,7 +5709,7 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="44.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
@@ -5782,6 +5968,383 @@
         <v>309</v>
       </c>
     </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J26" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" t="s">
+        <v>333</v>
+      </c>
+      <c r="J27" t="s">
+        <v>334</v>
+      </c>
+      <c r="K27" t="s">
+        <v>335</v>
+      </c>
+      <c r="L27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>337</v>
+      </c>
+      <c r="G28" t="s">
+        <v>332</v>
+      </c>
+      <c r="H28" t="s">
+        <v>333</v>
+      </c>
+      <c r="J28" t="s">
+        <v>338</v>
+      </c>
+      <c r="K28" t="s">
+        <v>339</v>
+      </c>
+      <c r="L28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G29" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" t="s">
+        <v>342</v>
+      </c>
+      <c r="J29" t="s">
+        <v>338</v>
+      </c>
+      <c r="K29" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>345</v>
+      </c>
+      <c r="G30" t="s">
+        <v>332</v>
+      </c>
+      <c r="H30" t="s">
+        <v>333</v>
+      </c>
+      <c r="J30" t="s">
+        <v>335</v>
+      </c>
+      <c r="K30" t="s">
+        <v>346</v>
+      </c>
+      <c r="L30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>347</v>
+      </c>
+      <c r="G31" t="s">
+        <v>332</v>
+      </c>
+      <c r="H31" t="s">
+        <v>348</v>
+      </c>
+      <c r="J31" t="s">
+        <v>335</v>
+      </c>
+      <c r="K31" t="s">
+        <v>349</v>
+      </c>
+      <c r="L31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G32" t="s">
+        <v>351</v>
+      </c>
+      <c r="H32" t="s">
+        <v>333</v>
+      </c>
+      <c r="J32" t="s">
+        <v>352</v>
+      </c>
+      <c r="K32" t="s">
+        <v>353</v>
+      </c>
+      <c r="L32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>354</v>
+      </c>
+      <c r="G33" t="s">
+        <v>332</v>
+      </c>
+      <c r="H33" t="s">
+        <v>333</v>
+      </c>
+      <c r="J33" t="s">
+        <v>352</v>
+      </c>
+      <c r="K33" t="s">
+        <v>355</v>
+      </c>
+      <c r="L33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>356</v>
+      </c>
+      <c r="G34" t="s">
+        <v>332</v>
+      </c>
+      <c r="H34" t="s">
+        <v>333</v>
+      </c>
+      <c r="J34" t="s">
+        <v>352</v>
+      </c>
+      <c r="K34" t="s">
+        <v>357</v>
+      </c>
+      <c r="L34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>358</v>
+      </c>
+      <c r="G35" t="s">
+        <v>332</v>
+      </c>
+      <c r="H35" t="s">
+        <v>348</v>
+      </c>
+      <c r="J35" t="s">
+        <v>359</v>
+      </c>
+      <c r="K35" t="s">
+        <v>360</v>
+      </c>
+      <c r="L35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>361</v>
+      </c>
+      <c r="G36" t="s">
+        <v>341</v>
+      </c>
+      <c r="H36" t="s">
+        <v>362</v>
+      </c>
+      <c r="J36" t="s">
+        <v>363</v>
+      </c>
+      <c r="K36" t="s">
+        <v>364</v>
+      </c>
+      <c r="L36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>365</v>
+      </c>
+      <c r="G37" t="s">
+        <v>341</v>
+      </c>
+      <c r="H37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K37" t="s">
+        <v>367</v>
+      </c>
+      <c r="L37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>368</v>
+      </c>
+      <c r="G38" t="s">
+        <v>341</v>
+      </c>
+      <c r="H38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>369</v>
+      </c>
+      <c r="K38" t="s">
+        <v>370</v>
+      </c>
+      <c r="L38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" t="s">
+        <v>372</v>
+      </c>
+      <c r="L39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>373</v>
+      </c>
+      <c r="G40" t="s">
+        <v>341</v>
+      </c>
+      <c r="H40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G41" t="s">
+        <v>341</v>
+      </c>
+      <c r="H41" t="s">
+        <v>377</v>
+      </c>
+      <c r="J41" t="s">
+        <v>378</v>
+      </c>
+      <c r="K41" t="s">
+        <v>379</v>
+      </c>
+      <c r="L41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>341</v>
+      </c>
+      <c r="H42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" t="s">
+        <v>341</v>
+      </c>
+      <c r="H43" t="s">
+        <v>377</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" t="s">
+        <v>332</v>
+      </c>
+      <c r="H44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="s">
+        <v>385</v>
+      </c>
+      <c r="K44" t="s">
+        <v>335</v>
+      </c>
+      <c r="L44" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5700,8 +5700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5710,6 +5710,7 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="44.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Лист1" sheetId="8" r:id="rId5"/>
     <sheet name="Размеры дома" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="392">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1325,11 +1325,29 @@
   <si>
     <t>=8500 mm</t>
   </si>
+  <si>
+    <t>Промметал ()</t>
+  </si>
+  <si>
+    <t>Металлические трубы 40х20х1.5 - 6 метров + 30 р один рез</t>
+  </si>
+  <si>
+    <t>сверло по металлу удлинёное 8 - 165 мм - 1 шт</t>
+  </si>
+  <si>
+    <t>пилка электролобзика по дереву 135 мм dorn - 2шт</t>
+  </si>
+  <si>
+    <t>мастика каучукобитумная 10 л</t>
+  </si>
+  <si>
+    <t>канистра 10 л для гсм</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1590,6 +1608,12 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1638,12 +1662,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -1806,14 +1824,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F167" totalsRowCount="1">
-  <autoFilter ref="B5:F166"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F179" totalsRowCount="1">
+  <autoFilter ref="B5:F178"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1823,15 +1841,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2504,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I167"/>
+  <dimension ref="B3:I179"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K170" sqref="K170"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5196,19 +5214,132 @@
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D165" s="16"/>
-      <c r="F165" s="18"/>
+      <c r="B165">
+        <v>161</v>
+      </c>
+      <c r="C165" t="s">
+        <v>387</v>
+      </c>
+      <c r="D165" s="16">
+        <v>900</v>
+      </c>
+      <c r="E165" t="s">
+        <v>386</v>
+      </c>
+      <c r="F165" s="18">
+        <v>45724</v>
+      </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D166" s="16"/>
-      <c r="F166" s="18"/>
+      <c r="B166">
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
+        <v>389</v>
+      </c>
+      <c r="D166" s="16">
+        <v>109</v>
+      </c>
+      <c r="E166" t="s">
+        <v>194</v>
+      </c>
+      <c r="F166" s="18">
+        <v>45725</v>
+      </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>163</v>
+      </c>
+      <c r="C167" t="s">
+        <v>388</v>
+      </c>
       <c r="D167" s="16">
+        <v>279</v>
+      </c>
+      <c r="E167" t="s">
+        <v>194</v>
+      </c>
+      <c r="F167" s="18">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>390</v>
+      </c>
+      <c r="D168" s="16">
+        <v>599</v>
+      </c>
+      <c r="E168" t="s">
+        <v>194</v>
+      </c>
+      <c r="F168" s="18">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>391</v>
+      </c>
+      <c r="D169" s="16">
+        <v>599</v>
+      </c>
+      <c r="E169" t="s">
+        <v>194</v>
+      </c>
+      <c r="F169" s="18">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D170" s="16"/>
+      <c r="F170" s="18"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D171" s="16"/>
+      <c r="F171" s="18"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="16"/>
+      <c r="F172" s="18"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D173" s="16"/>
+      <c r="F173" s="18"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D174" s="16"/>
+      <c r="F174" s="18"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D175" s="16"/>
+      <c r="F175" s="18"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D176" s="16"/>
+      <c r="F176" s="18"/>
+    </row>
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D177" s="16"/>
+      <c r="F177" s="18"/>
+    </row>
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D178" s="16"/>
+      <c r="F178" s="18"/>
+    </row>
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D179" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3261490.43</v>
-      </c>
-      <c r="F167" s="18"/>
+        <v>3263976.43</v>
+      </c>
+      <c r="F179" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5700,7 +5831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="403">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1342,6 +1342,39 @@
   </si>
   <si>
     <t>канистра 10 л для гсм</t>
+  </si>
+  <si>
+    <t>Уголок монтажный усиленный 70х70х55x1,8мм</t>
+  </si>
+  <si>
+    <t>Петля накладная 40х110 цинк</t>
+  </si>
+  <si>
+    <t>Масло для 4Т двигателей (полусинтет.) SAE 10W-40 API SJ/CF 1л DORN</t>
+  </si>
+  <si>
+    <t>4 шт - Бауцентр</t>
+  </si>
+  <si>
+    <t>2 шт - Бауцентр</t>
+  </si>
+  <si>
+    <t>Ондулин - 1 лист</t>
+  </si>
+  <si>
+    <t>Замок</t>
+  </si>
+  <si>
+    <t>Ручка скоба</t>
+  </si>
+  <si>
+    <t>Крючок накидной</t>
+  </si>
+  <si>
+    <t>Петля накладная 45х200</t>
+  </si>
+  <si>
+    <t>Проушина угловая 2 шт</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1857,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F179" totalsRowCount="1">
-  <autoFilter ref="B5:F178"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F187" totalsRowCount="1">
+  <autoFilter ref="B5:F186"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2522,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I179"/>
+  <dimension ref="B3:I187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,47 +5332,209 @@
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D170" s="16"/>
-      <c r="F170" s="18"/>
+      <c r="B170">
+        <v>166</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="D170" s="16">
+        <v>112</v>
+      </c>
+      <c r="E170" t="s">
+        <v>395</v>
+      </c>
+      <c r="F170" s="18">
+        <v>45731</v>
+      </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D171" s="16"/>
-      <c r="F171" s="18"/>
+      <c r="B171">
+        <v>167</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="D171" s="16">
+        <v>98</v>
+      </c>
+      <c r="E171" t="s">
+        <v>396</v>
+      </c>
+      <c r="F171" s="18">
+        <v>45731</v>
+      </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D172" s="16"/>
-      <c r="F172" s="18"/>
+      <c r="B172">
+        <v>168</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="D172" s="16">
+        <v>499</v>
+      </c>
+      <c r="E172" t="s">
+        <v>194</v>
+      </c>
+      <c r="F172" s="18">
+        <v>45731</v>
+      </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D173" s="16"/>
-      <c r="F173" s="18"/>
+      <c r="B173">
+        <v>169</v>
+      </c>
+      <c r="C173" t="s">
+        <v>397</v>
+      </c>
+      <c r="D173" s="16">
+        <v>889</v>
+      </c>
+      <c r="E173" t="s">
+        <v>194</v>
+      </c>
+      <c r="F173" s="18">
+        <v>45732</v>
+      </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D174" s="16"/>
-      <c r="F174" s="18"/>
+      <c r="B174">
+        <v>170</v>
+      </c>
+      <c r="C174" t="s">
+        <v>401</v>
+      </c>
+      <c r="D174" s="16">
+        <v>109</v>
+      </c>
+      <c r="E174" t="s">
+        <v>194</v>
+      </c>
+      <c r="F174" s="18">
+        <v>45732</v>
+      </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D175" s="16"/>
-      <c r="F175" s="18"/>
+      <c r="B175">
+        <v>171</v>
+      </c>
+      <c r="C175" t="s">
+        <v>398</v>
+      </c>
+      <c r="D175" s="16">
+        <v>169</v>
+      </c>
+      <c r="E175" t="s">
+        <v>194</v>
+      </c>
+      <c r="F175" s="18">
+        <v>45732</v>
+      </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="16"/>
-      <c r="F176" s="18"/>
-    </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D177" s="16"/>
-      <c r="F177" s="18"/>
-    </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D178" s="16"/>
-      <c r="F178" s="18"/>
-    </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>172</v>
+      </c>
+      <c r="C176" t="s">
+        <v>146</v>
+      </c>
+      <c r="D176" s="16">
+        <v>159</v>
+      </c>
+      <c r="E176" t="s">
+        <v>194</v>
+      </c>
+      <c r="F176" s="18">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>173</v>
+      </c>
+      <c r="C177" t="s">
+        <v>399</v>
+      </c>
+      <c r="D177" s="16">
+        <v>69</v>
+      </c>
+      <c r="E177" t="s">
+        <v>194</v>
+      </c>
+      <c r="F177" s="18">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>174</v>
+      </c>
+      <c r="C178" t="s">
+        <v>400</v>
+      </c>
+      <c r="D178" s="16">
+        <v>59</v>
+      </c>
+      <c r="E178" t="s">
+        <v>194</v>
+      </c>
+      <c r="F178" s="18">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>175</v>
+      </c>
+      <c r="C179" t="s">
+        <v>402</v>
+      </c>
       <c r="D179" s="16">
+        <v>69</v>
+      </c>
+      <c r="E179" t="s">
+        <v>194</v>
+      </c>
+      <c r="F179" s="18">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D180" s="16"/>
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D181" s="16"/>
+      <c r="F181" s="18"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D182" s="16"/>
+      <c r="F182" s="18"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D183" s="16"/>
+      <c r="F183" s="18"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D184" s="16"/>
+      <c r="F184" s="18"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D185" s="16"/>
+      <c r="F185" s="18"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D186" s="16"/>
+      <c r="F186" s="18"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D187" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3263976.43</v>
-      </c>
-      <c r="F179" s="18"/>
+        <v>3266208.43</v>
+      </c>
+      <c r="F187" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId2"/>
     <sheet name="Покупки" sheetId="6" r:id="rId3"/>
     <sheet name="Материалы" sheetId="3" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="8" r:id="rId5"/>
-    <sheet name="Размеры дома" sheetId="7" r:id="rId6"/>
+    <sheet name="Оси" sheetId="8" r:id="rId5"/>
+    <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="435">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1041,36 +1041,9 @@
     <t>комментарии</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>так как планируется использовать 300 мм газобетонный блок</t>
   </si>
   <si>
-    <t>Внешние несущие стены</t>
-  </si>
-  <si>
-    <t>300х250х600</t>
-  </si>
-  <si>
-    <t>м3</t>
-  </si>
-  <si>
-    <t>Внутр несущие</t>
-  </si>
-  <si>
     <t>Газобетонные блоки 240 мм и 300 мм</t>
   </si>
   <si>
@@ -1375,6 +1348,143 @@
   </si>
   <si>
     <t>Проушина угловая 2 шт</t>
+  </si>
+  <si>
+    <t>Песок 0-4</t>
+  </si>
+  <si>
+    <t>Клей для блока Kleister ZM-22</t>
+  </si>
+  <si>
+    <t>10 мешков 25 кг. Бауцентр</t>
+  </si>
+  <si>
+    <t>Доставка с бауцентра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шланг для полива 1/2 </t>
+  </si>
+  <si>
+    <t>50 метров. Бауцентр</t>
+  </si>
+  <si>
+    <t>Отсечная гидроизоляция 0,4х20 м Технониколь</t>
+  </si>
+  <si>
+    <t>4 рулона. Бауцентр</t>
+  </si>
+  <si>
+    <t>Сетка оцинкованная 2х2 мм (2м х 50 см)</t>
+  </si>
+  <si>
+    <t>Контур дома, стена</t>
+  </si>
+  <si>
+    <t>Наш проект</t>
+  </si>
+  <si>
+    <t>Покупной проект</t>
+  </si>
+  <si>
+    <t>так как планируется использовать 375 мм газобетонный блок</t>
+  </si>
+  <si>
+    <t>A - Б</t>
+  </si>
+  <si>
+    <t>Б - В</t>
+  </si>
+  <si>
+    <t>В - Г</t>
+  </si>
+  <si>
+    <t>Г - Д</t>
+  </si>
+  <si>
+    <t>Контур дома стена</t>
+  </si>
+  <si>
+    <t>Длина стены Север (Юг)</t>
+  </si>
+  <si>
+    <t>A - B</t>
+  </si>
+  <si>
+    <t>B - C</t>
+  </si>
+  <si>
+    <t>C - D</t>
+  </si>
+  <si>
+    <t>D - E</t>
+  </si>
+  <si>
+    <t>так как глубина крыльца такая же как и в покупном проекте</t>
+  </si>
+  <si>
+    <t>расстояние между несущими стенами та же.</t>
+  </si>
+  <si>
+    <t>так как необходимо было оставить несущую стену (запад) на том же расстоянии.</t>
+  </si>
+  <si>
+    <t>так как блок стал 300 мм, комнаты увеличились. 4450 + 75  = 4525 мм</t>
+  </si>
+  <si>
+    <t>Блоки для внутренних несущих стен 240 мм</t>
+  </si>
+  <si>
+    <t>Оси горизонтальные</t>
+  </si>
+  <si>
+    <t>1 -2</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>3 - 4</t>
+  </si>
+  <si>
+    <t>4 - 5</t>
+  </si>
+  <si>
+    <t>5 -4</t>
+  </si>
+  <si>
+    <t>4 - 3</t>
+  </si>
+  <si>
+    <t>3 - 2</t>
+  </si>
+  <si>
+    <t>2 - 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Блоки для внутренних несущих стен </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250 мм</t>
+    </r>
+  </si>
+  <si>
+    <t>3100 + 75. Стена стала тоньше на 75 мм.</t>
+  </si>
+  <si>
+    <t>1700-75. Так как блок 300 мм.</t>
+  </si>
+  <si>
+    <t>5750+75+75. Так как блоки уменьшились с двух сторон, на 75 мм.</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1495,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +1654,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1581,7 +1700,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1634,18 +1753,19 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1695,6 +1815,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -1857,14 +1983,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F187" totalsRowCount="1">
-  <autoFilter ref="B5:F186"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F198" totalsRowCount="1">
+  <autoFilter ref="B5:F197"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1874,23 +2000,59 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A3:C8" totalsRowShown="0">
-  <autoFilter ref="A3:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A3:C10" totalsRowShown="0">
+  <autoFilter ref="A3:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Название оси"/>
+    <tableColumn id="2" name="Расстояние (мм)"/>
+    <tableColumn id="3" name="комментарии"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица54" displayName="Таблица54" ref="E3:G10" totalsRowShown="0">
+  <autoFilter ref="E3:G10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Название оси"/>
+    <tableColumn id="2" name="Расстояние (мм)"/>
+    <tableColumn id="3" name="комментарии"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица57" displayName="Таблица57" ref="A15:C22" totalsRowShown="0">
+  <autoFilter ref="A15:C22"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Название оси"/>
+    <tableColumn id="2" name="Расстояние (мм)"/>
+    <tableColumn id="3" name="комментарии"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица548" displayName="Таблица548" ref="E15:G22" totalsRowShown="0">
+  <autoFilter ref="E15:G22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Название оси"/>
     <tableColumn id="2" name="Расстояние (мм)"/>
@@ -2555,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I187"/>
+  <dimension ref="B3:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4914,7 +5076,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>141</v>
       </c>
@@ -4931,7 +5093,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>142</v>
       </c>
@@ -4948,7 +5110,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>143</v>
       </c>
@@ -4965,7 +5127,7 @@
         <v>45570</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>144</v>
       </c>
@@ -4982,7 +5144,7 @@
         <v>45571</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>145</v>
       </c>
@@ -4998,12 +5160,8 @@
       <c r="F149" s="18">
         <v>45573</v>
       </c>
-      <c r="I149">
-        <f>1300000/7</f>
-        <v>185714.28571428571</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>146</v>
       </c>
@@ -5017,7 +5175,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>147</v>
       </c>
@@ -5031,7 +5189,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>148</v>
       </c>
@@ -5048,7 +5206,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>149</v>
       </c>
@@ -5065,7 +5223,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>150</v>
       </c>
@@ -5082,7 +5240,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>151</v>
       </c>
@@ -5099,7 +5257,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>152</v>
       </c>
@@ -5116,7 +5274,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>153</v>
       </c>
@@ -5133,29 +5291,29 @@
         <v>45599</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>154</v>
       </c>
       <c r="C158" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D158" s="16">
         <v>482016</v>
       </c>
       <c r="E158" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F158" s="18">
         <v>45652</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>155</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D159" s="16">
         <v>564.75</v>
@@ -5167,12 +5325,12 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>156</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D160" s="16">
         <v>1216.25</v>
@@ -5189,7 +5347,7 @@
         <v>157</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D161" s="28">
         <v>1890</v>
@@ -5206,7 +5364,7 @@
         <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D162" s="16">
         <v>1098</v>
@@ -5220,7 +5378,7 @@
         <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D163" s="16">
         <v>1075</v>
@@ -5234,13 +5392,13 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D164" s="16">
         <v>146000</v>
       </c>
       <c r="E164" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F164" s="18">
         <v>45696</v>
@@ -5251,13 +5409,13 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D165" s="16">
         <v>900</v>
       </c>
       <c r="E165" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F165" s="18">
         <v>45724</v>
@@ -5268,7 +5426,7 @@
         <v>162</v>
       </c>
       <c r="C166" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D166" s="16">
         <v>109</v>
@@ -5285,7 +5443,7 @@
         <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D167" s="16">
         <v>279</v>
@@ -5302,7 +5460,7 @@
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D168" s="16">
         <v>599</v>
@@ -5319,7 +5477,7 @@
         <v>165</v>
       </c>
       <c r="C169" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D169" s="16">
         <v>599</v>
@@ -5336,13 +5494,13 @@
         <v>166</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D170" s="16">
         <v>112</v>
       </c>
       <c r="E170" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F170" s="18">
         <v>45731</v>
@@ -5353,13 +5511,13 @@
         <v>167</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D171" s="16">
         <v>98</v>
       </c>
       <c r="E171" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F171" s="18">
         <v>45731</v>
@@ -5370,7 +5528,7 @@
         <v>168</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D172" s="16">
         <v>499</v>
@@ -5387,7 +5545,7 @@
         <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D173" s="16">
         <v>889</v>
@@ -5404,7 +5562,7 @@
         <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D174" s="16">
         <v>109</v>
@@ -5421,7 +5579,7 @@
         <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D175" s="16">
         <v>169</v>
@@ -5455,7 +5613,7 @@
         <v>173</v>
       </c>
       <c r="C177" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D177" s="16">
         <v>69</v>
@@ -5472,7 +5630,7 @@
         <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D178" s="16">
         <v>59</v>
@@ -5489,7 +5647,7 @@
         <v>175</v>
       </c>
       <c r="C179" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D179" s="16">
         <v>69</v>
@@ -5502,39 +5660,161 @@
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D180" s="16"/>
-      <c r="F180" s="18"/>
+      <c r="B180">
+        <v>176</v>
+      </c>
+      <c r="C180" t="s">
+        <v>394</v>
+      </c>
+      <c r="D180" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E180" t="s">
+        <v>194</v>
+      </c>
+      <c r="F180" s="18">
+        <v>45738</v>
+      </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D181" s="16"/>
-      <c r="F181" s="18"/>
+      <c r="B181">
+        <v>177</v>
+      </c>
+      <c r="C181" t="s">
+        <v>395</v>
+      </c>
+      <c r="D181" s="16">
+        <v>3791.3</v>
+      </c>
+      <c r="E181" t="s">
+        <v>396</v>
+      </c>
+      <c r="F181" s="18">
+        <v>45738</v>
+      </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D182" s="16"/>
-      <c r="F182" s="18"/>
+      <c r="B182">
+        <v>178</v>
+      </c>
+      <c r="C182" t="s">
+        <v>398</v>
+      </c>
+      <c r="D182" s="16">
+        <v>3445.74</v>
+      </c>
+      <c r="E182" t="s">
+        <v>399</v>
+      </c>
+      <c r="F182" s="18">
+        <v>45738</v>
+      </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D183" s="16"/>
-      <c r="F183" s="18"/>
+      <c r="B183">
+        <v>179</v>
+      </c>
+      <c r="C183" t="s">
+        <v>400</v>
+      </c>
+      <c r="D183" s="16">
+        <v>5919.96</v>
+      </c>
+      <c r="E183" t="s">
+        <v>401</v>
+      </c>
+      <c r="F183" s="18">
+        <v>45738</v>
+      </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D184" s="16"/>
-      <c r="F184" s="18"/>
+      <c r="B184">
+        <v>180</v>
+      </c>
+      <c r="C184" t="s">
+        <v>397</v>
+      </c>
+      <c r="D184" s="16">
+        <v>690</v>
+      </c>
+      <c r="E184" t="s">
+        <v>194</v>
+      </c>
+      <c r="F184" s="18">
+        <v>45738</v>
+      </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D185" s="16"/>
-      <c r="F185" s="18"/>
+      <c r="B185">
+        <v>181</v>
+      </c>
+      <c r="C185" t="s">
+        <v>402</v>
+      </c>
+      <c r="D185" s="16">
+        <v>600</v>
+      </c>
+      <c r="E185" t="s">
+        <v>253</v>
+      </c>
+      <c r="F185" s="18">
+        <v>45739</v>
+      </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D186" s="16"/>
       <c r="F186" s="18"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D187" s="16">
+      <c r="D187" s="16"/>
+      <c r="F187" s="18"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D188" s="16"/>
+      <c r="F188" s="18"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D189" s="16"/>
+      <c r="F189" s="18"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D190" s="16"/>
+      <c r="F190" s="18"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D191" s="16"/>
+      <c r="F191" s="18"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D192" s="16"/>
+      <c r="F192" s="18"/>
+    </row>
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D193" s="16"/>
+      <c r="F193" s="18"/>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D194" s="16"/>
+      <c r="F194" s="18"/>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D195" s="16"/>
+      <c r="F195" s="18"/>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D196" s="16"/>
+      <c r="F196" s="18"/>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D197" s="16"/>
+      <c r="F197" s="18"/>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D198" s="16">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3266208.43</v>
-      </c>
-      <c r="F187" s="18"/>
+        <v>3292655.43</v>
+      </c>
+      <c r="F198" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5966,75 +6246,364 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E7"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="E1" s="20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
       <c r="E3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="F3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="34">
+        <v>300</v>
+      </c>
       <c r="C4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="34">
+        <v>375</v>
+      </c>
+      <c r="G4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1500</v>
+      </c>
       <c r="C5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="34">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="34">
+        <v>2125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="34">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="34">
+        <v>3100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" s="34">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="34">
+        <v>4525</v>
+      </c>
+      <c r="C8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8" s="34">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="34">
         <v>300</v>
       </c>
-      <c r="E5">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="E9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F9" s="34">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="35">
+        <f>SUM(B4:B9)</f>
+        <v>11850</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F10" s="35">
+        <f>SUM(F4:F9)</f>
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="34">
         <v>300</v>
       </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <f>SUM(E5:E6)</f>
-        <v>13.5</v>
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="34">
+        <v>375</v>
+      </c>
+      <c r="G16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" s="34">
+        <v>3175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="F17" s="34">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="B19" s="34">
+        <v>1625</v>
+      </c>
+      <c r="C19" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="F19" s="34">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" s="34">
+        <v>5900</v>
+      </c>
+      <c r="C20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="F20" s="34">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="34">
+        <v>300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="34">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" s="35">
+        <f>SUM(B16:B21)</f>
+        <v>13000</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="35">
+        <f>SUM(F16:F21)</f>
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L44"/>
+  <dimension ref="F2:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
@@ -6043,49 +6612,28 @@
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>287</v>
-      </c>
+    <row r="2" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F2" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" t="s">
-        <v>290</v>
-      </c>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F3" s="20" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>296</v>
-      </c>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -6098,12 +6646,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>292</v>
-      </c>
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -6112,12 +6657,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>293</v>
-      </c>
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -6126,10 +6668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>294</v>
-      </c>
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J7">
         <v>2600</v>
       </c>
@@ -6138,21 +6677,18 @@
         <v>2780</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>295</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" s="20" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G8" s="20">
         <v>3030</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J8">
         <v>250</v>
@@ -6162,50 +6698,50 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" s="30" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G9">
         <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F10" s="30" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G10">
         <v>2780</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" s="20" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G16">
         <v>150</v>
@@ -6220,7 +6756,7 @@
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G17">
         <v>60</v>
@@ -6231,7 +6767,7 @@
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -6253,18 +6789,18 @@
         <v>2780</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F20" s="20" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G20" s="20">
         <v>3030</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J20">
         <v>250</v>
@@ -6275,408 +6811,405 @@
     </row>
     <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F21" s="30" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G21">
         <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F22" s="30" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G22">
         <v>2780</v>
       </c>
       <c r="H22" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H26" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I26" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="J26" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="K26" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L26" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G27" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J27" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K27" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L27" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G28" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H28" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J28" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K28" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L28" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G29" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="J29" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K29" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L29" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G30" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J30" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K30" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L30" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J31" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K31" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="L31" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G32" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H32" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J32" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K32" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="L32" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L33" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H34" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J34" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H35" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J35" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="K35" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H36" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="J36" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K36" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H37" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K37" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H38" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K38" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="L38" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H39" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H40" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H41" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H42" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H43" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H44" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J44" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="439">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1065,49 +1065,16 @@
     <t xml:space="preserve">Тёрка для газобетона </t>
   </si>
   <si>
-    <t>Толщина пирога пола</t>
-  </si>
-  <si>
-    <t>мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пенопласт </t>
-  </si>
-  <si>
-    <t>цементно-песчанная стяжка</t>
-  </si>
-  <si>
-    <t>покарытие пола (плитка, ламинат)</t>
-  </si>
-  <si>
-    <t>МП-1</t>
-  </si>
-  <si>
-    <t>стена</t>
-  </si>
-  <si>
-    <t>За отметку 0 принята - уровень жб плиты</t>
-  </si>
-  <si>
-    <t>Итого: мм</t>
-  </si>
-  <si>
     <t>Газобетонные блоки 150 мм и 100 мм</t>
   </si>
   <si>
     <t>2 палетты 100, 5 палет 150 блок (Аэроблок)</t>
   </si>
   <si>
-    <t>Высота стены</t>
-  </si>
-  <si>
     <t>Мой проект</t>
   </si>
   <si>
     <t>Проект покупной</t>
-  </si>
-  <si>
-    <t>За отметку 0 принята - уровень чистового пола</t>
   </si>
   <si>
     <t>высота стены</t>
@@ -1486,16 +1453,61 @@
   <si>
     <t>5750+75+75. Так как блоки уменьшились с двух сторон, на 75 мм.</t>
   </si>
+  <si>
+    <t>Высоты</t>
+  </si>
+  <si>
+    <t>Для лучшего понимания смотреть кладочный план покупного проекта!!!</t>
+  </si>
+  <si>
+    <t>низ</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>высота (мм)</t>
+  </si>
+  <si>
+    <t>ЖБ плита</t>
+  </si>
+  <si>
+    <t>Утеплитель (пенопласт)</t>
+  </si>
+  <si>
+    <t>арм. Цем песч стяжка</t>
+  </si>
+  <si>
+    <t>покрытие пола</t>
+  </si>
+  <si>
+    <t>блок на жб плите. 2800 + 230 = 3030 - полная высота</t>
+  </si>
+  <si>
+    <t>Стена + мп1/мп2</t>
+  </si>
+  <si>
+    <t>0 - отметка. Уровень чистового пола</t>
+  </si>
+  <si>
+    <t>0 - отметка. Верхний уровень жб плиты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">блок на жб плите. </t>
+  </si>
+  <si>
+    <t>2800 + 230 = 3030 - полная высота</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1663,8 +1675,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1680,6 +1701,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,7 +1727,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1750,7 +1777,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1760,6 +1786,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2057,6 +2097,30 @@
     <tableColumn id="1" name="Название оси"/>
     <tableColumn id="2" name="Расстояние (мм)"/>
     <tableColumn id="3" name="комментарии"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица14" displayName="Таблица14" ref="G3:I8" totalsRowShown="0">
+  <autoFilter ref="G3:I8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Наименование"/>
+    <tableColumn id="2" name="высота (мм)"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица149" displayName="Таблица149" ref="B3:D8" totalsRowShown="0">
+  <autoFilter ref="B3:D8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Наименование"/>
+    <tableColumn id="2" name="высота (мм)"/>
+    <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5392,13 +5456,13 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D164" s="16">
         <v>146000</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F164" s="18">
         <v>45696</v>
@@ -5409,13 +5473,13 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D165" s="16">
         <v>900</v>
       </c>
       <c r="E165" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F165" s="18">
         <v>45724</v>
@@ -5426,7 +5490,7 @@
         <v>162</v>
       </c>
       <c r="C166" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D166" s="16">
         <v>109</v>
@@ -5443,7 +5507,7 @@
         <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D167" s="16">
         <v>279</v>
@@ -5460,7 +5524,7 @@
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D168" s="16">
         <v>599</v>
@@ -5477,7 +5541,7 @@
         <v>165</v>
       </c>
       <c r="C169" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D169" s="16">
         <v>599</v>
@@ -5494,13 +5558,13 @@
         <v>166</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D170" s="16">
         <v>112</v>
       </c>
       <c r="E170" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F170" s="18">
         <v>45731</v>
@@ -5511,13 +5575,13 @@
         <v>167</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D171" s="16">
         <v>98</v>
       </c>
       <c r="E171" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F171" s="18">
         <v>45731</v>
@@ -5528,7 +5592,7 @@
         <v>168</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D172" s="16">
         <v>499</v>
@@ -5545,7 +5609,7 @@
         <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D173" s="16">
         <v>889</v>
@@ -5562,7 +5626,7 @@
         <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D174" s="16">
         <v>109</v>
@@ -5579,7 +5643,7 @@
         <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D175" s="16">
         <v>169</v>
@@ -5613,7 +5677,7 @@
         <v>173</v>
       </c>
       <c r="C177" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D177" s="16">
         <v>69</v>
@@ -5630,7 +5694,7 @@
         <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D178" s="16">
         <v>59</v>
@@ -5647,7 +5711,7 @@
         <v>175</v>
       </c>
       <c r="C179" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D179" s="16">
         <v>69</v>
@@ -5664,7 +5728,7 @@
         <v>176</v>
       </c>
       <c r="C180" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D180" s="16">
         <v>12000</v>
@@ -5681,13 +5745,13 @@
         <v>177</v>
       </c>
       <c r="C181" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D181" s="16">
         <v>3791.3</v>
       </c>
       <c r="E181" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F181" s="18">
         <v>45738</v>
@@ -5698,13 +5762,13 @@
         <v>178</v>
       </c>
       <c r="C182" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D182" s="16">
         <v>3445.74</v>
       </c>
       <c r="E182" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F182" s="18">
         <v>45738</v>
@@ -5715,13 +5779,13 @@
         <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D183" s="16">
         <v>5919.96</v>
       </c>
       <c r="E183" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F183" s="18">
         <v>45738</v>
@@ -5732,7 +5796,7 @@
         <v>180</v>
       </c>
       <c r="C184" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D184" s="16">
         <v>690</v>
@@ -5749,7 +5813,7 @@
         <v>181</v>
       </c>
       <c r="C185" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D185" s="16">
         <v>600</v>
@@ -6246,10 +6310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,11 +6329,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C1" s="20"/>
       <c r="E1" s="20" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6302,143 +6366,143 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="34">
+        <v>392</v>
+      </c>
+      <c r="B4" s="33">
         <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="34">
+        <v>392</v>
+      </c>
+      <c r="F4" s="33">
         <v>375</v>
       </c>
       <c r="G4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" s="34">
+        <v>402</v>
+      </c>
+      <c r="B5" s="33">
         <v>1500</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F5" s="34">
+        <v>396</v>
+      </c>
+      <c r="F5" s="33">
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6" s="34">
+        <v>403</v>
+      </c>
+      <c r="B6" s="33">
         <v>2125</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" s="34">
+        <v>397</v>
+      </c>
+      <c r="F6" s="33">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B7" s="34">
+        <v>404</v>
+      </c>
+      <c r="B7" s="33">
         <v>3100</v>
       </c>
       <c r="C7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F7" s="34">
+        <v>398</v>
+      </c>
+      <c r="F7" s="33">
         <v>3100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B8" s="34">
+        <v>405</v>
+      </c>
+      <c r="B8" s="33">
         <v>4525</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
-      </c>
-      <c r="F8" s="34">
+        <v>399</v>
+      </c>
+      <c r="F8" s="33">
         <v>4450</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B9" s="34">
+        <v>392</v>
+      </c>
+      <c r="B9" s="33">
         <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
-      </c>
-      <c r="F9" s="34">
+        <v>400</v>
+      </c>
+      <c r="F9" s="33">
         <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" s="35">
+        <v>401</v>
+      </c>
+      <c r="B10" s="34">
         <f>SUM(B4:B9)</f>
         <v>11850</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="F10" s="35">
+        <v>401</v>
+      </c>
+      <c r="F10" s="34">
         <f>SUM(F4:F9)</f>
         <v>11850</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="34"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F12" s="34"/>
+        <v>410</v>
+      </c>
+      <c r="F12" s="33"/>
       <c r="G12" s="20" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="34"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6463,120 +6527,125 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>403</v>
-      </c>
-      <c r="B16" s="34">
+        <v>392</v>
+      </c>
+      <c r="B16" s="33">
         <v>300</v>
       </c>
       <c r="C16" t="s">
         <v>291</v>
       </c>
       <c r="E16" t="s">
-        <v>403</v>
-      </c>
-      <c r="F16" s="34">
+        <v>392</v>
+      </c>
+      <c r="F16" s="33">
         <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="33">
+        <v>3175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="33">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1625</v>
+      </c>
+      <c r="C19" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="33">
+        <v>5900</v>
+      </c>
+      <c r="C20" t="s">
         <v>423</v>
       </c>
-      <c r="B17" s="34">
-        <v>3175</v>
-      </c>
-      <c r="C17" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="F17" s="34">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B18" s="34">
-        <v>1700</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="F18" s="34">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="B19" s="34">
-        <v>1625</v>
-      </c>
-      <c r="C19" t="s">
-        <v>433</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="B20" s="34">
-        <v>5900</v>
-      </c>
-      <c r="C20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="E20" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="33">
         <v>5750</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21" s="34">
+        <v>392</v>
+      </c>
+      <c r="B21" s="33">
         <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>291</v>
       </c>
       <c r="E21" t="s">
-        <v>411</v>
-      </c>
-      <c r="F21" s="34">
+        <v>400</v>
+      </c>
+      <c r="F21" s="33">
         <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="B22" s="35">
+        <v>401</v>
+      </c>
+      <c r="B22" s="34">
         <f>SUM(B16:B21)</f>
         <v>13000</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="F22" s="35">
+        <v>401</v>
+      </c>
+      <c r="F22" s="34">
         <f>SUM(F16:F21)</f>
         <v>13000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="36" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6593,623 +6662,618 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:L44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" customWidth="1"/>
+    <col min="10" max="10" width="58.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="47.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="20" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="33">
+        <v>160</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H4" s="33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="41">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H5" s="37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="37">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" s="37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="38">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" s="38">
+        <v>20</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="33">
+        <v>3030</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H8" s="33">
+        <v>2800</v>
+      </c>
+      <c r="I8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="F15" s="40"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="K18">
+        <f>SUM(F16:F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="K19" s="31">
+        <f>F19+K18</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="K20" s="32">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I26" t="s">
+        <v>307</v>
+      </c>
+      <c r="J26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" t="s">
+        <v>309</v>
+      </c>
+      <c r="L26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <f>SUM(G4:G6)</f>
-        <v>180</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J7">
-        <v>2600</v>
-      </c>
-      <c r="K7" s="32">
-        <f>SUM(J4:J7)</f>
-        <v>2780</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="G27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J27" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="20">
-        <v>3030</v>
-      </c>
-      <c r="H8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J8">
-        <v>250</v>
-      </c>
-      <c r="K8">
-        <f>SUM(J4:J8)</f>
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F9" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="G9">
-        <v>250</v>
-      </c>
-      <c r="H9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F10" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="G10">
-        <v>2780</v>
-      </c>
-      <c r="H10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F14" s="20" t="s">
+      <c r="K27" t="s">
+        <v>315</v>
+      </c>
+      <c r="L27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="J15" s="31" t="s">
+      <c r="H28" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16">
-        <v>150</v>
-      </c>
-      <c r="H16">
-        <f>SUM(G16:G18)</f>
-        <v>230</v>
-      </c>
-      <c r="J16">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G17">
-        <v>60</v>
-      </c>
-      <c r="J17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <f>SUM(J16:J18)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="J19">
-        <v>2550</v>
-      </c>
-      <c r="K19" s="32">
-        <f>J19+K18</f>
-        <v>2780</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="20">
-        <v>3030</v>
-      </c>
-      <c r="H20" t="s">
-        <v>300</v>
-      </c>
-      <c r="J20">
-        <v>250</v>
-      </c>
-      <c r="K20" s="33">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21">
-        <v>250</v>
-      </c>
-      <c r="H21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F22" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22">
-        <v>2780</v>
-      </c>
-      <c r="H22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
+      <c r="J28" t="s">
+        <v>318</v>
+      </c>
+      <c r="K28" t="s">
+        <v>319</v>
+      </c>
+      <c r="L28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H29" t="s">
+        <v>322</v>
+      </c>
+      <c r="J29" t="s">
+        <v>318</v>
+      </c>
+      <c r="K29" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" t="s">
+        <v>313</v>
+      </c>
+      <c r="J30" t="s">
         <v>315</v>
       </c>
-      <c r="G26" t="s">
+      <c r="K30" t="s">
+        <v>326</v>
+      </c>
+      <c r="L30" t="s">
         <v>316</v>
       </c>
-      <c r="H26" t="s">
-        <v>317</v>
-      </c>
-      <c r="I26" t="s">
-        <v>318</v>
-      </c>
-      <c r="J26" t="s">
-        <v>319</v>
-      </c>
-      <c r="K26" t="s">
-        <v>320</v>
-      </c>
-      <c r="L26" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>322</v>
-      </c>
-      <c r="G27" t="s">
-        <v>323</v>
-      </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31" t="s">
+        <v>315</v>
+      </c>
+      <c r="K31" t="s">
+        <v>329</v>
+      </c>
+      <c r="L31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H32" t="s">
+        <v>313</v>
+      </c>
+      <c r="J32" t="s">
+        <v>332</v>
+      </c>
+      <c r="K32" t="s">
+        <v>333</v>
+      </c>
+      <c r="L32" t="s">
         <v>324</v>
-      </c>
-      <c r="J27" t="s">
-        <v>325</v>
-      </c>
-      <c r="K27" t="s">
-        <v>326</v>
-      </c>
-      <c r="L27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>328</v>
-      </c>
-      <c r="G28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H28" t="s">
-        <v>324</v>
-      </c>
-      <c r="J28" t="s">
-        <v>329</v>
-      </c>
-      <c r="K28" t="s">
-        <v>330</v>
-      </c>
-      <c r="L28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>331</v>
-      </c>
-      <c r="G29" t="s">
-        <v>332</v>
-      </c>
-      <c r="H29" t="s">
-        <v>333</v>
-      </c>
-      <c r="J29" t="s">
-        <v>329</v>
-      </c>
-      <c r="K29" t="s">
-        <v>334</v>
-      </c>
-      <c r="L29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>336</v>
-      </c>
-      <c r="G30" t="s">
-        <v>323</v>
-      </c>
-      <c r="H30" t="s">
-        <v>324</v>
-      </c>
-      <c r="J30" t="s">
-        <v>326</v>
-      </c>
-      <c r="K30" t="s">
-        <v>337</v>
-      </c>
-      <c r="L30" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>338</v>
-      </c>
-      <c r="G31" t="s">
-        <v>323</v>
-      </c>
-      <c r="H31" t="s">
-        <v>339</v>
-      </c>
-      <c r="J31" t="s">
-        <v>326</v>
-      </c>
-      <c r="K31" t="s">
-        <v>340</v>
-      </c>
-      <c r="L31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>341</v>
-      </c>
-      <c r="G32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H32" t="s">
-        <v>324</v>
-      </c>
-      <c r="J32" t="s">
-        <v>343</v>
-      </c>
-      <c r="K32" t="s">
-        <v>344</v>
-      </c>
-      <c r="L32" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="J33" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K33" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H34" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
         <v>339</v>
       </c>
-      <c r="J35" t="s">
-        <v>350</v>
-      </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H36" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G37" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H37" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="G38" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H38" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H41" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G42" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H42" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J42" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G43" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H43" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H44" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K44" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,87 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Сыпучка" sheetId="1" r:id="rId1"/>
-    <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId2"/>
-    <sheet name="Покупки" sheetId="6" r:id="rId3"/>
-    <sheet name="Материалы" sheetId="3" r:id="rId4"/>
-    <sheet name="Оси" sheetId="8" r:id="rId5"/>
-    <sheet name="Высоты" sheetId="7" r:id="rId6"/>
+    <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
+    <sheet name="Покупки" sheetId="6" r:id="rId2"/>
+    <sheet name="Материалы" sheetId="3" r:id="rId3"/>
+    <sheet name="Оси" sheetId="8" r:id="rId4"/>
+    <sheet name="Высоты" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="357">
   <si>
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Поставщик (адрес, телефон)</t>
-  </si>
-  <si>
-    <t>цена</t>
-  </si>
-  <si>
     <t>примечание</t>
   </si>
   <si>
-    <t>https://39pesok.ru/</t>
-  </si>
-  <si>
-    <t>ИП Иванов Евгений Игоревич
-ИНН: 390706194000
-Телефоны:
-+7 (4012) 400-422
-+7 (952) 797 11-13</t>
-  </si>
-  <si>
-    <t>https://karier-kaliningrad.ru/contacts</t>
-  </si>
-  <si>
-    <t>Группа компаний "АБ" 8911 465-8888 8(4012) 390-111 ПН-ВС. Большой окружной проезд 6.</t>
-  </si>
-  <si>
     <t>Песок</t>
-  </si>
-  <si>
-    <t>525 руб/ тонна</t>
-  </si>
-  <si>
-    <t>сайт</t>
-  </si>
-  <si>
-    <t>песок не мытый, 10500 Р/ 20 тонн. До Солнечного.</t>
-  </si>
-  <si>
-    <t>Pro Карьер Калининград и Калининградская область
-Адрес: Калининград, улица Кирова, 1, этаж 4
-ежедневно, 08:00–22:00 +7 (4012) 92-10-29
-+7 (909) 790-71-12</t>
-  </si>
-  <si>
-    <t>https://pro-karier.ru/contacts/</t>
-  </si>
-  <si>
-    <t>песок на подсыпку. 8500 р/ 20 тонн. Полная машина 27-28 тонн/9700 р</t>
-  </si>
-  <si>
-    <t>Карьер Рыбачий</t>
-  </si>
-  <si>
-    <t>песчано-гравийный карьер
-Калининградская область, г. Калининград, 2 км на юго-запад от п. Прибрежный
-телефон карьера+7-4012-64-20-51</t>
-  </si>
-  <si>
-    <t>Sypuchka39</t>
-  </si>
-  <si>
-    <t>10000 руб/ 28 тонн. Можно камазами (меньше 20 тонн влазит), тогда дороже.</t>
   </si>
   <si>
     <t>Газобетонный блок 375 мм</t>
@@ -309,21 +251,6 @@
     <t>Геотекстиль</t>
   </si>
   <si>
-    <t>! внимание, контакты, возможно, неправильные.</t>
-  </si>
-  <si>
-    <t>ЗАО агрофирма «Водстрой»</t>
-  </si>
-  <si>
-    <t>+7 (40151) 3-32-64</t>
-  </si>
-  <si>
-    <t>+7 (40151) 3-32-75</t>
-  </si>
-  <si>
-    <t> Калининградская обл, Гурьевский район</t>
-  </si>
-  <si>
     <t>Грабли</t>
   </si>
   <si>
@@ -1075,195 +1002,6 @@
   </si>
   <si>
     <t>Проект покупной</t>
-  </si>
-  <si>
-    <t>высота стены</t>
-  </si>
-  <si>
-    <t>'Размеры для проёмов окон и дверей</t>
-  </si>
-  <si>
-    <t>'Height (Высота)</t>
-  </si>
-  <si>
-    <t>'Length Длина(Ширина)</t>
-  </si>
-  <si>
-    <t>'Координаты</t>
-  </si>
-  <si>
-    <t>'x</t>
-  </si>
-  <si>
-    <t>'y</t>
-  </si>
-  <si>
-    <t>'z</t>
-  </si>
-  <si>
-    <t>'OK-4_1 Юг Кухня</t>
-  </si>
-  <si>
-    <t>=1450 mm</t>
-  </si>
-  <si>
-    <t>=1800 mm</t>
-  </si>
-  <si>
-    <t>=4800 mm</t>
-  </si>
-  <si>
-    <t>=0 mm</t>
-  </si>
-  <si>
-    <t>=1030 mm</t>
-  </si>
-  <si>
-    <t>'ОК-3 Запад Кухня</t>
-  </si>
-  <si>
-    <t>=1500 mm</t>
-  </si>
-  <si>
-    <t>=2825 mm</t>
-  </si>
-  <si>
-    <t>'Дв-1 Запад</t>
-  </si>
-  <si>
-    <t>=2100 mm</t>
-  </si>
-  <si>
-    <t>=1600 mm</t>
-  </si>
-  <si>
-    <t>=6250 mm</t>
-  </si>
-  <si>
-    <t>=180 mm</t>
-  </si>
-  <si>
-    <t>'ОК-1 Запад бабушк ком-а</t>
-  </si>
-  <si>
-    <t>=12070 mm</t>
-  </si>
-  <si>
-    <t>'ОК-2 Запад Тех. помещение</t>
-  </si>
-  <si>
-    <t>=900 mm</t>
-  </si>
-  <si>
-    <t>=8375 mm</t>
-  </si>
-  <si>
-    <t>'Дв-2 Восток кухня</t>
-  </si>
-  <si>
-    <t>=2300 mm</t>
-  </si>
-  <si>
-    <t>=11.85 m</t>
-  </si>
-  <si>
-    <t>=2075 mm</t>
-  </si>
-  <si>
-    <t>'ОК-3 Восток комната детская</t>
-  </si>
-  <si>
-    <t>=6175 mm</t>
-  </si>
-  <si>
-    <t>'ОК-3 Восток комната родительская</t>
-  </si>
-  <si>
-    <t>=9825 mm</t>
-  </si>
-  <si>
-    <t>'ОК-2 Север Сан узел</t>
-  </si>
-  <si>
-    <t>=5925 mm</t>
-  </si>
-  <si>
-    <t>=13 m</t>
-  </si>
-  <si>
-    <t>'Дв-4 Запад прихожая</t>
-  </si>
-  <si>
-    <t>=1000 mm</t>
-  </si>
-  <si>
-    <t>=3675 mm</t>
-  </si>
-  <si>
-    <t>=6525 mm</t>
-  </si>
-  <si>
-    <t>'Дв-5 Запад бабушкина комната</t>
-  </si>
-  <si>
-    <t>=3925 mm</t>
-  </si>
-  <si>
-    <t>=9600 mm</t>
-  </si>
-  <si>
-    <t>'Дв-5 Восток родительская</t>
-  </si>
-  <si>
-    <t>=7025 mm</t>
-  </si>
-  <si>
-    <t>=10.45 m</t>
-  </si>
-  <si>
-    <t>'Дв-5 Восток детская</t>
-  </si>
-  <si>
-    <t>=7925 mm</t>
-  </si>
-  <si>
-    <t>'Дв-5 Запад вход в тех помещение</t>
-  </si>
-  <si>
-    <t>=1950 mm</t>
-  </si>
-  <si>
-    <t>=6650 mm</t>
-  </si>
-  <si>
-    <t>'Дв-6 Север сан узел</t>
-  </si>
-  <si>
-    <t>=800 mm</t>
-  </si>
-  <si>
-    <t>=5025 mm</t>
-  </si>
-  <si>
-    <t>=10.65 m</t>
-  </si>
-  <si>
-    <t>'Дв-6 Туалет</t>
-  </si>
-  <si>
-    <t>=4025 mm</t>
-  </si>
-  <si>
-    <t>=7050 mm</t>
-  </si>
-  <si>
-    <t>'Дв-6 Шкаф</t>
-  </si>
-  <si>
-    <t>'ОК-4_2 Юг Кухня</t>
-  </si>
-  <si>
-    <t>=8500 mm</t>
   </si>
   <si>
     <t>Промметал ()</t>
@@ -1484,9 +1222,6 @@
     <t>блок на жб плите. 2800 + 230 = 3030 - полная высота</t>
   </si>
   <si>
-    <t>Стена + мп1/мп2</t>
-  </si>
-  <si>
     <t>0 - отметка. Уровень чистового пола</t>
   </si>
   <si>
@@ -1497,6 +1232,15 @@
   </si>
   <si>
     <t>2800 + 230 = 3030 - полная высота</t>
+  </si>
+  <si>
+    <t>Стена + мп1/мп2 (от проектного нуля)</t>
+  </si>
+  <si>
+    <t>Полная высота стены (газобетон)</t>
+  </si>
+  <si>
+    <t>Стена + мп1/мп2 (от проектного нуля - плита)</t>
   </si>
 </sst>
 </file>
@@ -1507,15 +1251,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1533,37 +1269,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF575B71"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1579,12 +1284,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0F0000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1722,84 +1421,67 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1887,142 +1569,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="карьеры.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="6581775"/>
-          <a:ext cx="6267450" cy="6524625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1943838</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>162533</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="карьеры2.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7820025" y="6581775"/>
-          <a:ext cx="5287113" cy="4353533"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1" descr="https://nerudas.ru/images/3metki/znaki/geo4.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11163300" y="11953875"/>
-          <a:ext cx="190500" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B5:F22" totalsRowShown="0">
-  <autoFilter ref="B5:F22"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="№ п/п"/>
-    <tableColumn id="2" name="Поставщик (адрес, телефон)"/>
-    <tableColumn id="3" name="цена"/>
-    <tableColumn id="4" name="сайт"/>
-    <tableColumn id="5" name="примечание"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F198" totalsRowCount="1">
   <autoFilter ref="B5:F197"/>
   <tableColumns count="5">
@@ -2036,7 +1583,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
@@ -2054,7 +1601,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A3:C10" totalsRowShown="0">
   <autoFilter ref="A3:C10"/>
   <tableColumns count="3">
@@ -2066,7 +1613,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица54" displayName="Таблица54" ref="E3:G10" totalsRowShown="0">
   <autoFilter ref="E3:G10"/>
   <tableColumns count="3">
@@ -2078,7 +1625,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица57" displayName="Таблица57" ref="A15:C22" totalsRowShown="0">
   <autoFilter ref="A15:C22"/>
   <tableColumns count="3">
@@ -2090,7 +1637,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица548" displayName="Таблица548" ref="E15:G22" totalsRowShown="0">
   <autoFilter ref="E15:G22"/>
   <tableColumns count="3">
@@ -2102,9 +1649,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица14" displayName="Таблица14" ref="G3:I8" totalsRowShown="0">
-  <autoFilter ref="G3:I8"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица14" displayName="Таблица14" ref="G3:I9" totalsRowShown="0">
+  <autoFilter ref="G3:I9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Наименование"/>
     <tableColumn id="2" name="высота (мм)"/>
@@ -2114,7 +1661,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица149" displayName="Таблица149" ref="B3:D8" totalsRowShown="0">
   <autoFilter ref="B3:D8"/>
   <tableColumns count="3">
@@ -2413,228 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="81.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="48" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F48" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F49" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F50" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F51" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F52" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3" display="https://samosval.info/karery-i-perevalki/kartochka-postavschika.php?ID=1207"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,30 +1979,30 @@
   <sheetData>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>170</v>
+        <v>148</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>11.85</v>
@@ -2696,7 +2025,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2719,7 +2048,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C8">
         <v>1.05</v>
@@ -2741,34 +2070,34 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="6">
         <f t="shared" ref="C9:H9" si="0">C6*C7*C8</f>
         <v>4.9770000000000003</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>4.9770000000000003</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>5.4600000000000009</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>6.0900000000000007</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>4.2629999999999999</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>4.3732500000000005</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="12">
         <f>SUM(C9:H9)</f>
         <v>30.140250000000002</v>
       </c>
@@ -2779,12 +2108,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F198"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="I183" sqref="I183"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,8 +2125,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="17" t="s">
-        <v>71</v>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2805,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2822,15 +2151,15 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="16">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7">
         <v>1040000</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="18">
+        <v>97</v>
+      </c>
+      <c r="F6" s="9">
         <v>45287</v>
       </c>
     </row>
@@ -2839,147 +2168,147 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="16">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7">
         <v>2000</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="16">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
         <v>4000</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="16">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
         <v>41000</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="16">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7">
         <v>10000</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="16">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7">
         <v>15000</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="16">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7">
         <v>300</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="16">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7">
         <v>139448.70000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="16">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7">
         <v>12000</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="16">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7">
         <v>3348</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="16">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
         <v>216.96</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="18">
+        <v>57</v>
+      </c>
+      <c r="F16" s="9">
         <v>45361</v>
       </c>
     </row>
@@ -2988,15 +2317,15 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="16">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7">
         <v>1112.52</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="18">
+        <v>58</v>
+      </c>
+      <c r="F17" s="9">
         <v>45361</v>
       </c>
     </row>
@@ -3005,15 +2334,15 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="16">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7">
         <v>280.58</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="18">
+        <v>60</v>
+      </c>
+      <c r="F18" s="9">
         <v>45361</v>
       </c>
     </row>
@@ -3022,15 +2351,15 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="16">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7">
         <v>155.97999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="18">
+        <v>62</v>
+      </c>
+      <c r="F19" s="9">
         <v>45361</v>
       </c>
     </row>
@@ -3039,15 +2368,15 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="16">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7">
         <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="18">
+        <v>65</v>
+      </c>
+      <c r="F20" s="9">
         <v>45366</v>
       </c>
     </row>
@@ -3056,15 +2385,15 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="16">
+        <v>66</v>
+      </c>
+      <c r="D21" s="7">
         <v>2000</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="18">
+        <v>67</v>
+      </c>
+      <c r="F21" s="9">
         <v>45366</v>
       </c>
     </row>
@@ -3073,15 +2402,15 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="16">
+        <v>68</v>
+      </c>
+      <c r="D22" s="7">
         <v>978</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="E22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="9">
         <v>45374</v>
       </c>
     </row>
@@ -3090,15 +2419,15 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="16">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
         <v>7500</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="18">
+        <v>70</v>
+      </c>
+      <c r="F23" s="9">
         <v>45388</v>
       </c>
     </row>
@@ -3107,15 +2436,15 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="16">
+        <v>71</v>
+      </c>
+      <c r="D24" s="7">
         <v>18500</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="18">
+        <v>70</v>
+      </c>
+      <c r="F24" s="9">
         <v>45388</v>
       </c>
     </row>
@@ -3124,15 +2453,15 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="16">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
         <v>500</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="18">
+        <v>73</v>
+      </c>
+      <c r="F25" s="9">
         <v>45386</v>
       </c>
     </row>
@@ -3141,15 +2470,15 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="16">
+        <v>74</v>
+      </c>
+      <c r="D26" s="7">
         <v>1620</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="18">
+        <v>75</v>
+      </c>
+      <c r="F26" s="9">
         <v>45384</v>
       </c>
     </row>
@@ -3158,15 +2487,15 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="16">
+        <v>77</v>
+      </c>
+      <c r="D27" s="7">
         <v>1866</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="18">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9">
         <v>45389</v>
       </c>
     </row>
@@ -3175,15 +2504,15 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="16">
+        <v>79</v>
+      </c>
+      <c r="D28" s="7">
         <v>3741</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="18">
+        <v>78</v>
+      </c>
+      <c r="F28" s="9">
         <v>45389</v>
       </c>
     </row>
@@ -3192,12 +2521,12 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="16">
+        <v>80</v>
+      </c>
+      <c r="D29" s="7">
         <v>49245</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="9">
         <v>45395</v>
       </c>
     </row>
@@ -3206,15 +2535,15 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="16">
+        <v>81</v>
+      </c>
+      <c r="D30" s="7">
         <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="18">
+        <v>83</v>
+      </c>
+      <c r="F30" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -3223,15 +2552,15 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="16">
+        <v>82</v>
+      </c>
+      <c r="D31" s="7">
         <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="18">
+        <v>83</v>
+      </c>
+      <c r="F31" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -3240,12 +2569,12 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="16">
+        <v>84</v>
+      </c>
+      <c r="D32" s="7">
         <v>178.75</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -3254,12 +2583,12 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="16">
+        <v>84</v>
+      </c>
+      <c r="D33" s="7">
         <v>148</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -3268,15 +2597,15 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="16">
+        <v>85</v>
+      </c>
+      <c r="D34" s="7">
         <v>415.91</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="18">
+        <v>86</v>
+      </c>
+      <c r="F34" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -3285,15 +2614,15 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="16">
+        <v>90</v>
+      </c>
+      <c r="D35" s="7">
         <v>680</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="18">
+        <v>87</v>
+      </c>
+      <c r="F35" s="9">
         <v>45394</v>
       </c>
     </row>
@@ -3302,15 +2631,15 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="16">
+        <v>88</v>
+      </c>
+      <c r="D36" s="7">
         <v>2500</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="18">
+        <v>89</v>
+      </c>
+      <c r="F36" s="9">
         <v>45395</v>
       </c>
     </row>
@@ -3319,15 +2648,15 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="16">
+        <v>91</v>
+      </c>
+      <c r="D37" s="7">
         <v>820</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="18">
+        <v>92</v>
+      </c>
+      <c r="F37" s="9">
         <v>45397</v>
       </c>
     </row>
@@ -3336,15 +2665,15 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="16">
+        <v>93</v>
+      </c>
+      <c r="D38" s="7">
         <v>21380</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="18">
+        <v>94</v>
+      </c>
+      <c r="F38" s="9">
         <v>45400</v>
       </c>
     </row>
@@ -3353,12 +2682,12 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="16">
+        <v>95</v>
+      </c>
+      <c r="D39" s="7">
         <v>3600</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="9">
         <v>45401</v>
       </c>
     </row>
@@ -3367,12 +2696,12 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="16">
+        <v>96</v>
+      </c>
+      <c r="D40" s="7">
         <v>675</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="9">
         <v>45402</v>
       </c>
     </row>
@@ -3381,15 +2710,15 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="16">
+        <v>98</v>
+      </c>
+      <c r="D41" s="7">
         <v>69505</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="18">
+        <v>128</v>
+      </c>
+      <c r="F41" s="9">
         <v>45405</v>
       </c>
     </row>
@@ -3398,15 +2727,15 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="16">
+        <v>99</v>
+      </c>
+      <c r="D42" s="7">
         <v>4070</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="18">
+        <v>127</v>
+      </c>
+      <c r="F42" s="9">
         <v>45405</v>
       </c>
     </row>
@@ -3415,15 +2744,15 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="16">
+        <v>101</v>
+      </c>
+      <c r="D43" s="7">
         <v>450</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="18">
+        <v>127</v>
+      </c>
+      <c r="F43" s="9">
         <v>45405</v>
       </c>
     </row>
@@ -3432,15 +2761,15 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="16">
+        <v>100</v>
+      </c>
+      <c r="D44" s="7">
         <v>2501</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="18">
+        <v>129</v>
+      </c>
+      <c r="F44" s="9">
         <v>45406</v>
       </c>
     </row>
@@ -3449,15 +2778,15 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="16">
+        <v>102</v>
+      </c>
+      <c r="D45" s="7">
         <v>1390</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="18">
+        <v>107</v>
+      </c>
+      <c r="F45" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -3466,15 +2795,15 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="16">
+        <v>103</v>
+      </c>
+      <c r="D46" s="7">
         <v>371</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="18">
+        <v>107</v>
+      </c>
+      <c r="F46" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -3483,15 +2812,15 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="16">
+        <v>104</v>
+      </c>
+      <c r="D47" s="7">
         <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="18">
+        <v>87</v>
+      </c>
+      <c r="F47" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -3500,15 +2829,15 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="16">
+        <v>105</v>
+      </c>
+      <c r="D48" s="7">
         <v>260</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="18">
+        <v>106</v>
+      </c>
+      <c r="F48" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -3517,15 +2846,15 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="16">
+        <v>108</v>
+      </c>
+      <c r="D49" s="7">
         <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="18">
+        <v>115</v>
+      </c>
+      <c r="F49" s="9">
         <v>45412</v>
       </c>
     </row>
@@ -3534,15 +2863,15 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="16">
+        <v>109</v>
+      </c>
+      <c r="D50" s="7">
         <v>959.9</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="18">
+        <v>114</v>
+      </c>
+      <c r="F50" s="9">
         <v>45414</v>
       </c>
     </row>
@@ -3551,15 +2880,15 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="16">
+        <v>112</v>
+      </c>
+      <c r="D51" s="7">
         <v>1059</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="18">
+        <v>113</v>
+      </c>
+      <c r="F51" s="9">
         <v>45414</v>
       </c>
     </row>
@@ -3568,15 +2897,15 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="16">
+        <v>110</v>
+      </c>
+      <c r="D52" s="7">
         <v>399.9</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="18">
+        <v>111</v>
+      </c>
+      <c r="F52" s="9">
         <v>45414</v>
       </c>
     </row>
@@ -3585,15 +2914,15 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="16">
+        <v>80</v>
+      </c>
+      <c r="D53" s="7">
         <v>61740</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="18">
+        <v>116</v>
+      </c>
+      <c r="F53" s="9">
         <v>45418</v>
       </c>
     </row>
@@ -3602,15 +2931,15 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="16">
+        <v>117</v>
+      </c>
+      <c r="D54" s="7">
         <v>13230</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="18">
+        <v>118</v>
+      </c>
+      <c r="F54" s="9">
         <v>45418</v>
       </c>
     </row>
@@ -3619,15 +2948,15 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="16">
+        <v>88</v>
+      </c>
+      <c r="D55" s="7">
         <v>2500</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="18">
+        <v>119</v>
+      </c>
+      <c r="F55" s="9">
         <v>45418</v>
       </c>
     </row>
@@ -3636,15 +2965,15 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="16">
+        <v>120</v>
+      </c>
+      <c r="D56" s="7">
         <v>500</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="18">
+        <v>138</v>
+      </c>
+      <c r="F56" s="9">
         <v>45418</v>
       </c>
     </row>
@@ -3653,15 +2982,15 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="16">
+        <v>121</v>
+      </c>
+      <c r="D57" s="7">
         <v>9030</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="18">
+        <v>122</v>
+      </c>
+      <c r="F57" s="9">
         <v>45420</v>
       </c>
     </row>
@@ -3670,15 +2999,15 @@
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="16">
+        <v>123</v>
+      </c>
+      <c r="D58" s="7">
         <v>316.39</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="18">
+        <v>124</v>
+      </c>
+      <c r="F58" s="9">
         <v>45420</v>
       </c>
     </row>
@@ -3687,15 +3016,15 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="16">
+        <v>125</v>
+      </c>
+      <c r="D59" s="7">
         <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" s="18">
+        <v>126</v>
+      </c>
+      <c r="F59" s="9">
         <v>45420</v>
       </c>
     </row>
@@ -3704,15 +3033,15 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="16">
+        <v>130</v>
+      </c>
+      <c r="D60" s="7">
         <v>23617.5</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
-      </c>
-      <c r="F60" s="18">
+        <v>131</v>
+      </c>
+      <c r="F60" s="9">
         <v>45423</v>
       </c>
     </row>
@@ -3721,15 +3050,15 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="16">
+        <v>132</v>
+      </c>
+      <c r="D61" s="7">
         <v>729</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" s="18">
+        <v>134</v>
+      </c>
+      <c r="F61" s="9">
         <v>45423</v>
       </c>
     </row>
@@ -3738,15 +3067,15 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="16">
+        <v>133</v>
+      </c>
+      <c r="D62" s="7">
         <v>567</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="18">
+        <v>135</v>
+      </c>
+      <c r="F62" s="9">
         <v>45423</v>
       </c>
     </row>
@@ -3755,15 +3084,15 @@
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="16">
+        <v>88</v>
+      </c>
+      <c r="D63" s="7">
         <v>2500</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
-      </c>
-      <c r="F63" s="18">
+        <v>119</v>
+      </c>
+      <c r="F63" s="9">
         <v>45423</v>
       </c>
     </row>
@@ -3772,15 +3101,15 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="16">
+        <v>150</v>
+      </c>
+      <c r="D64" s="7">
         <v>3940</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" s="18">
+        <v>151</v>
+      </c>
+      <c r="F64" s="9">
         <v>45428</v>
       </c>
     </row>
@@ -3789,15 +3118,15 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="16">
+        <v>152</v>
+      </c>
+      <c r="D65" s="7">
         <v>5600</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
-      </c>
-      <c r="F65" s="18">
+        <v>126</v>
+      </c>
+      <c r="F65" s="9">
         <v>45435</v>
       </c>
     </row>
@@ -3806,15 +3135,15 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="16">
+        <v>153</v>
+      </c>
+      <c r="D66" s="7">
         <v>328</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
-      </c>
-      <c r="F66" s="18">
+        <v>126</v>
+      </c>
+      <c r="F66" s="9">
         <v>45435</v>
       </c>
     </row>
@@ -3823,15 +3152,15 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="16">
+        <v>154</v>
+      </c>
+      <c r="D67" s="7">
         <v>480</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
-      </c>
-      <c r="F67" s="18">
+        <v>126</v>
+      </c>
+      <c r="F67" s="9">
         <v>45435</v>
       </c>
     </row>
@@ -3840,15 +3169,15 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="16">
+        <v>155</v>
+      </c>
+      <c r="D68" s="7">
         <v>225</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
-      </c>
-      <c r="F68" s="18">
+        <v>126</v>
+      </c>
+      <c r="F68" s="9">
         <v>45435</v>
       </c>
     </row>
@@ -3857,15 +3186,15 @@
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" s="16">
+        <v>156</v>
+      </c>
+      <c r="D69" s="7">
         <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="18">
+        <v>126</v>
+      </c>
+      <c r="F69" s="9">
         <v>45435</v>
       </c>
     </row>
@@ -3874,28 +3203,28 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="16"/>
+        <v>157</v>
+      </c>
+      <c r="D70" s="7"/>
       <c r="E70" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="16">
+        <v>158</v>
+      </c>
+      <c r="D71" s="7">
         <v>892</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
-      </c>
-      <c r="F71" s="18">
+        <v>159</v>
+      </c>
+      <c r="F71" s="9">
         <v>45439</v>
       </c>
     </row>
@@ -3904,15 +3233,15 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="16">
+        <v>158</v>
+      </c>
+      <c r="D72" s="7">
         <v>531</v>
       </c>
       <c r="E72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F72" s="18">
+        <v>159</v>
+      </c>
+      <c r="F72" s="9">
         <v>45438</v>
       </c>
     </row>
@@ -3921,15 +3250,15 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="16">
+        <v>160</v>
+      </c>
+      <c r="D73" s="7">
         <v>43.8</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
-      </c>
-      <c r="F73" s="18">
+        <v>159</v>
+      </c>
+      <c r="F73" s="9">
         <v>45444</v>
       </c>
     </row>
@@ -3938,15 +3267,15 @@
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="16">
+        <v>161</v>
+      </c>
+      <c r="D74" s="7">
         <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
-      </c>
-      <c r="F74" s="18">
+        <v>159</v>
+      </c>
+      <c r="F74" s="9">
         <v>45444</v>
       </c>
     </row>
@@ -3955,15 +3284,15 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="16">
+        <v>162</v>
+      </c>
+      <c r="D75" s="7">
         <v>266.52</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
-      </c>
-      <c r="F75" s="18">
+        <v>159</v>
+      </c>
+      <c r="F75" s="9">
         <v>45444</v>
       </c>
     </row>
@@ -3972,15 +3301,15 @@
         <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="16">
+        <v>163</v>
+      </c>
+      <c r="D76" s="7">
         <v>21.53</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
-      </c>
-      <c r="F76" s="18">
+        <v>159</v>
+      </c>
+      <c r="F76" s="9">
         <v>45444</v>
       </c>
     </row>
@@ -3989,15 +3318,15 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="16">
+        <v>164</v>
+      </c>
+      <c r="D77" s="7">
         <v>20419</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" s="18">
+        <v>159</v>
+      </c>
+      <c r="F77" s="9">
         <v>45445</v>
       </c>
     </row>
@@ -4006,15 +3335,15 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" s="16">
+        <v>165</v>
+      </c>
+      <c r="D78" s="7">
         <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" s="18">
+        <v>168</v>
+      </c>
+      <c r="F78" s="9">
         <v>45451</v>
       </c>
     </row>
@@ -4023,15 +3352,15 @@
         <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
-      </c>
-      <c r="D79" s="16">
+        <v>166</v>
+      </c>
+      <c r="D79" s="7">
         <v>103</v>
       </c>
       <c r="E79" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" s="18">
+        <v>169</v>
+      </c>
+      <c r="F79" s="9">
         <v>45451</v>
       </c>
     </row>
@@ -4040,15 +3369,15 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" s="16">
+        <v>167</v>
+      </c>
+      <c r="D80" s="7">
         <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
-      </c>
-      <c r="F80" s="18">
+        <v>169</v>
+      </c>
+      <c r="F80" s="9">
         <v>45451</v>
       </c>
     </row>
@@ -4057,15 +3386,15 @@
         <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
-      </c>
-      <c r="D81" s="16">
+        <v>170</v>
+      </c>
+      <c r="D81" s="7">
         <v>2363</v>
       </c>
       <c r="E81" t="s">
-        <v>192</v>
-      </c>
-      <c r="F81" s="18">
+        <v>171</v>
+      </c>
+      <c r="F81" s="9">
         <v>45452</v>
       </c>
     </row>
@@ -4074,15 +3403,15 @@
         <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
-      </c>
-      <c r="D82" s="16">
+        <v>172</v>
+      </c>
+      <c r="D82" s="7">
         <v>61.66</v>
       </c>
       <c r="E82" t="s">
-        <v>194</v>
-      </c>
-      <c r="F82" s="18">
+        <v>173</v>
+      </c>
+      <c r="F82" s="9">
         <v>45459</v>
       </c>
     </row>
@@ -4091,15 +3420,15 @@
         <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="16">
+        <v>174</v>
+      </c>
+      <c r="D83" s="7">
         <v>48.35</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
-      </c>
-      <c r="F83" s="18">
+        <v>173</v>
+      </c>
+      <c r="F83" s="9">
         <v>45459</v>
       </c>
     </row>
@@ -4108,15 +3437,15 @@
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
-      </c>
-      <c r="D84" s="16">
+        <v>175</v>
+      </c>
+      <c r="D84" s="7">
         <v>279.57</v>
       </c>
       <c r="E84" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84" s="18">
+        <v>176</v>
+      </c>
+      <c r="F84" s="9">
         <v>45459</v>
       </c>
     </row>
@@ -4125,15 +3454,15 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="16">
+        <v>177</v>
+      </c>
+      <c r="D85" s="7">
         <v>54.66</v>
       </c>
       <c r="E85" t="s">
-        <v>194</v>
-      </c>
-      <c r="F85" s="18">
+        <v>173</v>
+      </c>
+      <c r="F85" s="9">
         <v>45459</v>
       </c>
     </row>
@@ -4142,15 +3471,15 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" s="16">
+        <v>178</v>
+      </c>
+      <c r="D86" s="7">
         <v>144.34</v>
       </c>
       <c r="E86" t="s">
-        <v>201</v>
-      </c>
-      <c r="F86" s="18">
+        <v>180</v>
+      </c>
+      <c r="F86" s="9">
         <v>45459</v>
       </c>
     </row>
@@ -4159,15 +3488,15 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="16">
+        <v>179</v>
+      </c>
+      <c r="D87" s="7">
         <v>332.12</v>
       </c>
       <c r="E87" t="s">
-        <v>202</v>
-      </c>
-      <c r="F87" s="18">
+        <v>181</v>
+      </c>
+      <c r="F87" s="9">
         <v>45459</v>
       </c>
     </row>
@@ -4176,15 +3505,15 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
-      </c>
-      <c r="D88" s="16">
+        <v>182</v>
+      </c>
+      <c r="D88" s="7">
         <v>3977</v>
       </c>
       <c r="E88" t="s">
-        <v>194</v>
-      </c>
-      <c r="F88" s="18">
+        <v>173</v>
+      </c>
+      <c r="F88" s="9">
         <v>45464</v>
       </c>
     </row>
@@ -4193,15 +3522,15 @@
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
-      </c>
-      <c r="D89" s="16">
+        <v>183</v>
+      </c>
+      <c r="D89" s="7">
         <v>800</v>
       </c>
       <c r="E89" t="s">
-        <v>194</v>
-      </c>
-      <c r="F89" s="18">
+        <v>173</v>
+      </c>
+      <c r="F89" s="9">
         <v>45464</v>
       </c>
     </row>
@@ -4210,15 +3539,15 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
-      </c>
-      <c r="D90" s="16">
+        <v>184</v>
+      </c>
+      <c r="D90" s="7">
         <v>165.9</v>
       </c>
       <c r="E90" t="s">
-        <v>194</v>
-      </c>
-      <c r="F90" s="18">
+        <v>173</v>
+      </c>
+      <c r="F90" s="9">
         <v>45462</v>
       </c>
     </row>
@@ -4227,15 +3556,15 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="16">
+        <v>185</v>
+      </c>
+      <c r="D91" s="7">
         <v>139.35</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
-      </c>
-      <c r="F91" s="18">
+        <v>173</v>
+      </c>
+      <c r="F91" s="9">
         <v>45462</v>
       </c>
     </row>
@@ -4244,15 +3573,15 @@
         <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="16">
+        <v>186</v>
+      </c>
+      <c r="D92" s="7">
         <v>251.38</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" s="18">
+        <v>173</v>
+      </c>
+      <c r="F92" s="9">
         <v>45462</v>
       </c>
     </row>
@@ -4261,15 +3590,15 @@
         <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
-      </c>
-      <c r="D93" s="16">
+        <v>187</v>
+      </c>
+      <c r="D93" s="7">
         <v>55.32</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
-      </c>
-      <c r="F93" s="18">
+        <v>173</v>
+      </c>
+      <c r="F93" s="9">
         <v>45462</v>
       </c>
     </row>
@@ -4278,15 +3607,15 @@
         <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
-      </c>
-      <c r="D94" s="16">
+        <v>188</v>
+      </c>
+      <c r="D94" s="7">
         <v>24000</v>
       </c>
       <c r="E94" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" s="18">
+        <v>189</v>
+      </c>
+      <c r="F94" s="9">
         <v>45462</v>
       </c>
     </row>
@@ -4295,15 +3624,15 @@
         <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
-      </c>
-      <c r="D95" s="16">
+        <v>190</v>
+      </c>
+      <c r="D95" s="7">
         <v>22.45</v>
       </c>
       <c r="E95" t="s">
-        <v>194</v>
-      </c>
-      <c r="F95" s="18">
+        <v>173</v>
+      </c>
+      <c r="F95" s="9">
         <v>45467</v>
       </c>
     </row>
@@ -4312,15 +3641,15 @@
         <v>92</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
-      </c>
-      <c r="D96" s="16">
+        <v>191</v>
+      </c>
+      <c r="D96" s="7">
         <v>34.369999999999997</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
-      </c>
-      <c r="F96" s="18">
+        <v>173</v>
+      </c>
+      <c r="F96" s="9">
         <v>45467</v>
       </c>
     </row>
@@ -4329,15 +3658,15 @@
         <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" s="16">
+        <v>192</v>
+      </c>
+      <c r="D97" s="7">
         <v>55.41</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
-      </c>
-      <c r="F97" s="18">
+        <v>173</v>
+      </c>
+      <c r="F97" s="9">
         <v>45467</v>
       </c>
     </row>
@@ -4346,15 +3675,15 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
-      </c>
-      <c r="D98" s="16">
+        <v>183</v>
+      </c>
+      <c r="D98" s="7">
         <v>1000</v>
       </c>
       <c r="E98" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="18">
+        <v>193</v>
+      </c>
+      <c r="F98" s="9">
         <v>45469</v>
       </c>
     </row>
@@ -4363,15 +3692,15 @@
         <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
-      </c>
-      <c r="D99" s="16">
+        <v>194</v>
+      </c>
+      <c r="D99" s="7">
         <v>3977</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
-      </c>
-      <c r="F99" s="18">
+        <v>173</v>
+      </c>
+      <c r="F99" s="9">
         <v>45464</v>
       </c>
     </row>
@@ -4380,15 +3709,15 @@
         <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100" s="16">
+        <v>195</v>
+      </c>
+      <c r="D100" s="7">
         <v>252000</v>
       </c>
       <c r="E100" t="s">
-        <v>217</v>
-      </c>
-      <c r="F100" s="18">
+        <v>196</v>
+      </c>
+      <c r="F100" s="9">
         <v>45469</v>
       </c>
     </row>
@@ -4397,15 +3726,15 @@
         <v>97</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="16">
+        <v>197</v>
+      </c>
+      <c r="D101" s="7">
         <v>5000</v>
       </c>
       <c r="E101" t="s">
-        <v>219</v>
-      </c>
-      <c r="F101" s="18">
+        <v>198</v>
+      </c>
+      <c r="F101" s="9">
         <v>45469</v>
       </c>
     </row>
@@ -4413,16 +3742,16 @@
       <c r="B102">
         <v>98</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="16">
+      <c r="C102" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="7">
         <v>10178</v>
       </c>
-      <c r="E102" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F102" s="18">
+      <c r="E102" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4430,16 +3759,16 @@
       <c r="B103">
         <v>99</v>
       </c>
-      <c r="C103" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D103" s="16">
+      <c r="C103" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" s="7">
         <v>2844</v>
       </c>
-      <c r="E103" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F103" s="18">
+      <c r="E103" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4447,16 +3776,16 @@
       <c r="B104">
         <v>100</v>
       </c>
-      <c r="C104" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D104" s="16">
+      <c r="C104" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="7">
         <v>2413</v>
       </c>
-      <c r="E104" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F104" s="18">
+      <c r="E104" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4464,16 +3793,16 @@
       <c r="B105">
         <v>101</v>
       </c>
-      <c r="C105" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D105" s="16">
+      <c r="C105" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" s="7">
         <v>1252</v>
       </c>
-      <c r="E105" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F105" s="18">
+      <c r="E105" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4481,16 +3810,16 @@
       <c r="B106">
         <v>102</v>
       </c>
-      <c r="C106" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D106" s="16">
+      <c r="C106" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106" s="7">
         <v>1104</v>
       </c>
-      <c r="E106" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F106" s="18">
+      <c r="E106" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4498,16 +3827,16 @@
       <c r="B107">
         <v>103</v>
       </c>
-      <c r="C107" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D107" s="16">
+      <c r="C107" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="7">
         <v>504</v>
       </c>
-      <c r="E107" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F107" s="18">
+      <c r="E107" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4515,16 +3844,16 @@
       <c r="B108">
         <v>104</v>
       </c>
-      <c r="C108" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D108" s="16">
+      <c r="C108" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" s="7">
         <v>308</v>
       </c>
-      <c r="E108" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F108" s="18">
+      <c r="E108" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4532,16 +3861,16 @@
       <c r="B109">
         <v>105</v>
       </c>
-      <c r="C109" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D109" s="16">
+      <c r="C109" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="7">
         <v>308</v>
       </c>
       <c r="E109" t="s">
-        <v>231</v>
-      </c>
-      <c r="F109" s="18">
+        <v>210</v>
+      </c>
+      <c r="F109" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4549,16 +3878,16 @@
       <c r="B110">
         <v>106</v>
       </c>
-      <c r="C110" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D110" s="16">
+      <c r="C110" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="7">
         <v>210</v>
       </c>
-      <c r="E110" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F110" s="18">
+      <c r="E110" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4566,16 +3895,16 @@
       <c r="B111">
         <v>107</v>
       </c>
-      <c r="C111" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" s="16">
+      <c r="C111" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" s="7">
         <v>170</v>
       </c>
-      <c r="E111" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F111" s="18">
+      <c r="E111" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4583,16 +3912,16 @@
       <c r="B112">
         <v>108</v>
       </c>
-      <c r="C112" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D112" s="16">
+      <c r="C112" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="7">
         <v>455</v>
       </c>
-      <c r="E112" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F112" s="18">
+      <c r="E112" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="9">
         <v>45476</v>
       </c>
     </row>
@@ -4600,16 +3929,16 @@
       <c r="B113">
         <v>109</v>
       </c>
-      <c r="C113" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D113" s="16">
+      <c r="C113" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" s="7">
         <v>3875</v>
       </c>
       <c r="E113" t="s">
-        <v>232</v>
-      </c>
-      <c r="F113" s="18">
+        <v>211</v>
+      </c>
+      <c r="F113" s="9">
         <v>45477</v>
       </c>
     </row>
@@ -4618,15 +3947,15 @@
         <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
-      </c>
-      <c r="D114" s="16">
+        <v>213</v>
+      </c>
+      <c r="D114" s="7">
         <v>800</v>
       </c>
       <c r="E114" t="s">
-        <v>232</v>
-      </c>
-      <c r="F114" s="18">
+        <v>211</v>
+      </c>
+      <c r="F114" s="9">
         <v>45477</v>
       </c>
     </row>
@@ -4634,16 +3963,16 @@
       <c r="B115">
         <v>111</v>
       </c>
-      <c r="C115" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" s="16">
+      <c r="C115" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="7">
         <v>2181</v>
       </c>
-      <c r="E115" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F115" s="18">
+      <c r="E115" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" s="9">
         <v>45480</v>
       </c>
     </row>
@@ -4651,16 +3980,16 @@
       <c r="B116">
         <v>112</v>
       </c>
-      <c r="C116" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D116" s="16">
+      <c r="C116" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" s="7">
         <v>308</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
-      </c>
-      <c r="F116" s="18">
+        <v>210</v>
+      </c>
+      <c r="F116" s="9">
         <v>45480</v>
       </c>
     </row>
@@ -4669,15 +3998,15 @@
         <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" s="16">
+        <v>215</v>
+      </c>
+      <c r="D117" s="7">
         <v>135</v>
       </c>
-      <c r="E117" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F117" s="18">
+      <c r="E117" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="9">
         <v>45480</v>
       </c>
     </row>
@@ -4686,15 +4015,15 @@
         <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
-      </c>
-      <c r="D118" s="16">
+        <v>216</v>
+      </c>
+      <c r="D118" s="7">
         <v>55</v>
       </c>
-      <c r="E118" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F118" s="18">
+      <c r="E118" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" s="9">
         <v>45480</v>
       </c>
     </row>
@@ -4703,15 +4032,15 @@
         <v>115</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="16">
+        <v>217</v>
+      </c>
+      <c r="D119" s="7">
         <v>50</v>
       </c>
-      <c r="E119" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F119" s="18">
+      <c r="E119" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F119" s="9">
         <v>45480</v>
       </c>
     </row>
@@ -4720,15 +4049,15 @@
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
-      </c>
-      <c r="D120" s="16">
+        <v>218</v>
+      </c>
+      <c r="D120" s="7">
         <v>92000</v>
       </c>
       <c r="E120" t="s">
-        <v>240</v>
-      </c>
-      <c r="F120" s="18">
+        <v>219</v>
+      </c>
+      <c r="F120" s="9">
         <v>45499</v>
       </c>
     </row>
@@ -4737,15 +4066,15 @@
         <v>117</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D121" s="16">
+        <v>223</v>
+      </c>
+      <c r="D121" s="7">
         <v>12211</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F121" s="18">
+      <c r="E121" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F121" s="9">
         <v>45496</v>
       </c>
     </row>
@@ -4754,15 +4083,15 @@
         <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
-      </c>
-      <c r="D122" s="16">
+        <v>220</v>
+      </c>
+      <c r="D122" s="7">
         <v>4042</v>
       </c>
-      <c r="E122" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F122" s="18">
+      <c r="E122" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F122" s="9">
         <v>45496</v>
       </c>
     </row>
@@ -4771,15 +4100,15 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
-      </c>
-      <c r="D123" s="16">
+        <v>222</v>
+      </c>
+      <c r="D123" s="7">
         <v>8400</v>
       </c>
-      <c r="E123" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F123" s="18">
+      <c r="E123" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" s="9">
         <v>45496</v>
       </c>
     </row>
@@ -4788,15 +4117,15 @@
         <v>120</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D124" s="16">
+        <v>221</v>
+      </c>
+      <c r="D124" s="7">
         <v>1090</v>
       </c>
-      <c r="E124" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F124" s="18">
+      <c r="E124" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" s="9">
         <v>45496</v>
       </c>
     </row>
@@ -4805,15 +4134,15 @@
         <v>121</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D125" s="16">
+        <v>224</v>
+      </c>
+      <c r="D125" s="7">
         <v>8388</v>
       </c>
-      <c r="E125" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F125" s="18">
+      <c r="E125" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F125" s="9">
         <v>45496</v>
       </c>
     </row>
@@ -4822,15 +4151,15 @@
         <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
-      </c>
-      <c r="D126" s="16">
+        <v>225</v>
+      </c>
+      <c r="D126" s="7">
         <v>288</v>
       </c>
-      <c r="E126" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F126" s="18">
+      <c r="E126" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F126" s="9">
         <v>45506</v>
       </c>
     </row>
@@ -4839,15 +4168,15 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>247</v>
-      </c>
-      <c r="D127" s="16">
+        <v>226</v>
+      </c>
+      <c r="D127" s="7">
         <v>352</v>
       </c>
-      <c r="E127" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F127" s="18">
+      <c r="E127" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" s="9">
         <v>45506</v>
       </c>
     </row>
@@ -4856,15 +4185,15 @@
         <v>124</v>
       </c>
       <c r="C128" t="s">
-        <v>248</v>
-      </c>
-      <c r="D128" s="16">
+        <v>227</v>
+      </c>
+      <c r="D128" s="7">
         <v>1541</v>
       </c>
-      <c r="E128" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F128" s="18">
+      <c r="E128" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F128" s="9">
         <v>45506</v>
       </c>
     </row>
@@ -4873,15 +4202,15 @@
         <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
-      </c>
-      <c r="D129" s="16">
+        <v>228</v>
+      </c>
+      <c r="D129" s="7">
         <v>318</v>
       </c>
-      <c r="E129" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F129" s="18">
+      <c r="E129" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129" s="9">
         <v>45506</v>
       </c>
     </row>
@@ -4890,15 +4219,15 @@
         <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>250</v>
-      </c>
-      <c r="D130" s="16">
+        <v>229</v>
+      </c>
+      <c r="D130" s="7">
         <v>15000</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
-      </c>
-      <c r="F130" s="18">
+        <v>230</v>
+      </c>
+      <c r="F130" s="9">
         <v>45509</v>
       </c>
     </row>
@@ -4907,15 +4236,15 @@
         <v>127</v>
       </c>
       <c r="C131" t="s">
-        <v>252</v>
-      </c>
-      <c r="D131" s="16">
+        <v>231</v>
+      </c>
+      <c r="D131" s="7">
         <v>2300</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
-      </c>
-      <c r="F131" s="18">
+        <v>232</v>
+      </c>
+      <c r="F131" s="9">
         <v>45518</v>
       </c>
     </row>
@@ -4924,15 +4253,15 @@
         <v>128</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D132" s="26">
+        <v>233</v>
+      </c>
+      <c r="D132" s="17">
         <v>5256.2</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
-      </c>
-      <c r="F132" s="18">
+        <v>234</v>
+      </c>
+      <c r="F132" s="9">
         <v>45524</v>
       </c>
     </row>
@@ -4941,15 +4270,15 @@
         <v>129</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D133" s="16">
+        <v>235</v>
+      </c>
+      <c r="D133" s="7">
         <v>5957.68</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
-      </c>
-      <c r="F133" s="18">
+        <v>236</v>
+      </c>
+      <c r="F133" s="9">
         <v>45524</v>
       </c>
     </row>
@@ -4958,15 +4287,15 @@
         <v>130</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D134" s="16">
+        <v>237</v>
+      </c>
+      <c r="D134" s="7">
         <v>1778.56</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
-      </c>
-      <c r="F134" s="18">
+        <v>238</v>
+      </c>
+      <c r="F134" s="9">
         <v>45524</v>
       </c>
     </row>
@@ -4975,15 +4304,15 @@
         <v>131</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D135" s="16">
+        <v>239</v>
+      </c>
+      <c r="D135" s="7">
         <v>68.56</v>
       </c>
       <c r="E135" t="s">
-        <v>180</v>
-      </c>
-      <c r="F135" s="18">
+        <v>159</v>
+      </c>
+      <c r="F135" s="9">
         <v>45524</v>
       </c>
     </row>
@@ -4992,15 +4321,15 @@
         <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
-      </c>
-      <c r="D136" s="16">
+        <v>240</v>
+      </c>
+      <c r="D136" s="7">
         <v>590</v>
       </c>
       <c r="E136" t="s">
-        <v>180</v>
-      </c>
-      <c r="F136" s="18">
+        <v>159</v>
+      </c>
+      <c r="F136" s="9">
         <v>45524</v>
       </c>
     </row>
@@ -5009,15 +4338,15 @@
         <v>133</v>
       </c>
       <c r="C137" t="s">
-        <v>262</v>
-      </c>
-      <c r="D137" s="16">
+        <v>241</v>
+      </c>
+      <c r="D137" s="7">
         <v>445</v>
       </c>
       <c r="E137" t="s">
-        <v>180</v>
-      </c>
-      <c r="F137" s="18">
+        <v>159</v>
+      </c>
+      <c r="F137" s="9">
         <v>45529</v>
       </c>
     </row>
@@ -5026,15 +4355,15 @@
         <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>263</v>
-      </c>
-      <c r="D138" s="16">
+        <v>242</v>
+      </c>
+      <c r="D138" s="7">
         <v>259</v>
       </c>
       <c r="E138" t="s">
-        <v>180</v>
-      </c>
-      <c r="F138" s="18">
+        <v>159</v>
+      </c>
+      <c r="F138" s="9">
         <v>45529</v>
       </c>
     </row>
@@ -5043,15 +4372,15 @@
         <v>135</v>
       </c>
       <c r="C139" t="s">
-        <v>264</v>
-      </c>
-      <c r="D139" s="16">
+        <v>243</v>
+      </c>
+      <c r="D139" s="7">
         <v>159</v>
       </c>
       <c r="E139" t="s">
-        <v>180</v>
-      </c>
-      <c r="F139" s="18">
+        <v>159</v>
+      </c>
+      <c r="F139" s="9">
         <v>45529</v>
       </c>
     </row>
@@ -5060,15 +4389,15 @@
         <v>136</v>
       </c>
       <c r="C140" t="s">
-        <v>265</v>
-      </c>
-      <c r="D140" s="16">
+        <v>244</v>
+      </c>
+      <c r="D140" s="7">
         <v>100</v>
       </c>
       <c r="E140" t="s">
-        <v>180</v>
-      </c>
-      <c r="F140" s="18">
+        <v>159</v>
+      </c>
+      <c r="F140" s="9">
         <v>45529</v>
       </c>
     </row>
@@ -5077,15 +4406,15 @@
         <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>266</v>
-      </c>
-      <c r="D141" s="16">
+        <v>245</v>
+      </c>
+      <c r="D141" s="7">
         <v>5580</v>
       </c>
       <c r="E141" t="s">
-        <v>180</v>
-      </c>
-      <c r="F141" s="18">
+        <v>159</v>
+      </c>
+      <c r="F141" s="9">
         <v>45546</v>
       </c>
     </row>
@@ -5094,15 +4423,15 @@
         <v>138</v>
       </c>
       <c r="C142" t="s">
-        <v>267</v>
-      </c>
-      <c r="D142" s="16">
+        <v>246</v>
+      </c>
+      <c r="D142" s="7">
         <v>2110</v>
       </c>
       <c r="E142" t="s">
-        <v>180</v>
-      </c>
-      <c r="F142" s="18">
+        <v>159</v>
+      </c>
+      <c r="F142" s="9">
         <v>45556</v>
       </c>
     </row>
@@ -5111,15 +4440,15 @@
         <v>139</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
-      </c>
-      <c r="D143" s="16">
+        <v>247</v>
+      </c>
+      <c r="D143" s="7">
         <v>54000</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
-      </c>
-      <c r="F143" s="18">
+        <v>248</v>
+      </c>
+      <c r="F143" s="9">
         <v>45556</v>
       </c>
     </row>
@@ -5128,15 +4457,15 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>270</v>
-      </c>
-      <c r="D144" s="16">
+        <v>249</v>
+      </c>
+      <c r="D144" s="7">
         <v>15000</v>
       </c>
       <c r="E144" t="s">
-        <v>272</v>
-      </c>
-      <c r="F144" s="18">
+        <v>251</v>
+      </c>
+      <c r="F144" s="9">
         <v>45563</v>
       </c>
     </row>
@@ -5145,15 +4474,15 @@
         <v>141</v>
       </c>
       <c r="C145" t="s">
-        <v>273</v>
-      </c>
-      <c r="D145" s="16">
+        <v>252</v>
+      </c>
+      <c r="D145" s="7">
         <v>1900</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
-      </c>
-      <c r="F145" s="18">
+        <v>250</v>
+      </c>
+      <c r="F145" s="9">
         <v>45563</v>
       </c>
     </row>
@@ -5162,15 +4491,15 @@
         <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
-      </c>
-      <c r="D146" s="16">
+        <v>247</v>
+      </c>
+      <c r="D146" s="7">
         <v>54000</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
-      </c>
-      <c r="F146" s="18">
+        <v>248</v>
+      </c>
+      <c r="F146" s="9">
         <v>45566</v>
       </c>
     </row>
@@ -5179,15 +4508,15 @@
         <v>143</v>
       </c>
       <c r="C147" t="s">
-        <v>270</v>
-      </c>
-      <c r="D147" s="16">
+        <v>249</v>
+      </c>
+      <c r="D147" s="7">
         <v>10000</v>
       </c>
       <c r="E147" t="s">
-        <v>272</v>
-      </c>
-      <c r="F147" s="18">
+        <v>251</v>
+      </c>
+      <c r="F147" s="9">
         <v>45570</v>
       </c>
     </row>
@@ -5196,15 +4525,15 @@
         <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>273</v>
-      </c>
-      <c r="D148" s="16">
+        <v>252</v>
+      </c>
+      <c r="D148" s="7">
         <v>1900</v>
       </c>
       <c r="E148" t="s">
-        <v>271</v>
-      </c>
-      <c r="F148" s="18">
+        <v>250</v>
+      </c>
+      <c r="F148" s="9">
         <v>45571</v>
       </c>
     </row>
@@ -5213,15 +4542,15 @@
         <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>274</v>
-      </c>
-      <c r="D149" s="16">
+        <v>253</v>
+      </c>
+      <c r="D149" s="7">
         <v>3900</v>
       </c>
       <c r="E149" t="s">
-        <v>194</v>
-      </c>
-      <c r="F149" s="18">
+        <v>173</v>
+      </c>
+      <c r="F149" s="9">
         <v>45573</v>
       </c>
     </row>
@@ -5230,12 +4559,12 @@
         <v>146</v>
       </c>
       <c r="C150" t="s">
-        <v>275</v>
-      </c>
-      <c r="D150" s="16">
+        <v>254</v>
+      </c>
+      <c r="D150" s="7">
         <v>106400</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="9">
         <v>45573</v>
       </c>
     </row>
@@ -5244,12 +4573,12 @@
         <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>276</v>
-      </c>
-      <c r="D151" s="16">
+        <v>255</v>
+      </c>
+      <c r="D151" s="7">
         <v>13000</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="9">
         <v>45573</v>
       </c>
     </row>
@@ -5258,15 +4587,15 @@
         <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>277</v>
-      </c>
-      <c r="D152" s="16">
+        <v>256</v>
+      </c>
+      <c r="D152" s="7">
         <v>1723.22</v>
       </c>
       <c r="E152" t="s">
-        <v>194</v>
-      </c>
-      <c r="F152" s="18">
+        <v>173</v>
+      </c>
+      <c r="F152" s="9">
         <v>45582</v>
       </c>
     </row>
@@ -5275,15 +4604,15 @@
         <v>149</v>
       </c>
       <c r="C153" t="s">
-        <v>278</v>
-      </c>
-      <c r="D153" s="16">
+        <v>257</v>
+      </c>
+      <c r="D153" s="7">
         <v>267.39</v>
       </c>
       <c r="E153" t="s">
-        <v>279</v>
-      </c>
-      <c r="F153" s="18">
+        <v>258</v>
+      </c>
+      <c r="F153" s="9">
         <v>45582</v>
       </c>
     </row>
@@ -5292,15 +4621,15 @@
         <v>150</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
-      </c>
-      <c r="D154" s="16">
+        <v>243</v>
+      </c>
+      <c r="D154" s="7">
         <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>280</v>
-      </c>
-      <c r="F154" s="18">
+        <v>259</v>
+      </c>
+      <c r="F154" s="9">
         <v>45582</v>
       </c>
     </row>
@@ -5309,15 +4638,15 @@
         <v>151</v>
       </c>
       <c r="C155" t="s">
-        <v>282</v>
-      </c>
-      <c r="D155" s="16">
+        <v>261</v>
+      </c>
+      <c r="D155" s="7">
         <v>254000</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
-      </c>
-      <c r="F155" s="18">
+        <v>260</v>
+      </c>
+      <c r="F155" s="9">
         <v>45584</v>
       </c>
     </row>
@@ -5326,15 +4655,15 @@
         <v>152</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
-      </c>
-      <c r="D156" s="16">
+        <v>262</v>
+      </c>
+      <c r="D156" s="7">
         <v>2900</v>
       </c>
       <c r="E156" t="s">
-        <v>284</v>
-      </c>
-      <c r="F156" s="18">
+        <v>263</v>
+      </c>
+      <c r="F156" s="9">
         <v>45584</v>
       </c>
     </row>
@@ -5343,15 +4672,15 @@
         <v>153</v>
       </c>
       <c r="C157" t="s">
-        <v>285</v>
-      </c>
-      <c r="D157" s="16">
+        <v>264</v>
+      </c>
+      <c r="D157" s="7">
         <v>2396</v>
       </c>
       <c r="E157" t="s">
-        <v>286</v>
-      </c>
-      <c r="F157" s="18">
+        <v>265</v>
+      </c>
+      <c r="F157" s="9">
         <v>45599</v>
       </c>
     </row>
@@ -5360,15 +4689,15 @@
         <v>154</v>
       </c>
       <c r="C158" t="s">
-        <v>292</v>
-      </c>
-      <c r="D158" s="16">
+        <v>271</v>
+      </c>
+      <c r="D158" s="7">
         <v>482016</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
-      </c>
-      <c r="F158" s="18">
+        <v>272</v>
+      </c>
+      <c r="F158" s="9">
         <v>45652</v>
       </c>
     </row>
@@ -5376,16 +4705,16 @@
       <c r="B159">
         <v>155</v>
       </c>
-      <c r="C159" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D159" s="16">
+      <c r="C159" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D159" s="7">
         <v>564.75</v>
       </c>
       <c r="E159" t="s">
-        <v>194</v>
-      </c>
-      <c r="F159" s="29">
+        <v>173</v>
+      </c>
+      <c r="F159" s="20">
         <v>45675</v>
       </c>
     </row>
@@ -5393,16 +4722,16 @@
       <c r="B160">
         <v>156</v>
       </c>
-      <c r="C160" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D160" s="16">
+      <c r="C160" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D160" s="7">
         <v>1216.25</v>
       </c>
       <c r="E160" t="s">
-        <v>194</v>
-      </c>
-      <c r="F160" s="29">
+        <v>173</v>
+      </c>
+      <c r="F160" s="20">
         <v>45675</v>
       </c>
     </row>
@@ -5410,16 +4739,16 @@
       <c r="B161">
         <v>157</v>
       </c>
-      <c r="C161" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D161" s="28">
+      <c r="C161" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D161" s="19">
         <v>1890</v>
       </c>
       <c r="E161" t="s">
-        <v>194</v>
-      </c>
-      <c r="F161" s="29">
+        <v>173</v>
+      </c>
+      <c r="F161" s="20">
         <v>45662</v>
       </c>
     </row>
@@ -5428,12 +4757,12 @@
         <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>297</v>
-      </c>
-      <c r="D162" s="16">
+        <v>276</v>
+      </c>
+      <c r="D162" s="7">
         <v>1098</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="9">
         <v>45667</v>
       </c>
     </row>
@@ -5442,12 +4771,12 @@
         <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>298</v>
-      </c>
-      <c r="D163" s="16">
+        <v>277</v>
+      </c>
+      <c r="D163" s="7">
         <v>1075</v>
       </c>
-      <c r="F163" s="18">
+      <c r="F163" s="9">
         <v>45667</v>
       </c>
     </row>
@@ -5456,15 +4785,15 @@
         <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>299</v>
-      </c>
-      <c r="D164" s="16">
+        <v>278</v>
+      </c>
+      <c r="D164" s="7">
         <v>146000</v>
       </c>
       <c r="E164" t="s">
-        <v>300</v>
-      </c>
-      <c r="F164" s="18">
+        <v>279</v>
+      </c>
+      <c r="F164" s="9">
         <v>45696</v>
       </c>
     </row>
@@ -5473,15 +4802,15 @@
         <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>367</v>
-      </c>
-      <c r="D165" s="16">
+        <v>283</v>
+      </c>
+      <c r="D165" s="7">
         <v>900</v>
       </c>
       <c r="E165" t="s">
-        <v>366</v>
-      </c>
-      <c r="F165" s="18">
+        <v>282</v>
+      </c>
+      <c r="F165" s="9">
         <v>45724</v>
       </c>
     </row>
@@ -5490,15 +4819,15 @@
         <v>162</v>
       </c>
       <c r="C166" t="s">
-        <v>369</v>
-      </c>
-      <c r="D166" s="16">
+        <v>285</v>
+      </c>
+      <c r="D166" s="7">
         <v>109</v>
       </c>
       <c r="E166" t="s">
-        <v>194</v>
-      </c>
-      <c r="F166" s="18">
+        <v>173</v>
+      </c>
+      <c r="F166" s="9">
         <v>45725</v>
       </c>
     </row>
@@ -5507,15 +4836,15 @@
         <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>368</v>
-      </c>
-      <c r="D167" s="16">
+        <v>284</v>
+      </c>
+      <c r="D167" s="7">
         <v>279</v>
       </c>
       <c r="E167" t="s">
-        <v>194</v>
-      </c>
-      <c r="F167" s="18">
+        <v>173</v>
+      </c>
+      <c r="F167" s="9">
         <v>45725</v>
       </c>
     </row>
@@ -5524,15 +4853,15 @@
         <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>370</v>
-      </c>
-      <c r="D168" s="16">
+        <v>286</v>
+      </c>
+      <c r="D168" s="7">
         <v>599</v>
       </c>
       <c r="E168" t="s">
-        <v>194</v>
-      </c>
-      <c r="F168" s="18">
+        <v>173</v>
+      </c>
+      <c r="F168" s="9">
         <v>45725</v>
       </c>
     </row>
@@ -5541,15 +4870,15 @@
         <v>165</v>
       </c>
       <c r="C169" t="s">
-        <v>371</v>
-      </c>
-      <c r="D169" s="16">
+        <v>287</v>
+      </c>
+      <c r="D169" s="7">
         <v>599</v>
       </c>
       <c r="E169" t="s">
-        <v>194</v>
-      </c>
-      <c r="F169" s="18">
+        <v>173</v>
+      </c>
+      <c r="F169" s="9">
         <v>45725</v>
       </c>
     </row>
@@ -5557,16 +4886,16 @@
       <c r="B170">
         <v>166</v>
       </c>
-      <c r="C170" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="D170" s="16">
+      <c r="C170" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D170" s="7">
         <v>112</v>
       </c>
       <c r="E170" t="s">
-        <v>375</v>
-      </c>
-      <c r="F170" s="18">
+        <v>291</v>
+      </c>
+      <c r="F170" s="9">
         <v>45731</v>
       </c>
     </row>
@@ -5574,16 +4903,16 @@
       <c r="B171">
         <v>167</v>
       </c>
-      <c r="C171" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="D171" s="16">
+      <c r="C171" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D171" s="7">
         <v>98</v>
       </c>
       <c r="E171" t="s">
-        <v>376</v>
-      </c>
-      <c r="F171" s="18">
+        <v>292</v>
+      </c>
+      <c r="F171" s="9">
         <v>45731</v>
       </c>
     </row>
@@ -5591,16 +4920,16 @@
       <c r="B172">
         <v>168</v>
       </c>
-      <c r="C172" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="D172" s="16">
+      <c r="C172" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D172" s="7">
         <v>499</v>
       </c>
       <c r="E172" t="s">
-        <v>194</v>
-      </c>
-      <c r="F172" s="18">
+        <v>173</v>
+      </c>
+      <c r="F172" s="9">
         <v>45731</v>
       </c>
     </row>
@@ -5609,15 +4938,15 @@
         <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>377</v>
-      </c>
-      <c r="D173" s="16">
+        <v>293</v>
+      </c>
+      <c r="D173" s="7">
         <v>889</v>
       </c>
       <c r="E173" t="s">
-        <v>194</v>
-      </c>
-      <c r="F173" s="18">
+        <v>173</v>
+      </c>
+      <c r="F173" s="9">
         <v>45732</v>
       </c>
     </row>
@@ -5626,15 +4955,15 @@
         <v>170</v>
       </c>
       <c r="C174" t="s">
-        <v>381</v>
-      </c>
-      <c r="D174" s="16">
+        <v>297</v>
+      </c>
+      <c r="D174" s="7">
         <v>109</v>
       </c>
       <c r="E174" t="s">
-        <v>194</v>
-      </c>
-      <c r="F174" s="18">
+        <v>173</v>
+      </c>
+      <c r="F174" s="9">
         <v>45732</v>
       </c>
     </row>
@@ -5643,15 +4972,15 @@
         <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>378</v>
-      </c>
-      <c r="D175" s="16">
+        <v>294</v>
+      </c>
+      <c r="D175" s="7">
         <v>169</v>
       </c>
       <c r="E175" t="s">
-        <v>194</v>
-      </c>
-      <c r="F175" s="18">
+        <v>173</v>
+      </c>
+      <c r="F175" s="9">
         <v>45732</v>
       </c>
     </row>
@@ -5660,15 +4989,15 @@
         <v>172</v>
       </c>
       <c r="C176" t="s">
-        <v>146</v>
-      </c>
-      <c r="D176" s="16">
+        <v>125</v>
+      </c>
+      <c r="D176" s="7">
         <v>159</v>
       </c>
       <c r="E176" t="s">
-        <v>194</v>
-      </c>
-      <c r="F176" s="18">
+        <v>173</v>
+      </c>
+      <c r="F176" s="9">
         <v>45732</v>
       </c>
     </row>
@@ -5677,15 +5006,15 @@
         <v>173</v>
       </c>
       <c r="C177" t="s">
-        <v>379</v>
-      </c>
-      <c r="D177" s="16">
+        <v>295</v>
+      </c>
+      <c r="D177" s="7">
         <v>69</v>
       </c>
       <c r="E177" t="s">
-        <v>194</v>
-      </c>
-      <c r="F177" s="18">
+        <v>173</v>
+      </c>
+      <c r="F177" s="9">
         <v>45732</v>
       </c>
     </row>
@@ -5694,15 +5023,15 @@
         <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
-      </c>
-      <c r="D178" s="16">
+        <v>296</v>
+      </c>
+      <c r="D178" s="7">
         <v>59</v>
       </c>
       <c r="E178" t="s">
-        <v>194</v>
-      </c>
-      <c r="F178" s="18">
+        <v>173</v>
+      </c>
+      <c r="F178" s="9">
         <v>45732</v>
       </c>
     </row>
@@ -5711,15 +5040,15 @@
         <v>175</v>
       </c>
       <c r="C179" t="s">
-        <v>382</v>
-      </c>
-      <c r="D179" s="16">
+        <v>298</v>
+      </c>
+      <c r="D179" s="7">
         <v>69</v>
       </c>
       <c r="E179" t="s">
-        <v>194</v>
-      </c>
-      <c r="F179" s="18">
+        <v>173</v>
+      </c>
+      <c r="F179" s="9">
         <v>45732</v>
       </c>
     </row>
@@ -5728,15 +5057,15 @@
         <v>176</v>
       </c>
       <c r="C180" t="s">
-        <v>383</v>
-      </c>
-      <c r="D180" s="16">
+        <v>299</v>
+      </c>
+      <c r="D180" s="7">
         <v>12000</v>
       </c>
       <c r="E180" t="s">
-        <v>194</v>
-      </c>
-      <c r="F180" s="18">
+        <v>173</v>
+      </c>
+      <c r="F180" s="9">
         <v>45738</v>
       </c>
     </row>
@@ -5745,15 +5074,15 @@
         <v>177</v>
       </c>
       <c r="C181" t="s">
-        <v>384</v>
-      </c>
-      <c r="D181" s="16">
+        <v>300</v>
+      </c>
+      <c r="D181" s="7">
         <v>3791.3</v>
       </c>
       <c r="E181" t="s">
-        <v>385</v>
-      </c>
-      <c r="F181" s="18">
+        <v>301</v>
+      </c>
+      <c r="F181" s="9">
         <v>45738</v>
       </c>
     </row>
@@ -5762,15 +5091,15 @@
         <v>178</v>
       </c>
       <c r="C182" t="s">
-        <v>387</v>
-      </c>
-      <c r="D182" s="16">
+        <v>303</v>
+      </c>
+      <c r="D182" s="7">
         <v>3445.74</v>
       </c>
       <c r="E182" t="s">
-        <v>388</v>
-      </c>
-      <c r="F182" s="18">
+        <v>304</v>
+      </c>
+      <c r="F182" s="9">
         <v>45738</v>
       </c>
     </row>
@@ -5779,15 +5108,15 @@
         <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
-      </c>
-      <c r="D183" s="16">
+        <v>305</v>
+      </c>
+      <c r="D183" s="7">
         <v>5919.96</v>
       </c>
       <c r="E183" t="s">
-        <v>390</v>
-      </c>
-      <c r="F183" s="18">
+        <v>306</v>
+      </c>
+      <c r="F183" s="9">
         <v>45738</v>
       </c>
     </row>
@@ -5796,15 +5125,15 @@
         <v>180</v>
       </c>
       <c r="C184" t="s">
-        <v>386</v>
-      </c>
-      <c r="D184" s="16">
+        <v>302</v>
+      </c>
+      <c r="D184" s="7">
         <v>690</v>
       </c>
       <c r="E184" t="s">
-        <v>194</v>
-      </c>
-      <c r="F184" s="18">
+        <v>173</v>
+      </c>
+      <c r="F184" s="9">
         <v>45738</v>
       </c>
     </row>
@@ -5813,72 +5142,72 @@
         <v>181</v>
       </c>
       <c r="C185" t="s">
-        <v>391</v>
-      </c>
-      <c r="D185" s="16">
+        <v>307</v>
+      </c>
+      <c r="D185" s="7">
         <v>600</v>
       </c>
       <c r="E185" t="s">
-        <v>253</v>
-      </c>
-      <c r="F185" s="18">
+        <v>232</v>
+      </c>
+      <c r="F185" s="9">
         <v>45739</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D186" s="16"/>
-      <c r="F186" s="18"/>
+      <c r="D186" s="7"/>
+      <c r="F186" s="9"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D187" s="16"/>
-      <c r="F187" s="18"/>
+      <c r="D187" s="7"/>
+      <c r="F187" s="9"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D188" s="16"/>
-      <c r="F188" s="18"/>
+      <c r="D188" s="7"/>
+      <c r="F188" s="9"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D189" s="16"/>
-      <c r="F189" s="18"/>
+      <c r="D189" s="7"/>
+      <c r="F189" s="9"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D190" s="16"/>
-      <c r="F190" s="18"/>
+      <c r="D190" s="7"/>
+      <c r="F190" s="9"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D191" s="16"/>
-      <c r="F191" s="18"/>
+      <c r="D191" s="7"/>
+      <c r="F191" s="9"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D192" s="16"/>
-      <c r="F192" s="18"/>
+      <c r="D192" s="7"/>
+      <c r="F192" s="9"/>
     </row>
     <row r="193" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D193" s="16"/>
-      <c r="F193" s="18"/>
+      <c r="D193" s="7"/>
+      <c r="F193" s="9"/>
     </row>
     <row r="194" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D194" s="16"/>
-      <c r="F194" s="18"/>
+      <c r="D194" s="7"/>
+      <c r="F194" s="9"/>
     </row>
     <row r="195" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D195" s="16"/>
-      <c r="F195" s="18"/>
+      <c r="D195" s="7"/>
+      <c r="F195" s="9"/>
     </row>
     <row r="196" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D196" s="16"/>
-      <c r="F196" s="18"/>
+      <c r="D196" s="7"/>
+      <c r="F196" s="9"/>
     </row>
     <row r="197" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D197" s="16"/>
-      <c r="F197" s="18"/>
+      <c r="D197" s="7"/>
+      <c r="F197" s="9"/>
     </row>
     <row r="198" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D198" s="16">
+      <c r="D198" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
         <v>3292655.43</v>
       </c>
-      <c r="F198" s="18"/>
+      <c r="F198" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5898,12 +5227,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,8 +5246,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
-        <v>39</v>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5926,19 +5255,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5946,20 +5275,20 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="3">
         <v>7000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>315000</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5967,20 +5296,20 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>15.3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="3">
         <v>7000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>107100</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5988,20 +5317,20 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="3">
         <v>8000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>64000</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6009,20 +5338,20 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>137</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="3">
         <v>680</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>93160</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6030,20 +5359,20 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="3">
         <v>435</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>5220</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6051,34 +5380,34 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>5.4</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6086,10 +5415,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6099,10 +5428,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6112,10 +5441,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6125,10 +5454,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6138,10 +5467,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6151,10 +5480,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6164,10 +5493,10 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6177,10 +5506,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6190,13 +5519,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>27</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6206,13 +5535,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>12.6</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6222,10 +5551,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6234,11 +5563,11 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6247,11 +5576,11 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
@@ -6261,40 +5590,40 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="11"/>
-      <c r="E26" s="11">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <f>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
         <f>SUM(E5:E27)</f>
         <v>584480</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6308,12 +5637,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6328,324 +5657,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="20" t="s">
-        <v>394</v>
+      <c r="A1" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>287</v>
+      <c r="B2" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="33">
+        <v>308</v>
+      </c>
+      <c r="B4" s="23">
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F4" s="33">
+        <v>308</v>
+      </c>
+      <c r="F4" s="23">
         <v>375</v>
       </c>
       <c r="G4" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B5" s="33">
+        <v>318</v>
+      </c>
+      <c r="B5" s="23">
         <v>1500</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="33">
+        <v>312</v>
+      </c>
+      <c r="F5" s="23">
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="33">
+        <v>319</v>
+      </c>
+      <c r="B6" s="23">
         <v>2125</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="33">
+        <v>313</v>
+      </c>
+      <c r="F6" s="23">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" s="33">
+        <v>320</v>
+      </c>
+      <c r="B7" s="23">
         <v>3100</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="33">
+        <v>314</v>
+      </c>
+      <c r="F7" s="23">
         <v>3100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>405</v>
-      </c>
-      <c r="B8" s="33">
+        <v>321</v>
+      </c>
+      <c r="B8" s="23">
         <v>4525</v>
       </c>
       <c r="C8" t="s">
-        <v>409</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="33">
+        <v>315</v>
+      </c>
+      <c r="F8" s="23">
         <v>4450</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B9" s="33">
+        <v>308</v>
+      </c>
+      <c r="B9" s="23">
         <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F9" s="33">
+        <v>316</v>
+      </c>
+      <c r="F9" s="23">
         <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B10" s="34">
+      <c r="A10" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="24">
         <f>SUM(B4:B9)</f>
         <v>11850</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E10" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="24">
         <f>SUM(F4:F9)</f>
         <v>11850</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="33"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="20" t="s">
-        <v>420</v>
+      <c r="C12" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="11" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="33"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>411</v>
+      <c r="B14" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B16" s="33">
+        <v>308</v>
+      </c>
+      <c r="B16" s="23">
         <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
-        <v>392</v>
-      </c>
-      <c r="F16" s="33">
+        <v>308</v>
+      </c>
+      <c r="F16" s="23">
         <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="33">
+      <c r="A17" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="23">
         <v>3175</v>
       </c>
       <c r="C17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="F17" s="33">
+        <v>337</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="23">
         <v>3100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="B18" s="33">
+      <c r="A18" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="23">
         <v>1700</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="F18" s="33">
+      <c r="E18" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="23">
         <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="B19" s="33">
+      <c r="A19" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="23">
         <v>1625</v>
       </c>
       <c r="C19" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="F19" s="33">
+        <v>338</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="23">
         <v>1700</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="B20" s="33">
+      <c r="A20" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="23">
         <v>5900</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="33">
+        <v>339</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="23">
         <v>5750</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>392</v>
-      </c>
-      <c r="B21" s="33">
+        <v>308</v>
+      </c>
+      <c r="B21" s="23">
         <v>300</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" s="33">
+        <v>316</v>
+      </c>
+      <c r="F21" s="23">
         <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B22" s="34">
+      <c r="A22" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="24">
         <f>SUM(B16:B21)</f>
         <v>13000</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="E22" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="24">
         <f>SUM(F16:F21)</f>
         <v>13000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="36" t="s">
-        <v>425</v>
+      <c r="C25" s="26" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6660,613 +5989,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="50.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="51.5703125" customWidth="1"/>
+    <col min="9" max="9" width="48.7109375" customWidth="1"/>
     <col min="10" max="10" width="58.140625" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="47.85546875" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="34" t="s">
-        <v>424</v>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="32" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>302</v>
+      <c r="B2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>428</v>
+        <v>343</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>428</v>
+        <v>343</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>426</v>
+      <c r="A4" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="33">
+        <v>345</v>
+      </c>
+      <c r="C4" s="23">
         <v>160</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="F4" t="s">
-        <v>426</v>
+      <c r="D4" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H4" s="33">
+        <v>345</v>
+      </c>
+      <c r="H4" s="23">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" s="41">
+        <v>346</v>
+      </c>
+      <c r="C5" s="31">
         <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>430</v>
-      </c>
-      <c r="H5" s="37">
+        <v>346</v>
+      </c>
+      <c r="H5" s="27">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="37">
+        <v>347</v>
+      </c>
+      <c r="C6" s="27">
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>431</v>
-      </c>
-      <c r="H6" s="37">
+        <v>347</v>
+      </c>
+      <c r="H6" s="27">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="38">
+        <v>348</v>
+      </c>
+      <c r="C7" s="28">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="G7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H7" s="38">
+        <v>348</v>
+      </c>
+      <c r="H7" s="28">
         <v>20</v>
       </c>
-      <c r="I7" s="39" t="s">
-        <v>435</v>
+      <c r="I7" s="29" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="33">
+        <v>356</v>
+      </c>
+      <c r="C8" s="24">
         <v>3030</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c r="G8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H8" s="33">
+        <v>354</v>
+      </c>
+      <c r="H8" s="23">
         <v>2800</v>
       </c>
-      <c r="I8" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="33"/>
+      <c r="G9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="24">
+        <f>SUM(H5:H8)</f>
+        <v>3030</v>
+      </c>
+      <c r="I9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="33"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="F11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="F12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="F13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="F15" s="40"/>
-      <c r="K15" s="33"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="F15" s="30"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="K18">
-        <f>SUM(F16:F18)</f>
-        <v>0</v>
-      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="K19" s="31">
-        <f>F19+K18</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>303</v>
-      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="K20" s="32">
-        <v>3030</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" t="s">
-        <v>305</v>
-      </c>
-      <c r="H26" t="s">
-        <v>306</v>
-      </c>
-      <c r="I26" t="s">
-        <v>307</v>
-      </c>
-      <c r="J26" t="s">
-        <v>308</v>
-      </c>
-      <c r="K26" t="s">
-        <v>309</v>
-      </c>
-      <c r="L26" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" t="s">
-        <v>313</v>
-      </c>
-      <c r="J27" t="s">
-        <v>314</v>
-      </c>
-      <c r="K27" t="s">
-        <v>315</v>
-      </c>
-      <c r="L27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G28" t="s">
-        <v>312</v>
-      </c>
-      <c r="H28" t="s">
-        <v>313</v>
-      </c>
-      <c r="J28" t="s">
-        <v>318</v>
-      </c>
-      <c r="K28" t="s">
-        <v>319</v>
-      </c>
-      <c r="L28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
-        <v>320</v>
-      </c>
-      <c r="G29" t="s">
-        <v>321</v>
-      </c>
-      <c r="H29" t="s">
-        <v>322</v>
-      </c>
-      <c r="J29" t="s">
-        <v>318</v>
-      </c>
-      <c r="K29" t="s">
-        <v>323</v>
-      </c>
-      <c r="L29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>325</v>
-      </c>
-      <c r="G30" t="s">
-        <v>312</v>
-      </c>
-      <c r="H30" t="s">
-        <v>313</v>
-      </c>
-      <c r="J30" t="s">
-        <v>315</v>
-      </c>
-      <c r="K30" t="s">
-        <v>326</v>
-      </c>
-      <c r="L30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G31" t="s">
-        <v>312</v>
-      </c>
-      <c r="H31" t="s">
-        <v>328</v>
-      </c>
-      <c r="J31" t="s">
-        <v>315</v>
-      </c>
-      <c r="K31" t="s">
-        <v>329</v>
-      </c>
-      <c r="L31" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>330</v>
-      </c>
-      <c r="G32" t="s">
-        <v>331</v>
-      </c>
-      <c r="H32" t="s">
-        <v>313</v>
-      </c>
-      <c r="J32" t="s">
-        <v>332</v>
-      </c>
-      <c r="K32" t="s">
-        <v>333</v>
-      </c>
-      <c r="L32" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>334</v>
-      </c>
-      <c r="G33" t="s">
-        <v>312</v>
-      </c>
-      <c r="H33" t="s">
-        <v>313</v>
-      </c>
-      <c r="J33" t="s">
-        <v>332</v>
-      </c>
-      <c r="K33" t="s">
-        <v>335</v>
-      </c>
-      <c r="L33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>336</v>
-      </c>
-      <c r="G34" t="s">
-        <v>312</v>
-      </c>
-      <c r="H34" t="s">
-        <v>313</v>
-      </c>
-      <c r="J34" t="s">
-        <v>332</v>
-      </c>
-      <c r="K34" t="s">
-        <v>337</v>
-      </c>
-      <c r="L34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>338</v>
-      </c>
-      <c r="G35" t="s">
-        <v>312</v>
-      </c>
-      <c r="H35" t="s">
-        <v>328</v>
-      </c>
-      <c r="J35" t="s">
-        <v>339</v>
-      </c>
-      <c r="K35" t="s">
-        <v>340</v>
-      </c>
-      <c r="L35" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>341</v>
-      </c>
-      <c r="G36" t="s">
-        <v>321</v>
-      </c>
-      <c r="H36" t="s">
-        <v>342</v>
-      </c>
-      <c r="J36" t="s">
-        <v>343</v>
-      </c>
-      <c r="K36" t="s">
-        <v>344</v>
-      </c>
-      <c r="L36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>345</v>
-      </c>
-      <c r="G37" t="s">
-        <v>321</v>
-      </c>
-      <c r="H37" t="s">
-        <v>328</v>
-      </c>
-      <c r="J37" t="s">
-        <v>346</v>
-      </c>
-      <c r="K37" t="s">
-        <v>347</v>
-      </c>
-      <c r="L37" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>348</v>
-      </c>
-      <c r="G38" t="s">
-        <v>321</v>
-      </c>
-      <c r="H38" t="s">
-        <v>328</v>
-      </c>
-      <c r="J38" t="s">
-        <v>349</v>
-      </c>
-      <c r="K38" t="s">
-        <v>350</v>
-      </c>
-      <c r="L38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>351</v>
-      </c>
-      <c r="G39" t="s">
-        <v>321</v>
-      </c>
-      <c r="H39" t="s">
-        <v>328</v>
-      </c>
-      <c r="J39" t="s">
-        <v>349</v>
-      </c>
-      <c r="K39" t="s">
-        <v>352</v>
-      </c>
-      <c r="L39" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>353</v>
-      </c>
-      <c r="G40" t="s">
-        <v>321</v>
-      </c>
-      <c r="H40" t="s">
-        <v>328</v>
-      </c>
-      <c r="J40" t="s">
-        <v>354</v>
-      </c>
-      <c r="K40" t="s">
-        <v>355</v>
-      </c>
-      <c r="L40" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" t="s">
-        <v>321</v>
-      </c>
-      <c r="H41" t="s">
-        <v>357</v>
-      </c>
-      <c r="J41" t="s">
-        <v>358</v>
-      </c>
-      <c r="K41" t="s">
-        <v>359</v>
-      </c>
-      <c r="L41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>360</v>
-      </c>
-      <c r="G42" t="s">
-        <v>321</v>
-      </c>
-      <c r="H42" t="s">
-        <v>357</v>
-      </c>
-      <c r="J42" t="s">
-        <v>361</v>
-      </c>
-      <c r="K42" t="s">
-        <v>362</v>
-      </c>
-      <c r="L42" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>363</v>
-      </c>
-      <c r="G43" t="s">
-        <v>321</v>
-      </c>
-      <c r="H43" t="s">
-        <v>357</v>
-      </c>
-      <c r="L43" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>364</v>
-      </c>
-      <c r="G44" t="s">
-        <v>312</v>
-      </c>
-      <c r="H44" t="s">
-        <v>313</v>
-      </c>
-      <c r="J44" t="s">
-        <v>365</v>
-      </c>
-      <c r="K44" t="s">
-        <v>315</v>
-      </c>
-      <c r="L44" t="s">
-        <v>316</v>
-      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
     <sheet name="Покупки" sheetId="6" r:id="rId2"/>
     <sheet name="Материалы" sheetId="3" r:id="rId3"/>
-    <sheet name="Оси" sheetId="8" r:id="rId4"/>
-    <sheet name="Высоты" sheetId="7" r:id="rId5"/>
+    <sheet name="Расчёт арматуры" sheetId="9" r:id="rId4"/>
+    <sheet name="Оси" sheetId="8" r:id="rId5"/>
+    <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="367">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1241,6 +1242,49 @@
   </si>
   <si>
     <t>Стена + мп1/мп2 (от проектного нуля - плита)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 мм </t>
+  </si>
+  <si>
+    <t>12 мм</t>
+  </si>
+  <si>
+    <t>МП-3 (метры)</t>
+  </si>
+  <si>
+    <t>Армирование несущих стен (внеш)</t>
+  </si>
+  <si>
+    <t>Армирование несущих стен (внутр)</t>
+  </si>
+  <si>
+    <t>МП-1 БМ  (метры)</t>
+  </si>
+  <si>
+    <t>МП-2  (метры)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сумма </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(метры)</t>
+    </r>
+  </si>
+  <si>
+    <t>Расчёт арматуры</t>
+  </si>
+  <si>
+    <t>штук (делю на 6)</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1470,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1482,6 +1526,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1602,6 +1647,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B2:D9" totalsRowShown="0">
+  <autoFilter ref="B2:D9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Наименование"/>
+    <tableColumn id="2" name="8 мм "/>
+    <tableColumn id="3" name="12 мм"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A3:C10" totalsRowShown="0">
   <autoFilter ref="A3:C10"/>
   <tableColumns count="3">
@@ -1613,7 +1670,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица54" displayName="Таблица54" ref="E3:G10" totalsRowShown="0">
   <autoFilter ref="E3:G10"/>
   <tableColumns count="3">
@@ -1625,7 +1682,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица57" displayName="Таблица57" ref="A15:C22" totalsRowShown="0">
   <autoFilter ref="A15:C22"/>
   <tableColumns count="3">
@@ -1637,7 +1694,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица548" displayName="Таблица548" ref="E15:G22" totalsRowShown="0">
   <autoFilter ref="E15:G22"/>
   <tableColumns count="3">
@@ -1649,7 +1706,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Таблица14" displayName="Таблица14" ref="G3:I9" totalsRowShown="0">
   <autoFilter ref="G3:I9"/>
   <tableColumns count="3">
@@ -1661,7 +1718,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица149" displayName="Таблица149" ref="B3:D8" totalsRowShown="0">
   <autoFilter ref="B3:D8"/>
   <tableColumns count="3">
@@ -1963,7 +2020,7 @@
   <dimension ref="B5:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5639,6 +5696,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3">
+        <v>138</v>
+      </c>
+      <c r="D3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4">
+        <v>133</v>
+      </c>
+      <c r="D4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="11">
+        <f>SUM(C3:C7)</f>
+        <v>528</v>
+      </c>
+      <c r="D8" s="11">
+        <f>SUM(D3:D5)</f>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9">
+        <f>C8/6</f>
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <f>D8/6</f>
+        <v>85.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5989,11 +6165,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="369">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1286,11 +1286,17 @@
   <si>
     <t>штук (делю на 6)</t>
   </si>
+  <si>
+    <t> Уровень 80см магнитный с ручками, точность 0,5мм/м, 3 глазка, DORN PRO</t>
+  </si>
+  <si>
+    <t>Шнур для разметки 50м на катушке Dorn - 2 шт</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1534,6 +1540,12 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1584,12 +1596,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1620,9 +1626,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1632,15 +1638,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2169,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F198"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,12 +5218,38 @@
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D186" s="7"/>
-      <c r="F186" s="9"/>
+      <c r="B186">
+        <v>182</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D186" s="7">
+        <v>1055.44</v>
+      </c>
+      <c r="E186" t="s">
+        <v>173</v>
+      </c>
+      <c r="F186" s="9">
+        <v>45744</v>
+      </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D187" s="7"/>
-      <c r="F187" s="9"/>
+      <c r="B187">
+        <v>183</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D187" s="7">
+        <v>246.55</v>
+      </c>
+      <c r="E187" t="s">
+        <v>173</v>
+      </c>
+      <c r="F187" s="9">
+        <v>45744</v>
+      </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D188" s="7"/>
@@ -5262,7 +5294,7 @@
     <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3292655.43</v>
+        <v>3293957.42</v>
       </c>
       <c r="F198" s="9"/>
     </row>
@@ -5698,8 +5730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="372">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1291,6 +1291,15 @@
   </si>
   <si>
     <t>Шнур для разметки 50м на катушке Dorn - 2 шт</t>
+  </si>
+  <si>
+    <t>Мастика каучукобитумная 10л</t>
+  </si>
+  <si>
+    <t>Кельма плиточника треугольная 200мм BIHUI</t>
+  </si>
+  <si>
+    <t>Ковш штукатурный, круглое дно, Сибин</t>
   </si>
 </sst>
 </file>
@@ -2175,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,16 +5261,55 @@
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D188" s="7"/>
-      <c r="F188" s="9"/>
+      <c r="B188">
+        <v>184</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D188" s="7">
+        <v>599</v>
+      </c>
+      <c r="E188" t="s">
+        <v>173</v>
+      </c>
+      <c r="F188" s="9">
+        <v>45745</v>
+      </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D189" s="7"/>
-      <c r="F189" s="9"/>
+      <c r="B189">
+        <v>185</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D189" s="7">
+        <v>482.14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>173</v>
+      </c>
+      <c r="F189" s="9">
+        <v>45746</v>
+      </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D190" s="7"/>
-      <c r="F190" s="9"/>
+      <c r="B190">
+        <v>186</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" s="7">
+        <v>299.86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>173</v>
+      </c>
+      <c r="F190" s="9">
+        <v>45746</v>
+      </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D191" s="7"/>
@@ -5294,7 +5342,7 @@
     <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3293957.42</v>
+        <v>3295338.42</v>
       </c>
       <c r="F198" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="378">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1300,6 +1300,24 @@
   </si>
   <si>
     <t>Ковш штукатурный, круглое дно, Сибин</t>
+  </si>
+  <si>
+    <t>Леманапро</t>
+  </si>
+  <si>
+    <t>Цемент 25 кг - 15 мешков м500 + доставка до Солнечного</t>
+  </si>
+  <si>
+    <t>арматура диаметр = 12 мм 10 шт х 6 м</t>
+  </si>
+  <si>
+    <t>У узбеков</t>
+  </si>
+  <si>
+    <t>Шпатель зубчатый 250мм 8х8 нержавеющая сталь, Дельта</t>
+  </si>
+  <si>
+    <t>Шнур полипропиленовый для запуска двигателя 2,7 мм х 2 м</t>
   </si>
 </sst>
 </file>
@@ -2184,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,37 +5330,89 @@
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D191" s="7"/>
-      <c r="F191" s="9"/>
+      <c r="B191">
+        <v>187</v>
+      </c>
+      <c r="C191" t="s">
+        <v>373</v>
+      </c>
+      <c r="D191" s="7">
+        <v>9475</v>
+      </c>
+      <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" s="9">
+        <v>45751</v>
+      </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D192" s="7"/>
-      <c r="F192" s="9"/>
-    </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D193" s="7"/>
-      <c r="F193" s="9"/>
-    </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D194" s="7"/>
-      <c r="F194" s="9"/>
-    </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>188</v>
+      </c>
+      <c r="C192" t="s">
+        <v>374</v>
+      </c>
+      <c r="D192" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E192" t="s">
+        <v>375</v>
+      </c>
+      <c r="F192" s="9">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>189</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D193" s="7">
+        <v>98.97</v>
+      </c>
+      <c r="E193" t="s">
+        <v>173</v>
+      </c>
+      <c r="F193" s="9">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>190</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D194" s="7">
+        <v>44.49</v>
+      </c>
+      <c r="E194" t="s">
+        <v>173</v>
+      </c>
+      <c r="F194" s="9">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D195" s="7"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D196" s="7"/>
       <c r="F196" s="9"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D197" s="7"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D198" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3295338.42</v>
+        <v>3307956.8800000004</v>
       </c>
       <c r="F198" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="380">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1318,6 +1318,12 @@
   </si>
   <si>
     <t>Шнур полипропиленовый для запуска двигателя 2,7 мм х 2 м</t>
+  </si>
+  <si>
+    <t>Угольник Свенсона</t>
+  </si>
+  <si>
+    <t>ОЗОН</t>
   </si>
 </sst>
 </file>
@@ -2202,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,8 +5404,21 @@
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D195" s="7"/>
-      <c r="F195" s="9"/>
+      <c r="B195">
+        <v>191</v>
+      </c>
+      <c r="C195" t="s">
+        <v>378</v>
+      </c>
+      <c r="D195" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E195" t="s">
+        <v>379</v>
+      </c>
+      <c r="F195" s="9">
+        <v>45746</v>
+      </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D196" s="7"/>
@@ -5412,7 +5431,7 @@
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D198" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3307956.8800000004</v>
+        <v>3308956.8800000004</v>
       </c>
       <c r="F198" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="382">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1325,11 +1325,17 @@
   <si>
     <t>ОЗОН</t>
   </si>
+  <si>
+    <t>100х200 мм</t>
+  </si>
+  <si>
+    <t>балки перекрытия</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1509,7 +1515,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1566,18 +1572,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1629,6 +1632,12 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1659,9 +1668,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1671,15 +1680,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1758,8 +1767,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица149" displayName="Таблица149" ref="B3:D8" totalsRowShown="0">
-  <autoFilter ref="B3:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица149" displayName="Таблица149" ref="B3:D9" totalsRowShown="0">
+  <autoFilter ref="B3:D9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Наименование"/>
     <tableColumn id="2" name="высота (мм)"/>
@@ -2208,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
@@ -6338,8 +6347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,7 +6475,8 @@
       <c r="B8" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="36">
+        <f>C5+C6+C7+2800</f>
         <v>3030</v>
       </c>
       <c r="D8" t="s">
@@ -6480,6 +6490,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="23">
+        <f>200+C8</f>
+        <v>3230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>380</v>
+      </c>
       <c r="G9" t="s">
         <v>355</v>
       </c>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="388">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1331,11 +1331,29 @@
   <si>
     <t>балки перекрытия</t>
   </si>
+  <si>
+    <t>Ткань наждачная лист 280*230 P40 DORN</t>
+  </si>
+  <si>
+    <t>Муфта канализационная соединительная d110мм РТП</t>
+  </si>
+  <si>
+    <t> Перчатки нейлон с нитриловым обливом, 9/L, сер, Экстра</t>
+  </si>
+  <si>
+    <t> Колено канализационное d110мм угол 45°</t>
+  </si>
+  <si>
+    <t>Колено канализационное d110мм угол 67° РТП</t>
+  </si>
+  <si>
+    <t>Колесо для тачки + перфолента</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1582,6 +1600,12 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1632,12 +1656,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1663,14 +1681,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F198" totalsRowCount="1">
-  <autoFilter ref="B5:F197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F206" totalsRowCount="1">
+  <autoFilter ref="B5:F205"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1680,15 +1698,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2215,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F198"/>
+  <dimension ref="B3:F206"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,19 +5448,129 @@
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D196" s="7"/>
-      <c r="F196" s="9"/>
+      <c r="B196">
+        <v>192</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D196" s="7">
+        <v>57.54</v>
+      </c>
+      <c r="E196" t="s">
+        <v>173</v>
+      </c>
+      <c r="F196" s="9">
+        <v>45769</v>
+      </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D197" s="7"/>
-      <c r="F197" s="9"/>
+      <c r="B197">
+        <v>193</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D197" s="7">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="E197" t="s">
+        <v>173</v>
+      </c>
+      <c r="F197" s="9">
+        <v>45769</v>
+      </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>194</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>384</v>
+      </c>
       <c r="D198" s="7">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="E198" t="s">
+        <v>173</v>
+      </c>
+      <c r="F198" s="9">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>195</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D199" s="7">
+        <v>86.79</v>
+      </c>
+      <c r="E199" t="s">
+        <v>173</v>
+      </c>
+      <c r="F199" s="9">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>196</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D200" s="7">
+        <v>193.1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>292</v>
+      </c>
+      <c r="F200" s="9">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>197</v>
+      </c>
+      <c r="C201" t="s">
+        <v>387</v>
+      </c>
+      <c r="D201" s="7">
+        <v>1064</v>
+      </c>
+      <c r="E201" t="s">
+        <v>173</v>
+      </c>
+      <c r="F201" s="9">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D202" s="7"/>
+      <c r="F202" s="9"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D203" s="7"/>
+      <c r="F203" s="9"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D204" s="7"/>
+      <c r="F204" s="9"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D205" s="7"/>
+      <c r="F205" s="9"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D206" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3308956.8800000004</v>
-      </c>
-      <c r="F198" s="9"/>
+        <v>3310492.8900000006</v>
+      </c>
+      <c r="F206" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6347,7 +6475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="390">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1349,11 +1349,17 @@
   <si>
     <t>Колесо для тачки + перфолента</t>
   </si>
+  <si>
+    <t xml:space="preserve">Наколенники </t>
+  </si>
+  <si>
+    <t>Рубанок для газобетона 400х110мм СИБИН</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1681,8 +1687,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F206" totalsRowCount="1">
-  <autoFilter ref="B5:F205"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F215" totalsRowCount="1">
+  <autoFilter ref="B5:F214"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2233,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F206"/>
+  <dimension ref="B3:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,12 +5556,38 @@
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D202" s="7"/>
-      <c r="F202" s="9"/>
+      <c r="B202">
+        <v>198</v>
+      </c>
+      <c r="C202" t="s">
+        <v>388</v>
+      </c>
+      <c r="D202" s="7">
+        <v>445</v>
+      </c>
+      <c r="E202" t="s">
+        <v>126</v>
+      </c>
+      <c r="F202" s="9">
+        <v>45779</v>
+      </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D203" s="7"/>
-      <c r="F203" s="9"/>
+      <c r="B203">
+        <v>199</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D203" s="7">
+        <v>1590</v>
+      </c>
+      <c r="E203" t="s">
+        <v>173</v>
+      </c>
+      <c r="F203" s="9">
+        <v>45779</v>
+      </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D204" s="7"/>
@@ -5566,11 +5598,47 @@
       <c r="F205" s="9"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D206" s="7">
+      <c r="D206" s="7"/>
+      <c r="F206" s="9"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D207" s="7"/>
+      <c r="F207" s="9"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D208" s="7"/>
+      <c r="F208" s="9"/>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D209" s="7"/>
+      <c r="F209" s="9"/>
+    </row>
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D210" s="7"/>
+      <c r="F210" s="9"/>
+    </row>
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D211" s="7"/>
+      <c r="F211" s="9"/>
+    </row>
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D212" s="7"/>
+      <c r="F212" s="9"/>
+    </row>
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D213" s="7"/>
+      <c r="F213" s="9"/>
+    </row>
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D214" s="7"/>
+      <c r="F214" s="9"/>
+    </row>
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D215" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3310492.8900000006</v>
-      </c>
-      <c r="F206" s="9"/>
+        <v>3312527.8900000006</v>
+      </c>
+      <c r="F215" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6124,7 +6192,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="392">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1355,16 +1355,22 @@
   <si>
     <t>Рубанок для газобетона 400х110мм СИБИН</t>
   </si>
+  <si>
+    <t>Проволока вязальная ф 1.2 мм 5 кг</t>
+  </si>
+  <si>
+    <t>карандаш строительный  - 30 р.шт - 3 шт</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,6 +1502,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF21282B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1539,7 +1552,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1599,6 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2241,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,13 +5603,39 @@
         <v>45779</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D204" s="7"/>
-      <c r="F204" s="9"/>
+    <row r="204" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>200</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="D204" s="7">
+        <v>1078</v>
+      </c>
+      <c r="E204" t="s">
+        <v>372</v>
+      </c>
+      <c r="F204" s="9">
+        <v>45782</v>
+      </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D205" s="7"/>
-      <c r="F205" s="9"/>
+      <c r="B205">
+        <v>201</v>
+      </c>
+      <c r="C205" t="s">
+        <v>391</v>
+      </c>
+      <c r="D205" s="7">
+        <v>90</v>
+      </c>
+      <c r="E205" t="s">
+        <v>372</v>
+      </c>
+      <c r="F205" s="9">
+        <v>45782</v>
+      </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D206" s="7"/>
@@ -5636,7 +5676,7 @@
     <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3312527.8900000006</v>
+        <v>3313695.8900000006</v>
       </c>
       <c r="F215" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="393">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1361,11 +1361,14 @@
   <si>
     <t>карандаш строительный  - 30 р.шт - 3 шт</t>
   </si>
+  <si>
+    <t>16 мешков клея для газобетона kleister + доставка</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2256,7 +2259,7 @@
   <dimension ref="B3:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,8 +5641,21 @@
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D206" s="7"/>
-      <c r="F206" s="9"/>
+      <c r="B206">
+        <v>202</v>
+      </c>
+      <c r="C206" t="s">
+        <v>392</v>
+      </c>
+      <c r="D206" s="7">
+        <v>6941</v>
+      </c>
+      <c r="E206" t="s">
+        <v>173</v>
+      </c>
+      <c r="F206" s="9">
+        <v>45788</v>
+      </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D207" s="7"/>
@@ -5676,7 +5692,7 @@
     <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3313695.8900000006</v>
+        <v>3320636.8900000006</v>
       </c>
       <c r="F215" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="394">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1364,11 +1364,14 @@
   <si>
     <t>16 мешков клея для газобетона kleister + доставка</t>
   </si>
+  <si>
+    <t>Доставка гоазоблоков 300 - 8 паллет</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2258,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5658,8 +5661,21 @@
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D207" s="7"/>
-      <c r="F207" s="9"/>
+      <c r="B207">
+        <v>203</v>
+      </c>
+      <c r="C207" t="s">
+        <v>393</v>
+      </c>
+      <c r="D207" s="7">
+        <v>7300</v>
+      </c>
+      <c r="E207" t="s">
+        <v>272</v>
+      </c>
+      <c r="F207" s="9">
+        <v>45791</v>
+      </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D208" s="7"/>
@@ -5692,7 +5708,7 @@
     <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3320636.8900000006</v>
+        <v>3327936.8900000006</v>
       </c>
       <c r="F215" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="395">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1366,6 +1366,9 @@
   </si>
   <si>
     <t>Доставка гоазоблоков 300 - 8 паллет</t>
+  </si>
+  <si>
+    <t>Пила циркулярная дисковая Makita 5008mg</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2265,7 @@
   <dimension ref="B3:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5678,8 +5681,21 @@
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D208" s="7"/>
-      <c r="F208" s="9"/>
+      <c r="B208">
+        <v>204</v>
+      </c>
+      <c r="C208" t="s">
+        <v>394</v>
+      </c>
+      <c r="D208" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E208" t="s">
+        <v>372</v>
+      </c>
+      <c r="F208" s="9">
+        <v>45796</v>
+      </c>
     </row>
     <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209" s="7"/>
@@ -5708,7 +5724,7 @@
     <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3327936.8900000006</v>
+        <v>3347936.8900000006</v>
       </c>
       <c r="F215" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="402">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1370,11 +1370,32 @@
   <si>
     <t>Пила циркулярная дисковая Makita 5008mg</t>
   </si>
+  <si>
+    <t>Триммер аккумуляторный greenworks 40в g409ltk2</t>
+  </si>
+  <si>
+    <t>Шпатель малярный Сибртех 60 мм нержавеющая сталь</t>
+  </si>
+  <si>
+    <t>Рулетка с автостопом DORN 3 м х 16 мм нейлоновое покрытие</t>
+  </si>
+  <si>
+    <t>Отрезной диск по металлу ШУМ 125x1,2x22,2 мм</t>
+  </si>
+  <si>
+    <t>Кепка рабочая зеленая</t>
+  </si>
+  <si>
+    <t>Топорище 41 см</t>
+  </si>
+  <si>
+    <t>3 шт Бауцентр</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1710,8 +1731,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F215" totalsRowCount="1">
-  <autoFilter ref="B5:F214"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F218" totalsRowCount="1">
+  <autoFilter ref="B5:F217"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2262,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F215"/>
+  <dimension ref="B3:F218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5697,36 +5718,126 @@
         <v>45796</v>
       </c>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D209" s="7"/>
-      <c r="F209" s="9"/>
-    </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D210" s="7"/>
-      <c r="F210" s="9"/>
-    </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D211" s="7"/>
-      <c r="F211" s="9"/>
-    </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D212" s="7"/>
-      <c r="F212" s="9"/>
-    </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D213" s="7"/>
-      <c r="F213" s="9"/>
-    </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D214" s="7"/>
-      <c r="F214" s="9"/>
-    </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D215" s="7">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>205</v>
+      </c>
+      <c r="C209" t="s">
+        <v>395</v>
+      </c>
+      <c r="D209" s="7">
+        <v>14154</v>
+      </c>
+      <c r="E209" t="s">
+        <v>372</v>
+      </c>
+      <c r="F209" s="9">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>206</v>
+      </c>
+      <c r="C210" t="s">
+        <v>396</v>
+      </c>
+      <c r="D210" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>173</v>
+      </c>
+      <c r="F210" s="9">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>207</v>
+      </c>
+      <c r="C211" t="s">
+        <v>397</v>
+      </c>
+      <c r="D211" s="7">
+        <v>222.02</v>
+      </c>
+      <c r="E211" t="s">
+        <v>173</v>
+      </c>
+      <c r="F211" s="9">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>208</v>
+      </c>
+      <c r="C212" t="s">
+        <v>398</v>
+      </c>
+      <c r="D212" s="7">
+        <v>78.540000000000006</v>
+      </c>
+      <c r="E212" t="s">
+        <v>401</v>
+      </c>
+      <c r="F212" s="9">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>209</v>
+      </c>
+      <c r="C213" t="s">
+        <v>399</v>
+      </c>
+      <c r="D213" s="7">
+        <v>377.14</v>
+      </c>
+      <c r="E213" t="s">
+        <v>173</v>
+      </c>
+      <c r="F213" s="9">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>210</v>
+      </c>
+      <c r="C214" t="s">
+        <v>400</v>
+      </c>
+      <c r="D214" s="7">
+        <v>192.93</v>
+      </c>
+      <c r="E214" t="s">
+        <v>173</v>
+      </c>
+      <c r="F214" s="9">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D215" s="7"/>
+      <c r="F215" s="9"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D216" s="7"/>
+      <c r="F216" s="9"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D217" s="7"/>
+      <c r="F217" s="9"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D218" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3347936.8900000006</v>
-      </c>
-      <c r="F215" s="9"/>
+        <v>3363018.7200000011</v>
+      </c>
+      <c r="F218" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="405">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1391,11 +1391,20 @@
   <si>
     <t>3 шт Бауцентр</t>
   </si>
+  <si>
+    <t>100 мм</t>
+  </si>
+  <si>
+    <t>50 мм</t>
+  </si>
+  <si>
+    <t>высота от плиты до нижнего края проёма 101,5 см</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1650,12 +1659,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1706,6 +1709,12 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1736,9 +1745,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1748,15 +1757,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2285,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
@@ -6742,8 +6751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6825,6 +6834,9 @@
       <c r="C5" s="31">
         <v>150</v>
       </c>
+      <c r="D5" t="s">
+        <v>402</v>
+      </c>
       <c r="G5" t="s">
         <v>346</v>
       </c>
@@ -6839,6 +6851,9 @@
       <c r="C6" s="27">
         <v>60</v>
       </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
       <c r="G6" t="s">
         <v>347</v>
       </c>
@@ -6915,6 +6930,9 @@
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
       <c r="F12" s="23"/>
       <c r="K12" s="23"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="410">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1220,28 +1220,7 @@
     <t>покрытие пола</t>
   </si>
   <si>
-    <t>блок на жб плите. 2800 + 230 = 3030 - полная высота</t>
-  </si>
-  <si>
-    <t>0 - отметка. Уровень чистового пола</t>
-  </si>
-  <si>
     <t>0 - отметка. Верхний уровень жб плиты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">блок на жб плите. </t>
-  </si>
-  <si>
-    <t>2800 + 230 = 3030 - полная высота</t>
-  </si>
-  <si>
-    <t>Стена + мп1/мп2 (от проектного нуля)</t>
-  </si>
-  <si>
-    <t>Полная высота стены (газобетон)</t>
-  </si>
-  <si>
-    <t>Стена + мп1/мп2 (от проектного нуля - плита)</t>
   </si>
   <si>
     <t xml:space="preserve">8 мм </t>
@@ -1326,12 +1305,6 @@
     <t>ОЗОН</t>
   </si>
   <si>
-    <t>100х200 мм</t>
-  </si>
-  <si>
-    <t>балки перекрытия</t>
-  </si>
-  <si>
     <t>Ткань наждачная лист 280*230 P40 DORN</t>
   </si>
   <si>
@@ -1398,13 +1371,55 @@
     <t>50 мм</t>
   </si>
   <si>
-    <t>высота от плиты до нижнего края проёма 101,5 см</t>
+    <t xml:space="preserve">Полная высота стены (газобетон) </t>
+  </si>
+  <si>
+    <t>от плиты до последнего ряда газобетона</t>
+  </si>
+  <si>
+    <t>Стена + мп1/мп2 (от плиты до мп1/мп2)</t>
+  </si>
+  <si>
+    <t>полная высота стены (газобетон)</t>
+  </si>
+  <si>
+    <t>850+230=1080мм</t>
+  </si>
+  <si>
+    <t>100+50+15=165 (230-165 = 65мм разница между проектами)</t>
+  </si>
+  <si>
+    <t>0 - отметка. Верхний уровень чистового пола</t>
+  </si>
+  <si>
+    <t>от плиты до последнего ряда газобетона (от проектного нуля 2550)</t>
+  </si>
+  <si>
+    <t>2780+250 толщина мп1/мп2 (от проектного нуля 2550+250=2800)</t>
+  </si>
+  <si>
+    <t>2715+250</t>
+  </si>
+  <si>
+    <t>высота нижнего края проема окна от плиты</t>
+  </si>
+  <si>
+    <t>высота от плиты до нижнего края проёма 101,5 см = 1015 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 * 250 = 2750 мм </t>
+  </si>
+  <si>
+    <t>2750 мм  - 2715 мм = 35 мм</t>
+  </si>
+  <si>
+    <t>2750+(250-35) = 2965</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1844,7 +1859,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица149" displayName="Таблица149" ref="B3:D9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица14910" displayName="Таблица14910" ref="B3:D9" totalsRowShown="0">
   <autoFilter ref="B3:D9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Наименование"/>
@@ -5341,7 +5356,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D186" s="7">
         <v>1055.44</v>
@@ -5358,7 +5373,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D187" s="7">
         <v>246.55</v>
@@ -5375,7 +5390,7 @@
         <v>184</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D188" s="7">
         <v>599</v>
@@ -5392,7 +5407,7 @@
         <v>185</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D189" s="7">
         <v>482.14</v>
@@ -5409,7 +5424,7 @@
         <v>186</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D190" s="7">
         <v>299.86</v>
@@ -5426,13 +5441,13 @@
         <v>187</v>
       </c>
       <c r="C191" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D191" s="7">
         <v>9475</v>
       </c>
       <c r="E191" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F191" s="9">
         <v>45751</v>
@@ -5443,13 +5458,13 @@
         <v>188</v>
       </c>
       <c r="C192" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D192" s="7">
         <v>3000</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F192" s="9">
         <v>45752</v>
@@ -5460,7 +5475,7 @@
         <v>189</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D193" s="7">
         <v>98.97</v>
@@ -5477,7 +5492,7 @@
         <v>190</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D194" s="7">
         <v>44.49</v>
@@ -5494,13 +5509,13 @@
         <v>191</v>
       </c>
       <c r="C195" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D195" s="7">
         <v>1000</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F195" s="9">
         <v>45746</v>
@@ -5511,7 +5526,7 @@
         <v>192</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D196" s="7">
         <v>57.54</v>
@@ -5528,7 +5543,7 @@
         <v>193</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D197" s="7">
         <v>67.290000000000006</v>
@@ -5545,7 +5560,7 @@
         <v>194</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D198" s="7">
         <v>67.290000000000006</v>
@@ -5562,7 +5577,7 @@
         <v>195</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D199" s="7">
         <v>86.79</v>
@@ -5579,7 +5594,7 @@
         <v>196</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D200" s="7">
         <v>193.1</v>
@@ -5596,7 +5611,7 @@
         <v>197</v>
       </c>
       <c r="C201" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D201" s="7">
         <v>1064</v>
@@ -5613,7 +5628,7 @@
         <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D202" s="7">
         <v>445</v>
@@ -5630,7 +5645,7 @@
         <v>199</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D203" s="7">
         <v>1590</v>
@@ -5647,13 +5662,13 @@
         <v>200</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D204" s="7">
         <v>1078</v>
       </c>
       <c r="E204" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F204" s="9">
         <v>45782</v>
@@ -5664,13 +5679,13 @@
         <v>201</v>
       </c>
       <c r="C205" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D205" s="7">
         <v>90</v>
       </c>
       <c r="E205" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F205" s="9">
         <v>45782</v>
@@ -5681,7 +5696,7 @@
         <v>202</v>
       </c>
       <c r="C206" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D206" s="7">
         <v>6941</v>
@@ -5698,7 +5713,7 @@
         <v>203</v>
       </c>
       <c r="C207" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D207" s="7">
         <v>7300</v>
@@ -5715,13 +5730,13 @@
         <v>204</v>
       </c>
       <c r="C208" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D208" s="7">
         <v>20000</v>
       </c>
       <c r="E208" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F208" s="9">
         <v>45796</v>
@@ -5732,13 +5747,13 @@
         <v>205</v>
       </c>
       <c r="C209" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D209" s="7">
         <v>14154</v>
       </c>
       <c r="E209" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F209" s="9">
         <v>45808</v>
@@ -5749,7 +5764,7 @@
         <v>206</v>
       </c>
       <c r="C210" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D210" s="7">
         <v>57.2</v>
@@ -5766,7 +5781,7 @@
         <v>207</v>
       </c>
       <c r="C211" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D211" s="7">
         <v>222.02</v>
@@ -5783,13 +5798,13 @@
         <v>208</v>
       </c>
       <c r="C212" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D212" s="7">
         <v>78.540000000000006</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F212" s="9">
         <v>45823</v>
@@ -5800,7 +5815,7 @@
         <v>209</v>
       </c>
       <c r="C213" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D213" s="7">
         <v>377.14</v>
@@ -5817,7 +5832,7 @@
         <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D214" s="7">
         <v>192.93</v>
@@ -6297,7 +6312,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -6305,15 +6320,15 @@
         <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C3">
         <v>138</v>
@@ -6324,7 +6339,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>133</v>
@@ -6335,7 +6350,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -6346,7 +6361,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C6">
         <v>132</v>
@@ -6354,7 +6369,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -6362,7 +6377,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C8" s="11">
         <f>SUM(C3:C7)</f>
@@ -6375,7 +6390,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C9">
         <f>C8/6</f>
@@ -6752,7 +6767,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6760,11 +6775,11 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="48.7109375" customWidth="1"/>
+    <col min="9" max="9" width="62.140625" customWidth="1"/>
     <col min="10" max="10" width="58.140625" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="47.85546875" customWidth="1"/>
@@ -6805,9 +6820,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>342</v>
-      </c>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>345</v>
       </c>
@@ -6815,7 +6828,7 @@
         <v>160</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>342</v>
@@ -6832,10 +6845,10 @@
         <v>346</v>
       </c>
       <c r="C5" s="31">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G5" t="s">
         <v>346</v>
@@ -6849,10 +6862,10 @@
         <v>347</v>
       </c>
       <c r="C6" s="27">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G6" t="s">
         <v>347</v>
@@ -6866,10 +6879,10 @@
         <v>348</v>
       </c>
       <c r="C7" s="28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="G7" t="s">
         <v>348</v>
@@ -6878,51 +6891,56 @@
         <v>20</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C8" s="36">
-        <f>C5+C6+C7+2800</f>
-        <v>3030</v>
+        <f>2550+C5+C6+C7</f>
+        <v>2715</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="G8" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="H8" s="23">
-        <v>2800</v>
+        <f>2550+H5+H6+H7</f>
+        <v>2780</v>
+      </c>
+      <c r="I8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="23">
-        <f>200+C8</f>
-        <v>3230</v>
+        <v>397</v>
+      </c>
+      <c r="C9" s="24">
+        <f>C8+250</f>
+        <v>2965</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="H9" s="24">
-        <f>SUM(H5:H8)</f>
+        <f>H8+250</f>
         <v>3030</v>
       </c>
       <c r="I9" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="24"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6930,62 +6948,69 @@
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>404</v>
-      </c>
       <c r="F12" s="23"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>406</v>
+      </c>
       <c r="F13" s="23"/>
+      <c r="G13" t="s">
+        <v>405</v>
+      </c>
+      <c r="H13" s="24">
+        <f>850+H5+H6+H7</f>
+        <v>1080</v>
+      </c>
+      <c r="I13" t="s">
+        <v>399</v>
+      </c>
       <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="23"/>
       <c r="F14" s="23"/>
       <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="D15" t="s">
+        <v>407</v>
+      </c>
       <c r="F15" s="30"/>
       <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="D16" t="s">
+        <v>408</v>
+      </c>
       <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18">
+        <v>2750</v>
+      </c>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19">
+        <f>2750+215</f>
+        <v>2965</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
       <c r="F19" s="23"/>
       <c r="K19" s="33"/>
       <c r="L19" s="34"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
       <c r="F20" s="23"/>
       <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="418">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1415,16 +1415,40 @@
   <si>
     <t>2750+(250-35) = 2965</t>
   </si>
+  <si>
+    <t>10 мешков клея для газобетона kleister zm22 + доставка</t>
+  </si>
+  <si>
+    <t>Шпилька рез. М8х1000мм.</t>
+  </si>
+  <si>
+    <t>Гайка DIN934 шестигранная оцинк. М8 Кл. проч.8.0 20шт</t>
+  </si>
+  <si>
+    <t>Петля карточная 110х40мм цинк 2 шт</t>
+  </si>
+  <si>
+    <t>Шайба DIN9021 кузовная оцинк. М8 20шт</t>
+  </si>
+  <si>
+    <t> Карандаш каменщика 250мм, Dorn - 3 шт</t>
+  </si>
+  <si>
+    <t>Рукоятка буковая для молотка 1кг, 36см Сибртех</t>
+  </si>
+  <si>
+    <t>помост малярный ПМ-200 + доставка</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1563,6 +1587,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00306F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1606,7 +1639,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1667,12 +1700,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1724,12 +1764,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1755,14 +1789,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F218" totalsRowCount="1">
-  <autoFilter ref="B5:F217"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F225" totalsRowCount="1">
+  <autoFilter ref="B5:F224"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1772,15 +1806,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2307,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F218"/>
+  <dimension ref="B3:F225"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="I211" sqref="I211"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5845,23 +5879,168 @@
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D215" s="7"/>
-      <c r="F215" s="9"/>
+      <c r="B215">
+        <v>211</v>
+      </c>
+      <c r="C215" t="s">
+        <v>410</v>
+      </c>
+      <c r="D215" s="7">
+        <v>4551</v>
+      </c>
+      <c r="E215" t="s">
+        <v>173</v>
+      </c>
+      <c r="F215" s="9">
+        <v>45829</v>
+      </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D216" s="7"/>
-      <c r="F216" s="9"/>
+      <c r="B216">
+        <v>212</v>
+      </c>
+      <c r="C216" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D216" s="7">
+        <v>49.77</v>
+      </c>
+      <c r="E216" t="s">
+        <v>173</v>
+      </c>
+      <c r="F216" s="9">
+        <v>45836</v>
+      </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D217" s="7"/>
-      <c r="F217" s="9"/>
+      <c r="B217">
+        <v>213</v>
+      </c>
+      <c r="C217" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="D217" s="7">
+        <v>55.88</v>
+      </c>
+      <c r="E217" t="s">
+        <v>173</v>
+      </c>
+      <c r="F217" s="9">
+        <v>45836</v>
+      </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>214</v>
+      </c>
+      <c r="C218" s="38" t="s">
+        <v>413</v>
+      </c>
       <c r="D218" s="7">
+        <v>103.04</v>
+      </c>
+      <c r="E218" t="s">
+        <v>173</v>
+      </c>
+      <c r="F218" s="9">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>215</v>
+      </c>
+      <c r="C219" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D219" s="7">
+        <v>64.61</v>
+      </c>
+      <c r="E219" t="s">
+        <v>173</v>
+      </c>
+      <c r="F219" s="9">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>216</v>
+      </c>
+      <c r="C220" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D220" s="7">
+        <v>132.72999999999999</v>
+      </c>
+      <c r="E220" t="s">
+        <v>173</v>
+      </c>
+      <c r="F220" s="9">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>217</v>
+      </c>
+      <c r="C221" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D221" s="7">
+        <v>51.52</v>
+      </c>
+      <c r="E221" t="s">
+        <v>173</v>
+      </c>
+      <c r="F221" s="9">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>218</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D222" s="7">
+        <v>130.1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>173</v>
+      </c>
+      <c r="F222" s="9">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>219</v>
+      </c>
+      <c r="C223" t="s">
+        <v>417</v>
+      </c>
+      <c r="D223" s="7">
+        <v>15789</v>
+      </c>
+      <c r="E223" t="s">
+        <v>173</v>
+      </c>
+      <c r="F223" s="9">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D224" s="7"/>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D225" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3363018.7200000011</v>
-      </c>
-      <c r="F218" s="9"/>
+        <v>3383946.370000001</v>
+      </c>
+      <c r="F225" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6766,7 +6945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1708,12 +1708,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1764,6 +1758,12 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1794,9 +1794,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1806,15 +1806,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2343,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+    <sheetView topLeftCell="A202" workbookViewId="0">
       <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
@@ -6945,7 +6945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="425">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1439,16 +1439,37 @@
   <si>
     <t>помост малярный ПМ-200 + доставка</t>
   </si>
+  <si>
+    <t>Бейсболка (тёмно-синяя)</t>
+  </si>
+  <si>
+    <t>Полукомбинезон рабочий, 245 г/м2, серый, р-р 104-108/176-182, Basic Se</t>
+  </si>
+  <si>
+    <t>Куртка рабочая, 245 г/м2, серый, 104-108/176-182, Basic Series NEO [</t>
+  </si>
+  <si>
+    <t>Полуботинки 4216Т МП, кожа, иск. кожа, ПУ/ПУ, МБС, черный (42) [М]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доставка блоков </t>
+  </si>
+  <si>
+    <t>Соседи</t>
+  </si>
+  <si>
+    <t>Электричество + вода</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,6 +1617,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00306F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1639,7 +1674,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1701,12 +1736,25 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1758,12 +1806,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1789,14 +1831,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F225" totalsRowCount="1">
-  <autoFilter ref="B5:F224"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F237" totalsRowCount="1">
+  <autoFilter ref="B5:F236"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1806,15 +1848,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2341,15 +2383,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F225"/>
+  <dimension ref="B3:F237"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="80.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -6032,15 +6074,167 @@
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D224" s="7"/>
-      <c r="F224" s="9"/>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>220</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D224" s="39">
+        <v>389</v>
+      </c>
+      <c r="E224" t="s">
+        <v>173</v>
+      </c>
+      <c r="F224" s="9">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>221</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>373</v>
+      </c>
       <c r="D225" s="7">
+        <v>59</v>
+      </c>
+      <c r="E225" t="s">
+        <v>173</v>
+      </c>
+      <c r="F225" s="9">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>222</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="D226" s="7">
+        <v>2590</v>
+      </c>
+      <c r="E226" t="s">
+        <v>173</v>
+      </c>
+      <c r="F226" s="9">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>223</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D227" s="7">
+        <v>2590</v>
+      </c>
+      <c r="E227" t="s">
+        <v>173</v>
+      </c>
+      <c r="F227" s="9">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>224</v>
+      </c>
+      <c r="C228" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="D228" s="41">
+        <v>1490</v>
+      </c>
+      <c r="E228" t="s">
+        <v>173</v>
+      </c>
+      <c r="F228" s="9">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>225</v>
+      </c>
+      <c r="C229" t="s">
+        <v>422</v>
+      </c>
+      <c r="D229" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E229" t="s">
+        <v>272</v>
+      </c>
+      <c r="F229" s="9">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>226</v>
+      </c>
+      <c r="C230" t="s">
+        <v>422</v>
+      </c>
+      <c r="D230" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E230" t="s">
+        <v>272</v>
+      </c>
+      <c r="F230" s="9">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>227</v>
+      </c>
+      <c r="C231" t="s">
+        <v>424</v>
+      </c>
+      <c r="D231" s="7">
+        <v>500</v>
+      </c>
+      <c r="E231" t="s">
+        <v>423</v>
+      </c>
+      <c r="F231" s="9">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D232" s="7"/>
+      <c r="F232" s="9"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D233" s="7"/>
+      <c r="F233" s="9"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D234" s="7"/>
+      <c r="F234" s="9"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D235" s="7"/>
+      <c r="F235" s="9"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D236" s="7"/>
+      <c r="F236" s="9"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D237" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3383946.370000001</v>
-      </c>
-      <c r="F225" s="9"/>
+        <v>3406564.370000001</v>
+      </c>
+      <c r="F237" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6945,7 +7139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="421">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1398,22 +1398,10 @@
     <t>2780+250 толщина мп1/мп2 (от проектного нуля 2550+250=2800)</t>
   </si>
   <si>
-    <t>2715+250</t>
-  </si>
-  <si>
     <t>высота нижнего края проема окна от плиты</t>
   </si>
   <si>
     <t>высота от плиты до нижнего края проёма 101,5 см = 1015 мм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 * 250 = 2750 мм </t>
-  </si>
-  <si>
-    <t>2750 мм  - 2715 мм = 35 мм</t>
-  </si>
-  <si>
-    <t>2750+(250-35) = 2965</t>
   </si>
   <si>
     <t>10 мешков клея для газобетона kleister zm22 + доставка</t>
@@ -1750,12 +1738,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1806,6 +1788,12 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1836,9 +1824,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1848,15 +1836,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2385,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,7 +5913,7 @@
         <v>211</v>
       </c>
       <c r="C215" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D215" s="7">
         <v>4551</v>
@@ -5942,7 +5930,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D216" s="7">
         <v>49.77</v>
@@ -5959,7 +5947,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D217" s="7">
         <v>55.88</v>
@@ -5976,7 +5964,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="38" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D218" s="7">
         <v>103.04</v>
@@ -5993,7 +5981,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D219" s="7">
         <v>64.61</v>
@@ -6010,7 +5998,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D220" s="7">
         <v>132.72999999999999</v>
@@ -6044,7 +6032,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D222" s="7">
         <v>130.1</v>
@@ -6061,7 +6049,7 @@
         <v>219</v>
       </c>
       <c r="C223" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D223" s="7">
         <v>15789</v>
@@ -6078,7 +6066,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D224" s="39">
         <v>389</v>
@@ -6112,7 +6100,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D226" s="7">
         <v>2590</v>
@@ -6129,7 +6117,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D227" s="7">
         <v>2590</v>
@@ -6146,7 +6134,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="40" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D228" s="41">
         <v>1490</v>
@@ -6163,7 +6151,7 @@
         <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D229" s="7">
         <v>8000</v>
@@ -6180,7 +6168,7 @@
         <v>226</v>
       </c>
       <c r="C230" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D230" s="7">
         <v>7000</v>
@@ -6197,13 +6185,13 @@
         <v>227</v>
       </c>
       <c r="C231" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D231" s="7">
         <v>500</v>
       </c>
       <c r="E231" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F231" s="9">
         <v>45844</v>
@@ -7139,8 +7127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7272,8 +7260,8 @@
         <v>398</v>
       </c>
       <c r="C8" s="36">
-        <f>2550+C5+C6+C7</f>
-        <v>2715</v>
+        <f>C9-250</f>
+        <v>2765</v>
       </c>
       <c r="D8" t="s">
         <v>396</v>
@@ -7294,11 +7282,8 @@
         <v>397</v>
       </c>
       <c r="C9" s="24">
-        <f>C8+250</f>
-        <v>2965</v>
-      </c>
-      <c r="D9" t="s">
-        <v>404</v>
+        <f>C5+C6+C7+850+1500+500</f>
+        <v>3015</v>
       </c>
       <c r="G9" t="s">
         <v>397</v>
@@ -7326,11 +7311,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H13" s="24">
         <f>850+H5+H6+H7</f>
@@ -7346,35 +7331,19 @@
       <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>407</v>
-      </c>
       <c r="F15" s="30"/>
       <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>408</v>
-      </c>
       <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>2750</v>
-      </c>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>2750+215</f>
-        <v>2965</v>
-      </c>
-      <c r="D19" t="s">
-        <v>409</v>
-      </c>
       <c r="F19" s="23"/>
       <c r="K19" s="33"/>
       <c r="L19" s="34"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="430">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1448,11 +1448,38 @@
   <si>
     <t>Электричество + вода</t>
   </si>
+  <si>
+    <t>Цемент ЦЕМ I 42,5Н Цемрос 50кг</t>
+  </si>
+  <si>
+    <t>8 мешков Бауцентр</t>
+  </si>
+  <si>
+    <t>ведро оцинк - 2 шт</t>
+  </si>
+  <si>
+    <t>Пенополистирол экструдированный ПЕНОПЛЭКС Комфорт 1185х585х20мм</t>
+  </si>
+  <si>
+    <t>Перчатки х/б с ПВХ точкой, к.в.7, Эконом - 10 пар</t>
+  </si>
+  <si>
+    <t>Канал круглый 100 мм х 1 м 10ВП1 ERA</t>
+  </si>
+  <si>
+    <t>Коронка по бетону SDS-Plus 100мм с хвостовиком DORN</t>
+  </si>
+  <si>
+    <t>Клей для блока Klester ZM 22 (25кг)</t>
+  </si>
+  <si>
+    <t>Услуга доставки товара из интернет магазина</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1662,7 +1689,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1731,12 +1758,21 @@
     <xf numFmtId="165" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1788,12 +1824,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1819,14 +1849,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F237" totalsRowCount="1">
-  <autoFilter ref="B5:F236"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F245" totalsRowCount="1">
+  <autoFilter ref="B5:F244"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1836,15 +1866,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2371,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F237"/>
+  <dimension ref="B3:F245"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,31 +6228,127 @@
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D232" s="7"/>
+      <c r="C232" t="s">
+        <v>421</v>
+      </c>
+      <c r="D232" s="7">
+        <v>6675</v>
+      </c>
+      <c r="E232" t="s">
+        <v>422</v>
+      </c>
       <c r="F232" s="9"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D233" s="7"/>
+      <c r="C233" t="s">
+        <v>423</v>
+      </c>
+      <c r="D233" s="7">
+        <v>605</v>
+      </c>
+      <c r="E233" t="s">
+        <v>173</v>
+      </c>
       <c r="F233" s="9"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D234" s="7"/>
+      <c r="C234" t="s">
+        <v>424</v>
+      </c>
+      <c r="D234" s="7">
+        <v>1148</v>
+      </c>
+      <c r="E234" t="s">
+        <v>173</v>
+      </c>
       <c r="F234" s="9"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D235" s="7"/>
+      <c r="C235" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="D235" s="7">
+        <v>153.61000000000001</v>
+      </c>
+      <c r="E235" t="s">
+        <v>173</v>
+      </c>
       <c r="F235" s="9"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D236" s="7"/>
+      <c r="C236" t="s">
+        <v>426</v>
+      </c>
+      <c r="D236" s="7">
+        <v>373.45</v>
+      </c>
+      <c r="E236" t="s">
+        <v>173</v>
+      </c>
       <c r="F236" s="9"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C237" s="42" t="s">
+        <v>427</v>
+      </c>
       <c r="D237" s="7">
+        <v>1143</v>
+      </c>
+      <c r="E237" t="s">
+        <v>173</v>
+      </c>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C238" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="D238" s="7">
+        <v>1843</v>
+      </c>
+      <c r="E238" t="s">
+        <v>173</v>
+      </c>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>429</v>
+      </c>
+      <c r="D239" s="7">
+        <v>1140</v>
+      </c>
+      <c r="E239" t="s">
+        <v>173</v>
+      </c>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D240" s="7"/>
+      <c r="F240" s="9"/>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D241" s="7"/>
+      <c r="F241" s="9"/>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D242" s="7"/>
+      <c r="F242" s="9"/>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D243" s="7"/>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D244" s="7"/>
+      <c r="F244" s="9"/>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D245" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3406564.370000001</v>
-      </c>
-      <c r="F237" s="9"/>
+        <v>3419645.4300000011</v>
+      </c>
+      <c r="F245" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7127,8 +7253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="444">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1475,11 +1475,53 @@
   <si>
     <t>Услуга доставки товара из интернет магазина</t>
   </si>
+  <si>
+    <t>Рубанок металлический классик №3 210x55мм (лезвие 50мм), ЗУБР</t>
+  </si>
+  <si>
+    <t>Маркер разметочный 3мм синий</t>
+  </si>
+  <si>
+    <t>Маркер-краска MunHwa белая, 2мм</t>
+  </si>
+  <si>
+    <t>Бур по бетону SDS-plus 12x350 Quatro Dorn</t>
+  </si>
+  <si>
+    <t>Перчатки х/б с ПВХ точкой, 10пар в уп., к.в.7,5, Эконом</t>
+  </si>
+  <si>
+    <t>Электроды сварочные 2,0 мм 1,0 кг OK 46.00 ESAB</t>
+  </si>
+  <si>
+    <t>Саморез д/г/пл. по дер. 3,5/3,8х45мм 500шт FIXBERG</t>
+  </si>
+  <si>
+    <t>пескобетон м300 25 кг</t>
+  </si>
+  <si>
+    <t>Бауцентр - 3 мешка</t>
+  </si>
+  <si>
+    <t>Химический анкер Tech-KREP EASF EPOXY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клей цемент технониколь </t>
+  </si>
+  <si>
+    <t>Профиль стоечный 100х50х3000 0.4 мм</t>
+  </si>
+  <si>
+    <t>1 тюбик - 700 мл Бауцентр</t>
+  </si>
+  <si>
+    <t>2 профиля Бауцентр</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1849,8 +1891,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F245" totalsRowCount="1">
-  <autoFilter ref="B5:F244"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F260" totalsRowCount="1">
+  <autoFilter ref="B5:F259"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2401,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F245"/>
+  <dimension ref="B3:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6228,6 +6270,9 @@
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>228</v>
+      </c>
       <c r="C232" t="s">
         <v>421</v>
       </c>
@@ -6240,6 +6285,9 @@
       <c r="F232" s="9"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>229</v>
+      </c>
       <c r="C233" t="s">
         <v>423</v>
       </c>
@@ -6324,31 +6372,201 @@
       <c r="F239" s="9"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D240" s="7"/>
-      <c r="F240" s="9"/>
-    </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D241" s="7"/>
-      <c r="F241" s="9"/>
-    </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D242" s="7"/>
-      <c r="F242" s="9"/>
-    </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D243" s="7"/>
-      <c r="F243" s="9"/>
-    </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D244" s="7"/>
-      <c r="F244" s="9"/>
-    </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="C240" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D240" s="19">
+        <v>2089.8000000000002</v>
+      </c>
+      <c r="E240" t="s">
+        <v>173</v>
+      </c>
+      <c r="F240" s="20">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="241" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C241" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D241" s="7">
+        <v>37.22</v>
+      </c>
+      <c r="E241" t="s">
+        <v>173</v>
+      </c>
+      <c r="F241" s="20">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="242" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C242" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D242" s="7">
+        <v>208.98</v>
+      </c>
+      <c r="E242" t="s">
+        <v>173</v>
+      </c>
+      <c r="F242" s="20">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="243" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C243" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D243" s="7">
+        <v>289</v>
+      </c>
+      <c r="E243" t="s">
+        <v>173</v>
+      </c>
+      <c r="F243" s="20">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C244" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="D244" s="7">
+        <v>169</v>
+      </c>
+      <c r="E244" t="s">
+        <v>173</v>
+      </c>
+      <c r="F244" s="20">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="245" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C245" s="18" t="s">
+        <v>435</v>
+      </c>
       <c r="D245" s="7">
+        <v>849</v>
+      </c>
+      <c r="E245" t="s">
+        <v>173</v>
+      </c>
+      <c r="F245" s="20">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="246" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C246" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D246" s="7">
+        <v>339</v>
+      </c>
+      <c r="E246" t="s">
+        <v>173</v>
+      </c>
+      <c r="F246" s="20">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="247" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>437</v>
+      </c>
+      <c r="D247" s="7">
+        <v>881.91</v>
+      </c>
+      <c r="E247" t="s">
+        <v>438</v>
+      </c>
+      <c r="F247" s="9">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="248" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>439</v>
+      </c>
+      <c r="D248" s="7">
+        <v>1464.94</v>
+      </c>
+      <c r="E248" t="s">
+        <v>173</v>
+      </c>
+      <c r="F248" s="9">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="249" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>440</v>
+      </c>
+      <c r="D249" s="7">
+        <v>785.56</v>
+      </c>
+      <c r="E249" t="s">
+        <v>442</v>
+      </c>
+      <c r="F249" s="9">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>441</v>
+      </c>
+      <c r="D250" s="7">
+        <v>1451.16</v>
+      </c>
+      <c r="E250" t="s">
+        <v>443</v>
+      </c>
+      <c r="F250" s="9">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="251" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D251" s="7"/>
+      <c r="F251" s="9"/>
+    </row>
+    <row r="252" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D252" s="7"/>
+      <c r="F252" s="9"/>
+    </row>
+    <row r="253" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D253" s="7"/>
+      <c r="F253" s="9"/>
+    </row>
+    <row r="254" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D254" s="7"/>
+      <c r="F254" s="9"/>
+    </row>
+    <row r="255" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D255" s="7"/>
+      <c r="F255" s="9"/>
+    </row>
+    <row r="256" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D256" s="7"/>
+      <c r="F256" s="9"/>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D257" s="7"/>
+      <c r="F257" s="9"/>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D258" s="7"/>
+      <c r="F258" s="9"/>
+    </row>
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D259" s="7"/>
+      <c r="F259" s="9"/>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D260" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3419645.4300000011</v>
-      </c>
-      <c r="F245" s="9"/>
+        <v>3428211.0000000014</v>
+      </c>
+      <c r="F260" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId5"/>
     <sheet name="Высоты" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="448">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1515,13 +1515,25 @@
     <t>1 тюбик - 700 мл Бауцентр</t>
   </si>
   <si>
-    <t>2 профиля Бауцентр</t>
+    <t>Саморез д/г/пл. по дер. 4,2x65мм 250шт FIXBERG</t>
+  </si>
+  <si>
+    <t> Гвозди оцинк. 3,0х80мм 1кг</t>
+  </si>
+  <si>
+    <t> Саморез д/г/пл. по дер. 3,5/3,8х45мм 500шт FIXBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 профиля Бауцентр </t>
+  </si>
+  <si>
+    <t>2 коробки Бауцентр</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2445,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,23 +6531,53 @@
         <v>1451.16</v>
       </c>
       <c r="E250" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F250" s="9">
         <v>45879</v>
       </c>
     </row>
     <row r="251" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D251" s="7"/>
-      <c r="F251" s="9"/>
+      <c r="C251" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="D251" s="7">
+        <v>515.94000000000005</v>
+      </c>
+      <c r="E251" t="s">
+        <v>447</v>
+      </c>
+      <c r="F251" s="9">
+        <v>45886</v>
+      </c>
     </row>
     <row r="252" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D252" s="7"/>
-      <c r="F252" s="9"/>
+      <c r="C252" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D252" s="7">
+        <v>197.58</v>
+      </c>
+      <c r="E252" t="s">
+        <v>173</v>
+      </c>
+      <c r="F252" s="9">
+        <v>45886</v>
+      </c>
     </row>
     <row r="253" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D253" s="7"/>
-      <c r="F253" s="9"/>
+      <c r="C253" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="D253" s="7">
+        <v>292.48</v>
+      </c>
+      <c r="E253" t="s">
+        <v>173</v>
+      </c>
+      <c r="F253" s="9">
+        <v>45886</v>
+      </c>
     </row>
     <row r="254" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D254" s="7"/>
@@ -6564,7 +6606,7 @@
     <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3428211.0000000014</v>
+        <v>3429217.0000000014</v>
       </c>
       <c r="F260" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,26 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
     <sheet name="Покупки" sheetId="6" r:id="rId2"/>
-    <sheet name="Материалы" sheetId="3" r:id="rId3"/>
-    <sheet name="Расчёт арматуры" sheetId="9" r:id="rId4"/>
-    <sheet name="Оси" sheetId="8" r:id="rId5"/>
-    <sheet name="Высоты" sheetId="7" r:id="rId6"/>
+    <sheet name="расчёт объёма бетона для мп1" sheetId="10" r:id="rId3"/>
+    <sheet name="Расчёт балок перекрытия" sheetId="11" r:id="rId4"/>
+    <sheet name="Материалы" sheetId="3" r:id="rId5"/>
+    <sheet name="Расчёт арматуры" sheetId="9" r:id="rId6"/>
+    <sheet name="Оси" sheetId="8" r:id="rId7"/>
+    <sheet name="Высоты" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="467">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1529,11 +1531,68 @@
   <si>
     <t>2 коробки Бауцентр</t>
   </si>
+  <si>
+    <t>БМ1-1</t>
+  </si>
+  <si>
+    <t>БМ1-2</t>
+  </si>
+  <si>
+    <t>МП2 запад1</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>МП2 запад2</t>
+  </si>
+  <si>
+    <t>МП-2 Восток 1</t>
+  </si>
+  <si>
+    <t>МП-2 Восток 2</t>
+  </si>
+  <si>
+    <t>МП-1-1</t>
+  </si>
+  <si>
+    <t>МП-1-2</t>
+  </si>
+  <si>
+    <t>МП-1-3</t>
+  </si>
+  <si>
+    <t>МП-1-4</t>
+  </si>
+  <si>
+    <t>МП-1-5</t>
+  </si>
+  <si>
+    <t>МП-1-6</t>
+  </si>
+  <si>
+    <t>Балки перекрытия</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>200 х 100 х 6000</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>мм3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -1822,12 +1881,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1878,6 +1931,12 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1908,9 +1967,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1920,15 +1979,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2457,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+    <sheetView topLeftCell="A226" workbookViewId="0">
       <selection activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
@@ -6630,6 +6689,250 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="35">
+        <f>SUM(C4:C15)</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>200 *100*6000</f>
+        <v>120000000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>466</v>
+      </c>
+      <c r="K3">
+        <v>0.12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G3:G9)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <f>G14*K3</f>
+        <v>6.6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7038,7 +7341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D9"/>
   <sheetViews>
@@ -7157,7 +7460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -7509,7 +7812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="469">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1587,6 +1587,12 @@
   </si>
   <si>
     <t>мм3</t>
+  </si>
+  <si>
+    <t>Вик бетон</t>
+  </si>
+  <si>
+    <t>Бетон м300 5м3 + доставка+ насос</t>
   </si>
 </sst>
 </file>
@@ -1881,6 +1887,12 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1931,12 +1943,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -1967,9 +1973,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1979,15 +1985,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="5"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2516,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F260"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6639,8 +6645,18 @@
       </c>
     </row>
     <row r="254" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D254" s="7"/>
-      <c r="F254" s="9"/>
+      <c r="C254" t="s">
+        <v>468</v>
+      </c>
+      <c r="D254" s="7">
+        <v>58000</v>
+      </c>
+      <c r="E254" t="s">
+        <v>467</v>
+      </c>
+      <c r="F254" s="9">
+        <v>45913</v>
+      </c>
     </row>
     <row r="255" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D255" s="7"/>
@@ -6665,7 +6681,7 @@
     <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3429217.0000000014</v>
+        <v>3487217.0000000014</v>
       </c>
       <c r="F260" s="9"/>
     </row>
@@ -6692,7 +6708,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6831,7 +6847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="472">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1593,6 +1593,15 @@
   </si>
   <si>
     <t>Бетон м300 5м3 + доставка+ насос</t>
+  </si>
+  <si>
+    <t>Брус 100х200х6000 (септир) кол-во = 7,08 м3</t>
+  </si>
+  <si>
+    <t>ИП Лыков</t>
+  </si>
+  <si>
+    <t>Доставка бруса 100-200-6000 мм до пос Солнечное манипулятор</t>
   </si>
 </sst>
 </file>
@@ -2522,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,12 +6668,32 @@
       </c>
     </row>
     <row r="255" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D255" s="7"/>
-      <c r="F255" s="9"/>
+      <c r="C255" t="s">
+        <v>469</v>
+      </c>
+      <c r="D255" s="7">
+        <v>194700</v>
+      </c>
+      <c r="E255" t="s">
+        <v>470</v>
+      </c>
+      <c r="F255" s="9">
+        <v>45915</v>
+      </c>
     </row>
     <row r="256" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D256" s="7"/>
-      <c r="F256" s="9"/>
+      <c r="C256" t="s">
+        <v>471</v>
+      </c>
+      <c r="D256" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E256" t="s">
+        <v>470</v>
+      </c>
+      <c r="F256" s="9">
+        <v>45915</v>
+      </c>
     </row>
     <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257" s="7"/>
@@ -6681,7 +6710,7 @@
     <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3487217.0000000014</v>
+        <v>3688917.0000000014</v>
       </c>
       <c r="F260" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="478">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1602,6 +1602,24 @@
   </si>
   <si>
     <t>Доставка бруса 100-200-6000 мм до пос Солнечное манипулятор</t>
+  </si>
+  <si>
+    <t>Гвозди строительные 6х200мм 5кг</t>
+  </si>
+  <si>
+    <t>Диск отрезной 115x1,0 мм диск по металлу Dorn</t>
+  </si>
+  <si>
+    <t> Гвозди строительные 5,0x150мм 1кг</t>
+  </si>
+  <si>
+    <t> Рубероид РКП 350 15м2 ГОСТ (1,6 кг/м2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грунт котлованный 4 машины </t>
+  </si>
+  <si>
+    <t>база сыпучих материалов. Солнечное</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1995,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F260" totalsRowCount="1">
-  <autoFilter ref="B5:F259"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F266" totalsRowCount="1">
+  <autoFilter ref="B5:F265"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2529,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F260"/>
+  <dimension ref="B3:F266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="J258" sqref="J258"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6695,24 +6713,108 @@
         <v>45915</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D257" s="7"/>
-      <c r="F257" s="9"/>
-    </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D258" s="7"/>
-      <c r="F258" s="9"/>
-    </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D259" s="7"/>
-      <c r="F259" s="9"/>
-    </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C257" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D257" s="7">
+        <v>829</v>
+      </c>
+      <c r="E257" t="s">
+        <v>173</v>
+      </c>
+      <c r="F257" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="258" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C258" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D258" s="7">
+        <v>117</v>
+      </c>
+      <c r="E258" t="s">
+        <v>173</v>
+      </c>
+      <c r="F258" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="259" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C259" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D259" s="7">
+        <v>179</v>
+      </c>
+      <c r="E259" t="s">
+        <v>173</v>
+      </c>
+      <c r="F259" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="260" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C260" s="18" t="s">
+        <v>434</v>
+      </c>
       <c r="D260" s="7">
+        <v>169</v>
+      </c>
+      <c r="E260" t="s">
+        <v>173</v>
+      </c>
+      <c r="F260" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="261" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C261" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="D261" s="7">
+        <v>1269</v>
+      </c>
+      <c r="E261" t="s">
+        <v>173</v>
+      </c>
+      <c r="F261" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="262" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>476</v>
+      </c>
+      <c r="D262" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E262" t="s">
+        <v>477</v>
+      </c>
+      <c r="F262" s="9">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="263" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D263" s="7"/>
+      <c r="F263" s="9"/>
+    </row>
+    <row r="264" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D264" s="7"/>
+      <c r="F264" s="9"/>
+    </row>
+    <row r="265" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D265" s="7"/>
+      <c r="F265" s="9"/>
+    </row>
+    <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D266" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3688917.0000000014</v>
-      </c>
-      <c r="F260" s="9"/>
+        <v>3695480.0000000014</v>
+      </c>
+      <c r="F266" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="484">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1620,6 +1620,24 @@
   </si>
   <si>
     <t>база сыпучих материалов. Солнечное</t>
+  </si>
+  <si>
+    <t>Масло для смазки цепи 0,95л SAE 30 OASIS</t>
+  </si>
+  <si>
+    <t>Саморез с п/шайбой со сверлом 4,2х25мм 25 шт. Bullit</t>
+  </si>
+  <si>
+    <t>Опора бруса раскрытая OBR R 100х140х1,8мм 5 шт</t>
+  </si>
+  <si>
+    <t>139,50 р шт</t>
+  </si>
+  <si>
+    <t>Трактор jcb 2500р - доставка, 2700р час.</t>
+  </si>
+  <si>
+    <t>василий, выравниване грунта - глина. 4 часа работы</t>
   </si>
 </sst>
 </file>
@@ -1995,8 +2013,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F266" totalsRowCount="1">
-  <autoFilter ref="B5:F265"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F270" totalsRowCount="1">
+  <autoFilter ref="B5:F269"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2547,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F266"/>
+  <dimension ref="B3:F270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6798,23 +6816,73 @@
       </c>
     </row>
     <row r="263" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D263" s="7"/>
-      <c r="F263" s="9"/>
+      <c r="C263" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D263" s="7">
+        <v>262.33999999999997</v>
+      </c>
+      <c r="F263" s="9">
+        <v>45917</v>
+      </c>
     </row>
     <row r="264" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D264" s="7"/>
-      <c r="F264" s="9"/>
+      <c r="C264" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D264" s="7">
+        <v>56.15</v>
+      </c>
+      <c r="F264" s="9">
+        <v>45917</v>
+      </c>
     </row>
     <row r="265" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D265" s="7"/>
-      <c r="F265" s="9"/>
+      <c r="C265" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="D265" s="7">
+        <v>697.5</v>
+      </c>
+      <c r="E265" t="s">
+        <v>481</v>
+      </c>
+      <c r="F265" s="9">
+        <v>45917</v>
+      </c>
     </row>
     <row r="266" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>482</v>
+      </c>
       <c r="D266" s="7">
+        <v>13300</v>
+      </c>
+      <c r="E266" t="s">
+        <v>483</v>
+      </c>
+      <c r="F266" s="9">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="267" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D267" s="7"/>
+      <c r="F267" s="9"/>
+    </row>
+    <row r="268" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D268" s="7"/>
+      <c r="F268" s="9"/>
+    </row>
+    <row r="269" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D269" s="7"/>
+      <c r="F269" s="9"/>
+    </row>
+    <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D270" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3695480.0000000014</v>
-      </c>
-      <c r="F266" s="9"/>
+        <v>3709795.9900000012</v>
+      </c>
+      <c r="F270" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="491">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1638,6 +1638,27 @@
   </si>
   <si>
     <t>василий, выравниване грунта - глина. 4 часа работы</t>
+  </si>
+  <si>
+    <t>Скобы оцинкованные тип 53, 6мм, 1000шт, РемоКолор</t>
+  </si>
+  <si>
+    <t>Карандаш каменщика 250мм, Dorn</t>
+  </si>
+  <si>
+    <t> Карандаш столяра 250мм, Dorn</t>
+  </si>
+  <si>
+    <t>Маркер перманентный Luxor черный, 3мм</t>
+  </si>
+  <si>
+    <t>Шуруп с шестигранной головкой 10х180мм DIN571</t>
+  </si>
+  <si>
+    <t>2 упак Бауцентр</t>
+  </si>
+  <si>
+    <t>5шт х 39р Бауцентр</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2034,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F270" totalsRowCount="1">
-  <autoFilter ref="B5:F269"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F276" totalsRowCount="1">
+  <autoFilter ref="B5:F275"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2565,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F270"/>
+  <dimension ref="B3:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6866,23 +6887,107 @@
       </c>
     </row>
     <row r="267" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D267" s="7"/>
-      <c r="F267" s="9"/>
+      <c r="C267" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D267" s="7">
+        <v>299</v>
+      </c>
+      <c r="E267" t="s">
+        <v>173</v>
+      </c>
+      <c r="F267" s="9">
+        <v>45919</v>
+      </c>
     </row>
     <row r="268" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D268" s="7"/>
-      <c r="F268" s="9"/>
+      <c r="C268" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D268" s="7">
+        <v>124</v>
+      </c>
+      <c r="E268" t="s">
+        <v>489</v>
+      </c>
+      <c r="F268" s="9">
+        <v>45919</v>
+      </c>
     </row>
     <row r="269" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D269" s="7"/>
-      <c r="F269" s="9"/>
+      <c r="C269" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D269" s="7">
+        <v>59</v>
+      </c>
+      <c r="E269" t="s">
+        <v>173</v>
+      </c>
+      <c r="F269" s="9">
+        <v>45919</v>
+      </c>
     </row>
     <row r="270" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C270" s="18" t="s">
+        <v>486</v>
+      </c>
       <c r="D270" s="7">
+        <v>32</v>
+      </c>
+      <c r="E270" t="s">
+        <v>173</v>
+      </c>
+      <c r="F270" s="9">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="271" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C271" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D271" s="7">
+        <v>69</v>
+      </c>
+      <c r="E271" t="s">
+        <v>173</v>
+      </c>
+      <c r="F271" s="9">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="272" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C272" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D272" s="7">
+        <v>195</v>
+      </c>
+      <c r="E272" t="s">
+        <v>490</v>
+      </c>
+      <c r="F272" s="9">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D273" s="7"/>
+      <c r="F273" s="9"/>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D274" s="7"/>
+      <c r="F274" s="9"/>
+    </row>
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D275" s="7"/>
+      <c r="F275" s="9"/>
+    </row>
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D276" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3709795.9900000012</v>
-      </c>
-      <c r="F270" s="9"/>
+        <v>3710573.9900000012</v>
+      </c>
+      <c r="F276" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="494">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1659,6 +1659,15 @@
   </si>
   <si>
     <t>5шт х 39р Бауцентр</t>
+  </si>
+  <si>
+    <t> Шайба DIN9021 кузовная оцинк. М16 6шт</t>
+  </si>
+  <si>
+    <t>Чашка алмазная зачистная 125 мм Turbo MATRIX</t>
+  </si>
+  <si>
+    <t>Сверло по металлу удлиненное 5,0 х 132мм HSS-G DORN</t>
   </si>
 </sst>
 </file>
@@ -2034,8 +2043,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F276" totalsRowCount="1">
-  <autoFilter ref="B5:F275"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F285" totalsRowCount="1">
+  <autoFilter ref="B5:F284"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2586,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F276"/>
+  <dimension ref="B3:F285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6970,24 +6979,100 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D273" s="7"/>
-      <c r="F273" s="9"/>
-    </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D274" s="7"/>
-      <c r="F274" s="9"/>
-    </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D275" s="7"/>
-      <c r="F275" s="9"/>
-    </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C273" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D273" s="7">
+        <v>99.84</v>
+      </c>
+      <c r="E273" t="s">
+        <v>173</v>
+      </c>
+      <c r="F273" s="9">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C274" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D274" s="7">
+        <v>585.32000000000005</v>
+      </c>
+      <c r="E274" t="s">
+        <v>173</v>
+      </c>
+      <c r="F274" s="9">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C275" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="D275" s="7">
+        <v>99.84</v>
+      </c>
+      <c r="E275" t="s">
+        <v>173</v>
+      </c>
+      <c r="F275" s="9">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C276" s="18" t="s">
+        <v>472</v>
+      </c>
       <c r="D276" s="7">
+        <v>829</v>
+      </c>
+      <c r="E276" t="s">
+        <v>173</v>
+      </c>
+      <c r="F276" s="9">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D277" s="7"/>
+      <c r="F277" s="9"/>
+    </row>
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D278" s="7"/>
+      <c r="F278" s="9"/>
+    </row>
+    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D279" s="7"/>
+      <c r="F279" s="9"/>
+    </row>
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D280" s="7"/>
+      <c r="F280" s="9"/>
+    </row>
+    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D281" s="7"/>
+      <c r="F281" s="9"/>
+    </row>
+    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D282" s="7"/>
+      <c r="F282" s="9"/>
+    </row>
+    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D283" s="7"/>
+      <c r="F283" s="9"/>
+    </row>
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D284" s="7"/>
+      <c r="F284" s="9"/>
+    </row>
+    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D285" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3710573.9900000012</v>
-      </c>
-      <c r="F276" s="9"/>
+        <v>3712187.9900000007</v>
+      </c>
+      <c r="F285" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="494">
   <si>
     <t>№ п/п</t>
   </si>
@@ -2598,7 +2598,7 @@
   <dimension ref="B3:F285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7036,8 +7036,18 @@
       </c>
     </row>
     <row r="277" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D277" s="7"/>
-      <c r="F277" s="9"/>
+      <c r="C277" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D277" s="7">
+        <v>829</v>
+      </c>
+      <c r="E277" t="s">
+        <v>173</v>
+      </c>
+      <c r="F277" s="9">
+        <v>45921</v>
+      </c>
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D278" s="7"/>
@@ -7070,7 +7080,7 @@
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D285" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3712187.9900000007</v>
+        <v>3713016.9900000007</v>
       </c>
       <c r="F285" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="494">
   <si>
     <t>№ п/п</t>
   </si>
@@ -2598,7 +2598,7 @@
   <dimension ref="B3:F285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+      <selection activeCell="C282" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7050,8 +7050,18 @@
       </c>
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D278" s="7"/>
-      <c r="F278" s="9"/>
+      <c r="C278" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D278" s="7">
+        <v>731</v>
+      </c>
+      <c r="E278" t="s">
+        <v>173</v>
+      </c>
+      <c r="F278" s="9">
+        <v>45923</v>
+      </c>
     </row>
     <row r="279" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D279" s="7"/>
@@ -7080,7 +7090,7 @@
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D285" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3713016.9900000007</v>
+        <v>3713747.9900000007</v>
       </c>
       <c r="F285" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="495">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1668,6 +1668,9 @@
   </si>
   <si>
     <t>Сверло по металлу удлиненное 5,0 х 132мм HSS-G DORN</t>
+  </si>
+  <si>
+    <t>Рубероид РКП 350 15м2 ГОСТ (1,6 кг/м2)</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2601,7 @@
   <dimension ref="B3:F285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="C282" sqref="C282"/>
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7064,16 +7067,46 @@
       </c>
     </row>
     <row r="279" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D279" s="7"/>
-      <c r="F279" s="9"/>
+      <c r="C279" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D279" s="7">
+        <v>1269</v>
+      </c>
+      <c r="E279" t="s">
+        <v>173</v>
+      </c>
+      <c r="F279" s="9">
+        <v>45929</v>
+      </c>
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D280" s="7"/>
-      <c r="F280" s="9"/>
+      <c r="C280" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D280" s="7">
+        <v>375</v>
+      </c>
+      <c r="E280" t="s">
+        <v>173</v>
+      </c>
+      <c r="F280" s="9">
+        <v>45929</v>
+      </c>
     </row>
     <row r="281" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D281" s="7"/>
-      <c r="F281" s="9"/>
+      <c r="C281" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D281" s="7">
+        <v>375</v>
+      </c>
+      <c r="E281" t="s">
+        <v>173</v>
+      </c>
+      <c r="F281" s="9">
+        <v>45933</v>
+      </c>
     </row>
     <row r="282" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D282" s="7"/>
@@ -7090,7 +7123,7 @@
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D285" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3713747.9900000007</v>
+        <v>3715766.9900000007</v>
       </c>
       <c r="F285" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="501">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1671,6 +1671,24 @@
   </si>
   <si>
     <t>Рубероид РКП 350 15м2 ГОСТ (1,6 кг/м2)</t>
+  </si>
+  <si>
+    <t>Марк Авито - Доставка 3000р</t>
+  </si>
+  <si>
+    <t>Арматура 12 мм (по 6 метров). 26 штук</t>
+  </si>
+  <si>
+    <t>Шпилька усиленная м16х2000 13 шт -  594рх13 = 7722</t>
+  </si>
+  <si>
+    <t>Гайка шестигранная м16 (84р упак4шт) 84х21 пачку = 1764</t>
+  </si>
+  <si>
+    <t>перчатки облив латекс 68рх2шт</t>
+  </si>
+  <si>
+    <t>Лемана про</t>
   </si>
 </sst>
 </file>
@@ -2046,8 +2064,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F285" totalsRowCount="1">
-  <autoFilter ref="B5:F284"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F290" totalsRowCount="1">
+  <autoFilter ref="B5:F289"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2598,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F285"/>
+  <dimension ref="B3:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="I278" sqref="I278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7109,23 +7127,93 @@
       </c>
     </row>
     <row r="282" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D282" s="7"/>
-      <c r="F282" s="9"/>
+      <c r="C282" t="s">
+        <v>496</v>
+      </c>
+      <c r="D282" s="7">
+        <v>11300</v>
+      </c>
+      <c r="E282" t="s">
+        <v>495</v>
+      </c>
+      <c r="F282" s="9">
+        <v>45946</v>
+      </c>
     </row>
     <row r="283" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D283" s="7"/>
-      <c r="F283" s="9"/>
+      <c r="C283" t="s">
+        <v>497</v>
+      </c>
+      <c r="D283" s="7">
+        <v>7722</v>
+      </c>
+      <c r="E283" t="s">
+        <v>500</v>
+      </c>
+      <c r="F283" s="9">
+        <v>45947</v>
+      </c>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D284" s="7"/>
-      <c r="F284" s="9"/>
+      <c r="C284" t="s">
+        <v>498</v>
+      </c>
+      <c r="D284" s="7">
+        <v>1764</v>
+      </c>
+      <c r="E284" t="s">
+        <v>500</v>
+      </c>
+      <c r="F284" s="9">
+        <v>45947</v>
+      </c>
     </row>
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>499</v>
+      </c>
       <c r="D285" s="7">
+        <v>136</v>
+      </c>
+      <c r="E285" t="s">
+        <v>500</v>
+      </c>
+      <c r="F285" s="9">
+        <v>45947</v>
+      </c>
+    </row>
+    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>381</v>
+      </c>
+      <c r="D286" s="7">
+        <v>717</v>
+      </c>
+      <c r="E286" t="s">
+        <v>500</v>
+      </c>
+      <c r="F286" s="9">
+        <v>45947</v>
+      </c>
+    </row>
+    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D287" s="7"/>
+      <c r="F287" s="9"/>
+    </row>
+    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D288" s="7"/>
+      <c r="F288" s="9"/>
+    </row>
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D289" s="7"/>
+      <c r="F289" s="9"/>
+    </row>
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D290" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3715766.9900000007</v>
-      </c>
-      <c r="F285" s="9"/>
+        <v>3737405.9900000007</v>
+      </c>
+      <c r="F290" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="503">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1689,6 +1689,12 @@
   </si>
   <si>
     <t>Лемана про</t>
+  </si>
+  <si>
+    <t>гайка м16 2 упак по 26 шт</t>
+  </si>
+  <si>
+    <t>Шайбы М16 2 упак по 20 шт</t>
   </si>
 </sst>
 </file>
@@ -2618,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="I278" sqref="I278"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="K280" sqref="K280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7197,12 +7203,32 @@
       </c>
     </row>
     <row r="287" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D287" s="7"/>
-      <c r="F287" s="9"/>
+      <c r="C287" t="s">
+        <v>501</v>
+      </c>
+      <c r="D287" s="7">
+        <v>716</v>
+      </c>
+      <c r="E287" t="s">
+        <v>173</v>
+      </c>
+      <c r="F287" s="9">
+        <v>45949</v>
+      </c>
     </row>
     <row r="288" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D288" s="7"/>
-      <c r="F288" s="9"/>
+      <c r="C288" t="s">
+        <v>502</v>
+      </c>
+      <c r="D288" s="7">
+        <v>604</v>
+      </c>
+      <c r="E288" t="s">
+        <v>173</v>
+      </c>
+      <c r="F288" s="9">
+        <v>45949</v>
+      </c>
     </row>
     <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="7"/>
@@ -7211,7 +7237,7 @@
     <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3737405.9900000007</v>
+        <v>3738725.9900000007</v>
       </c>
       <c r="F290" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="511">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1695,6 +1695,30 @@
   </si>
   <si>
     <t>Шайбы М16 2 упак по 20 шт</t>
+  </si>
+  <si>
+    <t>Лента упаковочная 48мм х 120м прозрачная</t>
+  </si>
+  <si>
+    <t>Саморез д/г.пл. по дер. 3,5х41мм 200шт FIXBERG</t>
+  </si>
+  <si>
+    <t>ОСБ 15 мм - 25 шт</t>
+  </si>
+  <si>
+    <t>1700р.шт + 2000р доставка - АВИТО - Камская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бетон м300 - 3.5м3 </t>
+  </si>
+  <si>
+    <t>8300р/м3 + 15000р доставка ВИК бетон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аренда вибратора для бетона </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авито дмитрий снт </t>
   </si>
 </sst>
 </file>
@@ -2070,8 +2094,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F290" totalsRowCount="1">
-  <autoFilter ref="B5:F289"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F302" totalsRowCount="1">
+  <autoFilter ref="B5:F301"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2622,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F290"/>
+  <dimension ref="B3:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="K280" sqref="K280"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7230,16 +7254,124 @@
         <v>45949</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D289" s="7"/>
-      <c r="F289" s="9"/>
-    </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C289" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="D289" s="7">
+        <v>139.35</v>
+      </c>
+      <c r="E289" t="s">
+        <v>173</v>
+      </c>
+      <c r="F289" s="9">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C290" s="18" t="s">
+        <v>503</v>
+      </c>
       <c r="D290" s="7">
+        <v>131.11000000000001</v>
+      </c>
+      <c r="E290" t="s">
+        <v>173</v>
+      </c>
+      <c r="F290" s="9">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C291" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D291" s="7">
+        <v>246.54</v>
+      </c>
+      <c r="E291" t="s">
+        <v>173</v>
+      </c>
+      <c r="F291" s="9">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>505</v>
+      </c>
+      <c r="D292" s="7">
+        <v>44500</v>
+      </c>
+      <c r="E292" t="s">
+        <v>506</v>
+      </c>
+      <c r="F292" s="9">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>507</v>
+      </c>
+      <c r="D293" s="7">
+        <v>44050</v>
+      </c>
+      <c r="E293" t="s">
+        <v>508</v>
+      </c>
+      <c r="F293" s="9">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>509</v>
+      </c>
+      <c r="D294" s="7">
+        <v>500</v>
+      </c>
+      <c r="E294" t="s">
+        <v>510</v>
+      </c>
+      <c r="F294" s="9">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D295" s="7"/>
+      <c r="F295" s="9"/>
+    </row>
+    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D296" s="7"/>
+      <c r="F296" s="9"/>
+    </row>
+    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D297" s="7"/>
+      <c r="F297" s="9"/>
+    </row>
+    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D298" s="7"/>
+      <c r="F298" s="9"/>
+    </row>
+    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D299" s="7"/>
+      <c r="F299" s="9"/>
+    </row>
+    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D300" s="7"/>
+      <c r="F300" s="9"/>
+    </row>
+    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D301" s="7"/>
+      <c r="F301" s="9"/>
+    </row>
+    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D302" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3738725.9900000007</v>
-      </c>
-      <c r="F290" s="9"/>
+        <v>3828292.9900000007</v>
+      </c>
+      <c r="F302" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="515">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1719,6 +1719,18 @@
   </si>
   <si>
     <t xml:space="preserve">Авито дмитрий снт </t>
+  </si>
+  <si>
+    <t>Доставка манипулятором 7000р + подъём 100х200 14 шт и 150х150 9шт. 1500р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Лыков </t>
+  </si>
+  <si>
+    <t>брус 150х150 (не септир) - 9 шт, брус 100х200(септ) - 7шт, 50х200(септ) - 54шт.</t>
+  </si>
+  <si>
+    <t>Септик для дерева 5 л не смываемый</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2661,7 @@
   <dimension ref="B3:F302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+      <selection activeCell="J288" sqref="J288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7339,16 +7351,46 @@
       </c>
     </row>
     <row r="295" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D295" s="7"/>
-      <c r="F295" s="9"/>
+      <c r="C295" t="s">
+        <v>513</v>
+      </c>
+      <c r="D295" s="7">
+        <v>136080</v>
+      </c>
+      <c r="E295" t="s">
+        <v>470</v>
+      </c>
+      <c r="F295" s="9">
+        <v>45968</v>
+      </c>
     </row>
     <row r="296" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D296" s="7"/>
-      <c r="F296" s="9"/>
+      <c r="C296" t="s">
+        <v>511</v>
+      </c>
+      <c r="D296" s="7">
+        <v>8500</v>
+      </c>
+      <c r="E296" t="s">
+        <v>512</v>
+      </c>
+      <c r="F296" s="9">
+        <v>45968</v>
+      </c>
     </row>
     <row r="297" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D297" s="7"/>
-      <c r="F297" s="9"/>
+      <c r="C297" t="s">
+        <v>514</v>
+      </c>
+      <c r="D297" s="7">
+        <v>3290</v>
+      </c>
+      <c r="E297" t="s">
+        <v>173</v>
+      </c>
+      <c r="F297" s="9">
+        <v>45967</v>
+      </c>
     </row>
     <row r="298" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D298" s="7"/>
@@ -7369,7 +7411,7 @@
     <row r="302" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D302" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3828292.9900000007</v>
+        <v>3976162.9900000007</v>
       </c>
       <c r="F302" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="516">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1731,6 +1731,9 @@
   </si>
   <si>
     <t>Септик для дерева 5 л не смываемый</t>
+  </si>
+  <si>
+    <t>Рубероид РКП 350 15м2 ГОСТ (1,6 кг/м2) -2рул, 3 диска отрезных для болгарки, рулетка на 5 м, кисточка для покраски</t>
   </si>
 </sst>
 </file>
@@ -2661,7 +2664,7 @@
   <dimension ref="B3:F302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="J288" sqref="J288"/>
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7393,8 +7396,18 @@
       </c>
     </row>
     <row r="298" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D298" s="7"/>
-      <c r="F298" s="9"/>
+      <c r="C298" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D298" s="7">
+        <v>2893</v>
+      </c>
+      <c r="E298" t="s">
+        <v>173</v>
+      </c>
+      <c r="F298" s="9">
+        <v>45972</v>
+      </c>
     </row>
     <row r="299" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D299" s="7"/>
@@ -7411,7 +7424,7 @@
     <row r="302" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D302" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3976162.9900000007</v>
+        <v>3979055.9900000007</v>
       </c>
       <c r="F302" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId7"/>
     <sheet name="Высоты" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="518">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1735,11 +1735,17 @@
   <si>
     <t>Рубероид РКП 350 15м2 ГОСТ (1,6 кг/м2) -2рул, 3 диска отрезных для болгарки, рулетка на 5 м, кисточка для покраски</t>
   </si>
+  <si>
+    <t>сверло по дереву 20 мм</t>
+  </si>
+  <si>
+    <t>ТД Строитель</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2664,7 +2670,7 @@
   <dimension ref="B3:F302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="F299" sqref="F299"/>
+      <selection activeCell="E306" sqref="E306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7410,8 +7416,18 @@
       </c>
     </row>
     <row r="299" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D299" s="7"/>
-      <c r="F299" s="9"/>
+      <c r="C299" t="s">
+        <v>516</v>
+      </c>
+      <c r="D299" s="7">
+        <v>569.9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>517</v>
+      </c>
+      <c r="F299" s="9">
+        <v>45974</v>
+      </c>
     </row>
     <row r="300" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D300" s="7"/>
@@ -7424,7 +7440,7 @@
     <row r="302" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D302" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3979055.9900000007</v>
+        <v>3979625.8900000006</v>
       </c>
       <c r="F302" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId7"/>
     <sheet name="Высоты" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="520">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1741,11 +1741,17 @@
   <si>
     <t>ТД Строитель</t>
   </si>
+  <si>
+    <t>Стамеска, прорезиненная ручка, металический боек, CRV сталь, 40мм, DORN</t>
+  </si>
+  <si>
+    <t>Перчатки утепленные, х/б с латексным обливом, 10/XL, корич, GRIZZLY Bradas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2115,8 +2121,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F302" totalsRowCount="1">
-  <autoFilter ref="B5:F301"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F309" totalsRowCount="1">
+  <autoFilter ref="B5:F308"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2667,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F302"/>
+  <dimension ref="B3:F309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="E306" sqref="E306"/>
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7430,19 +7436,67 @@
       </c>
     </row>
     <row r="300" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D300" s="7"/>
-      <c r="F300" s="9"/>
+      <c r="C300" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D300" s="7">
+        <v>265.61</v>
+      </c>
+      <c r="E300" t="s">
+        <v>173</v>
+      </c>
+      <c r="F300" s="9">
+        <v>45979</v>
+      </c>
     </row>
     <row r="301" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D301" s="7"/>
-      <c r="F301" s="9"/>
+      <c r="C301" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D301" s="7">
+        <v>76.39</v>
+      </c>
+      <c r="E301" t="s">
+        <v>173</v>
+      </c>
+      <c r="F301" s="9">
+        <v>45979</v>
+      </c>
     </row>
     <row r="302" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D302" s="7">
+      <c r="D302" s="7"/>
+      <c r="F302" s="9"/>
+    </row>
+    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D303" s="7"/>
+      <c r="F303" s="9"/>
+    </row>
+    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D304" s="7"/>
+      <c r="F304" s="9"/>
+    </row>
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D305" s="7"/>
+      <c r="F305" s="9"/>
+    </row>
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D306" s="7"/>
+      <c r="F306" s="9"/>
+    </row>
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D307" s="7"/>
+      <c r="F307" s="9"/>
+    </row>
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D308" s="7"/>
+      <c r="F308" s="9"/>
+    </row>
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D309" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3979625.8900000006</v>
-      </c>
-      <c r="F302" s="9"/>
+        <v>3979967.8900000006</v>
+      </c>
+      <c r="F309" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId7"/>
     <sheet name="Высоты" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="521">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1747,11 +1747,14 @@
   <si>
     <t>Перчатки утепленные, х/б с латексным обливом, 10/XL, корич, GRIZZLY Bradas</t>
   </si>
+  <si>
+    <t>Шайба DIN9021 кузовная оцинк. М16 12шт</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2676,7 +2679,7 @@
   <dimension ref="B3:F309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+      <selection activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7464,8 +7467,18 @@
       </c>
     </row>
     <row r="302" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D302" s="7"/>
-      <c r="F302" s="9"/>
+      <c r="C302" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D302" s="7">
+        <v>153</v>
+      </c>
+      <c r="E302" t="s">
+        <v>173</v>
+      </c>
+      <c r="F302" s="9">
+        <v>45984</v>
+      </c>
     </row>
     <row r="303" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D303" s="7"/>
@@ -7494,7 +7507,7 @@
     <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3979967.8900000006</v>
+        <v>3980120.8900000006</v>
       </c>
       <c r="F309" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Building\6-131\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <sheet name="Оси" sheetId="8" r:id="rId7"/>
     <sheet name="Высоты" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="524">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1750,11 +1750,20 @@
   <si>
     <t>Шайба DIN9021 кузовная оцинк. М16 12шт</t>
   </si>
+  <si>
+    <t>гвозди строительные 3.5х90мм 1 кг</t>
+  </si>
+  <si>
+    <t>гвозди строительные 4х100мм 1 кг</t>
+  </si>
+  <si>
+    <t>Уголок монтажный усиленный 90х90х65x1,8мм - 4 шт</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
@@ -2679,7 +2688,7 @@
   <dimension ref="B3:F309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="I311" sqref="I311"/>
+      <selection activeCell="H304" sqref="H304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7481,33 +7490,63 @@
       </c>
     </row>
     <row r="303" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D303" s="7"/>
-      <c r="F303" s="9"/>
+      <c r="C303" t="s">
+        <v>521</v>
+      </c>
+      <c r="D303" s="7">
+        <v>154.12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>173</v>
+      </c>
+      <c r="F303" s="9">
+        <v>45995</v>
+      </c>
     </row>
     <row r="304" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D304" s="7"/>
-      <c r="F304" s="9"/>
-    </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D305" s="7"/>
-      <c r="F305" s="9"/>
-    </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>522</v>
+      </c>
+      <c r="D304" s="7">
+        <v>154.12</v>
+      </c>
+      <c r="E304" t="s">
+        <v>173</v>
+      </c>
+      <c r="F304" s="9">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>523</v>
+      </c>
+      <c r="D305" s="7">
+        <v>168.76</v>
+      </c>
+      <c r="E305" t="s">
+        <v>173</v>
+      </c>
+      <c r="F305" s="9">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D306" s="7"/>
       <c r="F306" s="9"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D307" s="7"/>
       <c r="F307" s="9"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D308" s="7"/>
       <c r="F308" s="9"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D309" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3980120.8900000006</v>
+        <v>3980597.8900000006</v>
       </c>
       <c r="F309" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="536">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1758,6 +1758,42 @@
   </si>
   <si>
     <t>Уголок монтажный усиленный 90х90х65x1,8мм - 4 шт</t>
+  </si>
+  <si>
+    <t> Перчатки х/б с латексным обливом, 9/L, сер, к.в.10, PRIMO Bradas</t>
+  </si>
+  <si>
+    <t> Сверло по дереву 14 мм хвостовик Hex-E 1/4 DORN</t>
+  </si>
+  <si>
+    <t> Сверло по металлу 18мм HSS-G DORN</t>
+  </si>
+  <si>
+    <t>Шуруп с шестигранной головкой 10х140мм DIN571 8 шт</t>
+  </si>
+  <si>
+    <t>Диск отрезной 125x1,0x22,2мм по металлу и нержавеющей стали ШУМ 2 шт</t>
+  </si>
+  <si>
+    <t>Шайба DIN9021 кузовная оцинк. М10 10шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полоса 40х4х6000 мм </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полоса 20х4х6000 мм </t>
+  </si>
+  <si>
+    <t>Резка полос</t>
+  </si>
+  <si>
+    <t>3 шт ООО КСМ</t>
+  </si>
+  <si>
+    <t>1 шт ООО КСМ</t>
+  </si>
+  <si>
+    <t>ООО КСМ</t>
   </si>
 </sst>
 </file>
@@ -2133,8 +2169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F309" totalsRowCount="1">
-  <autoFilter ref="B5:F308"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B5:F323" totalsRowCount="1">
+  <autoFilter ref="B5:F322"/>
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
@@ -2685,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F309"/>
+  <dimension ref="B3:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="H304" sqref="H304"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="E323" sqref="E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7532,23 +7568,169 @@
       </c>
     </row>
     <row r="306" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D306" s="7"/>
-      <c r="F306" s="9"/>
+      <c r="C306" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D306" s="7">
+        <v>59</v>
+      </c>
+      <c r="E306" t="s">
+        <v>173</v>
+      </c>
+      <c r="F306" s="20">
+        <v>46001</v>
+      </c>
     </row>
     <row r="307" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D307" s="7"/>
-      <c r="F307" s="9"/>
+      <c r="C307" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D307" s="7">
+        <v>209</v>
+      </c>
+      <c r="E307" t="s">
+        <v>173</v>
+      </c>
+      <c r="F307" s="20">
+        <v>46001</v>
+      </c>
     </row>
     <row r="308" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D308" s="7"/>
-      <c r="F308" s="9"/>
+      <c r="C308" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D308" s="7">
+        <v>989</v>
+      </c>
+      <c r="E308" t="s">
+        <v>173</v>
+      </c>
+      <c r="F308" s="20">
+        <v>46001</v>
+      </c>
     </row>
     <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C309" s="18" t="s">
+        <v>527</v>
+      </c>
       <c r="D309" s="7">
+        <v>256</v>
+      </c>
+      <c r="E309" t="s">
+        <v>173</v>
+      </c>
+      <c r="F309" s="20">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C310" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="D310" s="7">
+        <v>50</v>
+      </c>
+      <c r="E310" t="s">
+        <v>173</v>
+      </c>
+      <c r="F310" s="20">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C311" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D311" s="7">
+        <v>69</v>
+      </c>
+      <c r="E311" t="s">
+        <v>173</v>
+      </c>
+      <c r="F311" s="20">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>530</v>
+      </c>
+      <c r="D312" s="7">
+        <v>2100</v>
+      </c>
+      <c r="E312" t="s">
+        <v>533</v>
+      </c>
+      <c r="F312" s="20">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>531</v>
+      </c>
+      <c r="D313" s="7">
+        <v>380</v>
+      </c>
+      <c r="E313" t="s">
+        <v>534</v>
+      </c>
+      <c r="F313" s="20">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>532</v>
+      </c>
+      <c r="D314" s="7">
+        <v>220</v>
+      </c>
+      <c r="E314" t="s">
+        <v>535</v>
+      </c>
+      <c r="F314" s="20">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D315" s="7"/>
+      <c r="F315" s="9"/>
+    </row>
+    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D316" s="7"/>
+      <c r="F316" s="9"/>
+    </row>
+    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D317" s="7"/>
+      <c r="F317" s="9"/>
+    </row>
+    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D318" s="7"/>
+      <c r="F318" s="9"/>
+    </row>
+    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D319" s="7"/>
+      <c r="F319" s="9"/>
+    </row>
+    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D320" s="7"/>
+      <c r="F320" s="9"/>
+    </row>
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D321" s="7"/>
+      <c r="F321" s="9"/>
+    </row>
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D322" s="7"/>
+      <c r="F322" s="9"/>
+    </row>
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D323" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3980597.8900000006</v>
-      </c>
-      <c r="F309" s="9"/>
+        <v>3984929.8900000006</v>
+      </c>
+      <c r="F323" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="541">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1794,6 +1794,21 @@
   </si>
   <si>
     <t>ООО КСМ</t>
+  </si>
+  <si>
+    <t>Саморез с п/шайбой по дереву 3,8х45мм 50шт.</t>
+  </si>
+  <si>
+    <t>Уголок монтажный усиленный 90х90х65х1,8мм</t>
+  </si>
+  <si>
+    <t>Гвозди строительные 4,0x100мм 1кг</t>
+  </si>
+  <si>
+    <t>Шуруп конструкционный, для дерева, потай, TORX 30 6,0x200мм.</t>
+  </si>
+  <si>
+    <t>12 шт Бауцентр</t>
   </si>
 </sst>
 </file>
@@ -2724,7 +2739,7 @@
   <dimension ref="B3:F323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="E323" sqref="E323"/>
+      <selection activeCell="H318" sqref="H318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7694,20 +7709,60 @@
       </c>
     </row>
     <row r="315" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D315" s="7"/>
-      <c r="F315" s="9"/>
+      <c r="C315" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D315" s="7">
+        <v>158.31</v>
+      </c>
+      <c r="E315" t="s">
+        <v>173</v>
+      </c>
+      <c r="F315" s="9">
+        <v>46014</v>
+      </c>
     </row>
     <row r="316" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D316" s="7"/>
-      <c r="F316" s="9"/>
+      <c r="C316" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D316" s="7">
+        <v>367.2</v>
+      </c>
+      <c r="E316" t="s">
+        <v>173</v>
+      </c>
+      <c r="F316" s="9">
+        <v>46014</v>
+      </c>
     </row>
     <row r="317" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D317" s="7"/>
-      <c r="F317" s="9"/>
+      <c r="C317" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D317" s="7">
+        <v>167.68</v>
+      </c>
+      <c r="E317" t="s">
+        <v>173</v>
+      </c>
+      <c r="F317" s="9">
+        <v>46014</v>
+      </c>
     </row>
     <row r="318" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D318" s="7"/>
-      <c r="F318" s="9"/>
+      <c r="C318" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D318" s="7">
+        <v>550.80999999999995</v>
+      </c>
+      <c r="E318" t="s">
+        <v>540</v>
+      </c>
+      <c r="F318" s="9">
+        <v>46014</v>
+      </c>
     </row>
     <row r="319" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D319" s="7"/>
@@ -7728,7 +7783,7 @@
     <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323" s="7">
         <f>SUBTOTAL(109,Таблица4[Цена (руб)])</f>
-        <v>3984929.8900000006</v>
+        <v>3986173.8900000011</v>
       </c>
       <c r="F323" s="9"/>
     </row>

--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Расчёт арматуры" sheetId="9" r:id="rId6"/>
     <sheet name="Оси" sheetId="8" r:id="rId7"/>
     <sheet name="Высоты" sheetId="7" r:id="rId8"/>
+    <sheet name="Розетки и освещение" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="589">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1809,6 +1810,150 @@
   </si>
   <si>
     <t>12 шт Бауцентр</t>
+  </si>
+  <si>
+    <t>назначение</t>
+  </si>
+  <si>
+    <t>варочная поверхность</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>духовой шкаф</t>
+  </si>
+  <si>
+    <t>посудомоечная машина</t>
+  </si>
+  <si>
+    <t>электрочайник/миксер/мясорубка</t>
+  </si>
+  <si>
+    <t>вытяжка</t>
+  </si>
+  <si>
+    <t>микроволновая печь/кофемашина</t>
+  </si>
+  <si>
+    <t>робот пылесос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сечение провода - </t>
+  </si>
+  <si>
+    <t>количество (шт)</t>
+  </si>
+  <si>
+    <t>диван</t>
+  </si>
+  <si>
+    <t>ИТОГО:</t>
+  </si>
+  <si>
+    <t>телевизор и комуникационное оборудование</t>
+  </si>
+  <si>
+    <t>настольные светильники + зараядки</t>
+  </si>
+  <si>
+    <t>компьютер + принтер</t>
+  </si>
+  <si>
+    <t>бойлер</t>
+  </si>
+  <si>
+    <t>стиральная машина, сушильная машина</t>
+  </si>
+  <si>
+    <t>зеркало (подсветка), фен, электробритва.</t>
+  </si>
+  <si>
+    <t>сечение провода - , влагозащищёное исполнение, УЗО.</t>
+  </si>
+  <si>
+    <t>влагозащищёное исполнение, УЗО.</t>
+  </si>
+  <si>
+    <t>зеркало</t>
+  </si>
+  <si>
+    <t>фен</t>
+  </si>
+  <si>
+    <t>настенный газовый котёл</t>
+  </si>
+  <si>
+    <t>циркуляционные насосы</t>
+  </si>
+  <si>
+    <t>отчистка воды</t>
+  </si>
+  <si>
+    <t>погружной насос для скважины</t>
+  </si>
+  <si>
+    <t>аэрационный насос для септика</t>
+  </si>
+  <si>
+    <t>автоматический выключатель -вывод на восточную сторону</t>
+  </si>
+  <si>
+    <t>автоматический выключатель -вывод на южную сторону</t>
+  </si>
+  <si>
+    <t>питание для кухни</t>
+  </si>
+  <si>
+    <t>автоматический выключатель (возможно буду подключать с уличного щитка)</t>
+  </si>
+  <si>
+    <t>розетка 1</t>
+  </si>
+  <si>
+    <t>розетка 2</t>
+  </si>
+  <si>
+    <t>автоматический выключатель - освещение чердачного помещения</t>
+  </si>
+  <si>
+    <t>количество розеток (шт)</t>
+  </si>
+  <si>
+    <t>Кухня и гостинная - 3, 4 (2 группы на освещение)</t>
+  </si>
+  <si>
+    <t>Детская комната - 5 (одна группа освещения)</t>
+  </si>
+  <si>
+    <t>Родительская комната - 6 (одна группа освещения)</t>
+  </si>
+  <si>
+    <t>Бабушкина комната - 9  (одна группа освещения)</t>
+  </si>
+  <si>
+    <t>санузел - 7  (одна группа освещения)</t>
+  </si>
+  <si>
+    <t>туалет - 8  (одна группа освещения)</t>
+  </si>
+  <si>
+    <t>Техническое помещение - 10  (одна группа освещения)</t>
+  </si>
+  <si>
+    <t>холл - 2  (одна группа освещения)</t>
+  </si>
+  <si>
+    <t>Группа освещения улица ЮГ.</t>
+  </si>
+  <si>
+    <t>Группа освещения улица север.</t>
+  </si>
+  <si>
+    <t>Группа освещения улица восток.</t>
+  </si>
+  <si>
+    <t>Группа освещения улица запад.</t>
   </si>
 </sst>
 </file>
@@ -2101,12 +2246,9 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2159,6 +2301,33 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
     <dxf>
@@ -2189,11 +2358,107 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="5" name="дата" dataDxfId="18" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Таблица13" displayName="Таблица13" ref="B4:D15" totalsRowShown="0">
+  <autoFilter ref="B4:D15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество розеток (шт)" dataDxfId="0"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Таблица1316" displayName="Таблица1316" ref="B19:D23" totalsRowShown="0">
+  <autoFilter ref="B19:D23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="15"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Таблица131617" displayName="Таблица131617" ref="B28:D32" totalsRowShown="0">
+  <autoFilter ref="B28:D32"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="14"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Таблица13161718" displayName="Таблица13161718" ref="B36:D40" totalsRowShown="0">
+  <autoFilter ref="B36:D40"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="13"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Таблица1316171819" displayName="Таблица1316171819" ref="B44:D48" totalsRowShown="0">
+  <autoFilter ref="B44:D48"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="12"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Таблица131617181920" displayName="Таблица131617181920" ref="B52:D55" totalsRowShown="0">
+  <autoFilter ref="B52:D55"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="11"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Таблица13161721" displayName="Таблица13161721" ref="B59:D68" totalsRowShown="0">
+  <autoFilter ref="B59:D68"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="10"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Таблица13161718192023" displayName="Таблица13161718192023" ref="B69:D72" totalsRowShown="0">
+  <autoFilter ref="B69:D72"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="назначение"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="9"/>
+    <tableColumn id="3" name="примечание"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2201,15 +2466,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="3">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2738,7 +3003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+    <sheetView topLeftCell="A288" workbookViewId="0">
       <selection activeCell="H318" sqref="H318"/>
     </sheetView>
   </sheetViews>
@@ -9176,4 +9441,576 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="112" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="23">
+        <f>SUM(C5:C14)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>556</v>
+      </c>
+      <c r="C20" s="23">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C21" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>553</v>
+      </c>
+      <c r="C23" s="23">
+        <f>SUM(C20:C22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C28" t="s">
+        <v>551</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>556</v>
+      </c>
+      <c r="C29" s="23">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>553</v>
+      </c>
+      <c r="C32" s="23">
+        <f>SUM(C29:C31)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>541</v>
+      </c>
+      <c r="C36" t="s">
+        <v>551</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>556</v>
+      </c>
+      <c r="C37" s="23">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>554</v>
+      </c>
+      <c r="C38" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>555</v>
+      </c>
+      <c r="C39" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>553</v>
+      </c>
+      <c r="C40" s="23">
+        <f>SUM(C37:C39)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C43" s="23"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" t="s">
+        <v>551</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>558</v>
+      </c>
+      <c r="C45" s="23">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" s="23">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>559</v>
+      </c>
+      <c r="C47" s="23">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C48" s="23">
+        <f>SUM(C45:C47)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C51" s="23"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>541</v>
+      </c>
+      <c r="C52" t="s">
+        <v>551</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>562</v>
+      </c>
+      <c r="C53" s="23">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>563</v>
+      </c>
+      <c r="C54" s="23">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>553</v>
+      </c>
+      <c r="C55" s="23">
+        <f>SUM(C53:C54)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="23"/>
+    </row>
+    <row r="58" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" s="23"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>541</v>
+      </c>
+      <c r="C59" t="s">
+        <v>551</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" s="23">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>565</v>
+      </c>
+      <c r="C61" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>566</v>
+      </c>
+      <c r="C62" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>567</v>
+      </c>
+      <c r="C63" s="23">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" s="23">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>571</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="23"/>
+      <c r="D66" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="23"/>
+    </row>
+    <row r="68" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C68" s="23"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>541</v>
+      </c>
+      <c r="C69" t="s">
+        <v>551</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>573</v>
+      </c>
+      <c r="C70" s="23">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>574</v>
+      </c>
+      <c r="C71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>553</v>
+      </c>
+      <c r="C72" s="23">
+        <f>SUM(C70:C71)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/6-131.xlsx
+++ b/6-131.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="8145" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёт колличества бетона " sheetId="2" r:id="rId1"/>
@@ -21,13 +21,424 @@
     <sheet name="Оси" sheetId="8" r:id="rId7"/>
     <sheet name="Высоты" sheetId="7" r:id="rId8"/>
     <sheet name="Розетки и освещение" sheetId="12" r:id="rId9"/>
+    <sheet name="сравнение цен на 13_02_26" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Жан Бещанов</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+1390р - Dekraft
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+legrand
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+EKF AVERES
+1490р - Dekraft
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+EKF AVERES
+1490р - Dekraft
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+1990р - ekf
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+1990р - ekf
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Ящик навесной металлический 400х400х150 мм IP66 TDM ELECTRIC ЩМП-4.4.1-0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Ящик навесной металлический 400х400х150 мм IP66 TDM ELECTRIC ЩМП-4.4.1-0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+389р</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+389р</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+399р
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+399р
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
++ 1790р гибкий вал.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
++ 1790р гибкий вал.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Жан Бещанов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Щит металл. ЩРн -24з-0 IP54 IEK</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="613">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1955,6 +2366,78 @@
   <si>
     <t>Группа освещения улица запад.</t>
   </si>
+  <si>
+    <t>Лемана ПРО</t>
+  </si>
+  <si>
+    <t>Комплектующие\Магазины</t>
+  </si>
+  <si>
+    <t>4-полюсный автомат С25А</t>
+  </si>
+  <si>
+    <t>4 - полюсный автомат С20А</t>
+  </si>
+  <si>
+    <t>3-полюсный автомат С16А</t>
+  </si>
+  <si>
+    <t>1-полюсный автомат С10А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ящик электрический уличный </t>
+  </si>
+  <si>
+    <t>Розетка однофазная в шкаф на din рейку</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Цена в Бауцентр (руб)</t>
+  </si>
+  <si>
+    <t>шинка РЕ</t>
+  </si>
+  <si>
+    <t>шинка N</t>
+  </si>
+  <si>
+    <t>Розетка на 3 ф</t>
+  </si>
+  <si>
+    <t>вибратор для бетона</t>
+  </si>
+  <si>
+    <t>гибкий вал</t>
+  </si>
+  <si>
+    <t>ламели для кровати (1шт)</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legrand</t>
+  </si>
+  <si>
+    <t>Dekraft</t>
+  </si>
+  <si>
+    <t>EKF</t>
+  </si>
+  <si>
+    <t>TDM electric</t>
+  </si>
+  <si>
+    <t>IEK</t>
+  </si>
+  <si>
+    <t>Спец 800вт</t>
+  </si>
+  <si>
+    <t>Электроцентр</t>
+  </si>
+  <si>
+    <t>Etimat</t>
+  </si>
 </sst>
 </file>
 
@@ -1964,7 +2447,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2126,6 +2609,34 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2246,9 +2757,27 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="35">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2307,6 +2836,33 @@
       <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;р.&quot;"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2358,9 +2914,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="№ п/п"/>
     <tableColumn id="2" name="Наименование "/>
-    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="Цена (руб)" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="14"/>
     <tableColumn id="4" name="Примечание"/>
-    <tableColumn id="5" name="дата" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="дата" dataDxfId="33" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2371,7 +2927,7 @@
   <autoFilter ref="B4:D15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество розеток (шт)" dataDxfId="0"/>
+    <tableColumn id="2" name="количество розеток (шт)" dataDxfId="30"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2383,7 +2939,7 @@
   <autoFilter ref="B19:D23"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество (шт)" dataDxfId="15"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="29"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2395,7 +2951,7 @@
   <autoFilter ref="B28:D32"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество (шт)" dataDxfId="14"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="28"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2407,7 +2963,7 @@
   <autoFilter ref="B36:D40"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество (шт)" dataDxfId="13"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="27"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2419,7 +2975,7 @@
   <autoFilter ref="B44:D48"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество (шт)" dataDxfId="12"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="26"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2431,7 +2987,7 @@
   <autoFilter ref="B52:D55"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество (шт)" dataDxfId="11"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="25"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2443,7 +2999,7 @@
   <autoFilter ref="B59:D68"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество (шт)" dataDxfId="10"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="24"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2455,10 +3011,38 @@
   <autoFilter ref="B69:D72"/>
   <tableColumns count="3">
     <tableColumn id="1" name="назначение"/>
-    <tableColumn id="2" name="количество (шт)" dataDxfId="9"/>
+    <tableColumn id="2" name="количество (шт)" dataDxfId="23"/>
     <tableColumn id="3" name="примечание"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="B4:C17" totalsRowShown="0">
+  <autoFilter ref="B4:C17"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Комплектующие\Магазины"/>
+    <tableColumn id="2" name=" Цена в Бауцентр (руб)" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица811" displayName="Таблица811" ref="E4:L17" totalsRowShown="0">
+  <autoFilter ref="E4:L17"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Комплектующие\Магазины"/>
+    <tableColumn id="2" name=" Legrand" dataDxfId="21"/>
+    <tableColumn id="6" name="Dekraft" dataDxfId="20"/>
+    <tableColumn id="7" name="EKF" dataDxfId="19"/>
+    <tableColumn id="8" name="TDM electric" dataDxfId="18"/>
+    <tableColumn id="9" name="IEK" dataDxfId="17"/>
+    <tableColumn id="10" name="Спец 800вт" dataDxfId="16"/>
+    <tableColumn id="11" name="Столбец1" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2466,17 +3050,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A4:F28" totalsRowCount="1">
   <autoFilter ref="A4:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Тип" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+    <tableColumn id="1" name="№ п/п" totalsRowLabel="Итого:" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Тип" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Количество (М3/шт)" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="Цена  (м3 или штук)" dataDxfId="32" totalsRowDxfId="9"/>
+    <tableColumn id="5" name="Сумма" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="8">
       <calculatedColumnFormula>Таблица2[[#This Row],[Цена  (м3 или штук)]]*Таблица2[[#This Row],[Количество (М3/шт)]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(E5:E27)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Примечание" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="Примечание" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Таблица81122" displayName="Таблица81122" ref="E22:L35" totalsRowShown="0">
+  <autoFilter ref="E22:L35"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Комплектующие\Магазины"/>
+    <tableColumn id="2" name=" Legrand" dataDxfId="6"/>
+    <tableColumn id="6" name="Dekraft" dataDxfId="5"/>
+    <tableColumn id="7" name="EKF" dataDxfId="4"/>
+    <tableColumn id="8" name="TDM electric" dataDxfId="3"/>
+    <tableColumn id="9" name="IEK" dataDxfId="2"/>
+    <tableColumn id="10" name="Спец 800вт" dataDxfId="1"/>
+    <tableColumn id="11" name="Etimat" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2999,6 +3600,557 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G4" t="s">
+        <v>606</v>
+      </c>
+      <c r="H4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I4" t="s">
+        <v>608</v>
+      </c>
+      <c r="J4" t="s">
+        <v>609</v>
+      </c>
+      <c r="K4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2790</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2150</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1780</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1140</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1213</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2890</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>1743</v>
+      </c>
+      <c r="H6" s="7">
+        <v>882</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1390</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>1338</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
+        <v>706</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="7">
+        <v>339</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5190</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C10" s="7">
+        <v>329</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" t="s">
+        <v>596</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>357</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" t="s">
+        <v>598</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C12" s="7">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" s="7">
+        <v>299</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" t="s">
+        <v>600</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3190</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" t="s">
+        <v>601</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>2472</v>
+      </c>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1790</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
+        <v>2063</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>603</v>
+      </c>
+      <c r="C17" s="7">
+        <v>109</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F22" t="s">
+        <v>605</v>
+      </c>
+      <c r="G22" t="s">
+        <v>606</v>
+      </c>
+      <c r="H22" t="s">
+        <v>607</v>
+      </c>
+      <c r="I22" t="s">
+        <v>608</v>
+      </c>
+      <c r="J22" t="s">
+        <v>609</v>
+      </c>
+      <c r="K22" t="s">
+        <v>610</v>
+      </c>
+      <c r="L22" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="E23" t="s">
+        <v>591</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="E24" t="s">
+        <v>592</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="E25" t="s">
+        <v>593</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7">
+        <v>840</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="E26" t="s">
+        <v>594</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="E27" t="s">
+        <v>595</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7">
+        <v>6256</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="E28" t="s">
+        <v>596</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7">
+        <v>262</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="E29" t="s">
+        <v>598</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="E30" t="s">
+        <v>599</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7">
+        <v>263</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="E31" t="s">
+        <v>600</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7">
+        <v>647</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="E33" t="s">
+        <v>601</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7">
+        <v>5838</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="E34" t="s">
+        <v>602</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="E35" t="s">
+        <v>603</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F323"/>
@@ -9447,7 +10599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
